--- a/core/utils/cadastrodeitens.xlsx
+++ b/core/utils/cadastrodeitens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexandre\Desktop\projeto ventura backend\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA0B98D-47FC-407A-8B14-0F2335348A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA771269-0AC2-41B4-B835-7C4F537C716C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{9029D061-8B28-4E8B-B87C-E01B1A6C0E7F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>PROJETO</t>
   </si>
@@ -123,9 +123,6 @@
     <t>camiseta manga curta</t>
   </si>
   <si>
-    <t>bumenau</t>
-  </si>
-  <si>
     <t>bermuda helanca</t>
   </si>
   <si>
@@ -133,6 +130,9 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>campinas</t>
   </si>
 </sst>
 </file>
@@ -364,36 +364,36 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -741,7 +741,7 @@
   <dimension ref="A1:Z784"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:Z21"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -833,7 +833,7 @@
     </row>
     <row r="2" spans="1:26" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>27</v>
@@ -844,43 +844,25 @@
       <c r="D2" s="19"/>
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
-      <c r="G2" s="20" t="s">
-        <v>35</v>
-      </c>
+      <c r="G2" s="20"/>
       <c r="H2" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
-      <c r="K2" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" s="20" t="s">
-        <v>35</v>
-      </c>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
       <c r="O2" s="20"/>
-      <c r="P2" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" s="20" t="s">
-        <v>35</v>
-      </c>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
       <c r="T2" s="20"/>
       <c r="U2" s="21"/>
       <c r="V2" s="21"/>
@@ -891,10 +873,10 @@
     </row>
     <row r="3" spans="1:26" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>29</v>
@@ -902,43 +884,19 @@
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
-      <c r="G3" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" s="20" t="s">
-        <v>35</v>
-      </c>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
       <c r="O3" s="20"/>
-      <c r="P3" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q3" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="R3" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="S3" s="20" t="s">
-        <v>35</v>
-      </c>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
       <c r="T3" s="20"/>
       <c r="U3" s="21"/>
       <c r="V3" s="21"/>
@@ -949,10 +907,10 @@
     </row>
     <row r="4" spans="1:26" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>30</v>
@@ -960,43 +918,19 @@
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
-      <c r="G4" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="M4" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" s="20" t="s">
-        <v>35</v>
-      </c>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
       <c r="O4" s="20"/>
-      <c r="P4" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q4" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="R4" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="S4" s="20" t="s">
-        <v>35</v>
-      </c>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
       <c r="T4" s="20"/>
       <c r="U4" s="21"/>
       <c r="V4" s="21"/>
@@ -1007,7 +941,7 @@
     </row>
     <row r="5" spans="1:26" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>28</v>
@@ -1018,43 +952,19 @@
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
-      <c r="G5" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="M5" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="N5" s="20" t="s">
-        <v>35</v>
-      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
       <c r="O5" s="20"/>
-      <c r="P5" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q5" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="R5" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="S5" s="20" t="s">
-        <v>35</v>
-      </c>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
       <c r="T5" s="20"/>
       <c r="U5" s="21"/>
       <c r="V5" s="21"/>
@@ -1065,7 +975,7 @@
     </row>
     <row r="6" spans="1:26" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>31</v>
@@ -1076,43 +986,19 @@
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
-      <c r="G6" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="M6" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="N6" s="20" t="s">
-        <v>35</v>
-      </c>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
       <c r="O6" s="20"/>
-      <c r="P6" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q6" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="R6" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="S6" s="20" t="s">
-        <v>35</v>
-      </c>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
       <c r="T6" s="20"/>
       <c r="U6" s="21"/>
       <c r="V6" s="21"/>

--- a/core/utils/cadastrodeitens.xlsx
+++ b/core/utils/cadastrodeitens.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexandre\Desktop\projeto ventura backend\project-beck_ventura\core\utils\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\ventura_project\ventura_project_backend\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA771269-0AC2-41B4-B835-7C4F537C716C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD76577-D281-45B8-B4E5-7782DC44F55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{9029D061-8B28-4E8B-B87C-E01B1A6C0E7F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9029D061-8B28-4E8B-B87C-E01B1A6C0E7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="34">
   <si>
     <t>PROJETO</t>
   </si>
@@ -108,31 +117,25 @@
     <t>00</t>
   </si>
   <si>
-    <t>bermuda suplex</t>
-  </si>
-  <si>
-    <t>calça helanca</t>
-  </si>
-  <si>
     <t>masculino</t>
-  </si>
-  <si>
-    <t>unissex</t>
-  </si>
-  <si>
-    <t>camiseta manga curta</t>
-  </si>
-  <si>
-    <t>bermuda helanca</t>
-  </si>
-  <si>
-    <t>casaco moletom</t>
   </si>
   <si>
     <t>x</t>
   </si>
   <si>
-    <t>campinas</t>
+    <t>botucatu</t>
+  </si>
+  <si>
+    <t>item 1</t>
+  </si>
+  <si>
+    <t>item 2</t>
+  </si>
+  <si>
+    <t>item 3</t>
+  </si>
+  <si>
+    <t>EG/LG</t>
   </si>
 </sst>
 </file>
@@ -205,11 +208,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -738,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13DA9257-B4D5-4E5C-82C2-6ED4623D6343}">
-  <dimension ref="A1:Z784"/>
+  <dimension ref="A1:AA784"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -751,7 +756,7 @@
     <col min="3" max="16384" width="16.28515625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -828,127 +833,205 @@
         <v>15</v>
       </c>
       <c r="Z1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
       <c r="G2" s="20"/>
       <c r="H2" s="20" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
+      <c r="K2" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
+      <c r="P2" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="T2" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
+      <c r="V2" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="W2" s="21"/>
       <c r="X2" s="21"/>
       <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-    </row>
-    <row r="3" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="Z2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA2" s="21"/>
+    </row>
+    <row r="3" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
       <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
+      <c r="H3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
+      <c r="P3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="T3" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
+      <c r="V3" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="W3" s="21"/>
       <c r="X3" s="21"/>
       <c r="Y3" s="21"/>
-      <c r="Z3" s="21"/>
-    </row>
-    <row r="4" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="Z3" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA3" s="21"/>
+    </row>
+    <row r="4" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
       <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
+      <c r="H4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
+      <c r="P4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="S4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="T4" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
+      <c r="V4" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="W4" s="21"/>
       <c r="X4" s="21"/>
       <c r="Y4" s="21"/>
-      <c r="Z4" s="21"/>
-    </row>
-    <row r="5" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="Z4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="AA4" s="21"/>
+    </row>
+    <row r="5" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
@@ -972,17 +1055,12 @@
       <c r="X5" s="21"/>
       <c r="Y5" s="21"/>
       <c r="Z5" s="21"/>
-    </row>
-    <row r="6" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="AA5" s="21"/>
+    </row>
+    <row r="6" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
@@ -1006,8 +1084,9 @@
       <c r="X6" s="21"/>
       <c r="Y6" s="21"/>
       <c r="Z6" s="21"/>
-    </row>
-    <row r="7" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA6" s="21"/>
+    </row>
+    <row r="7" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1034,8 +1113,9 @@
       <c r="X7" s="21"/>
       <c r="Y7" s="21"/>
       <c r="Z7" s="21"/>
-    </row>
-    <row r="8" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA7" s="21"/>
+    </row>
+    <row r="8" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1062,8 +1142,9 @@
       <c r="X8" s="21"/>
       <c r="Y8" s="21"/>
       <c r="Z8" s="21"/>
-    </row>
-    <row r="9" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA8" s="21"/>
+    </row>
+    <row r="9" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1090,8 +1171,9 @@
       <c r="X9" s="21"/>
       <c r="Y9" s="21"/>
       <c r="Z9" s="21"/>
-    </row>
-    <row r="10" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA9" s="21"/>
+    </row>
+    <row r="10" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1118,8 +1200,9 @@
       <c r="X10" s="21"/>
       <c r="Y10" s="21"/>
       <c r="Z10" s="21"/>
-    </row>
-    <row r="11" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA10" s="21"/>
+    </row>
+    <row r="11" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1146,8 +1229,9 @@
       <c r="X11" s="21"/>
       <c r="Y11" s="21"/>
       <c r="Z11" s="21"/>
-    </row>
-    <row r="12" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA11" s="21"/>
+    </row>
+    <row r="12" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1174,8 +1258,9 @@
       <c r="X12" s="21"/>
       <c r="Y12" s="21"/>
       <c r="Z12" s="21"/>
-    </row>
-    <row r="13" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA12" s="21"/>
+    </row>
+    <row r="13" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1202,8 +1287,9 @@
       <c r="X13" s="21"/>
       <c r="Y13" s="21"/>
       <c r="Z13" s="21"/>
-    </row>
-    <row r="14" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA13" s="21"/>
+    </row>
+    <row r="14" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1230,8 +1316,9 @@
       <c r="X14" s="21"/>
       <c r="Y14" s="21"/>
       <c r="Z14" s="21"/>
-    </row>
-    <row r="15" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA14" s="21"/>
+    </row>
+    <row r="15" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1258,8 +1345,9 @@
       <c r="X15" s="21"/>
       <c r="Y15" s="21"/>
       <c r="Z15" s="21"/>
-    </row>
-    <row r="16" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA15" s="21"/>
+    </row>
+    <row r="16" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1286,8 +1374,9 @@
       <c r="X16" s="21"/>
       <c r="Y16" s="21"/>
       <c r="Z16" s="21"/>
-    </row>
-    <row r="17" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA16" s="21"/>
+    </row>
+    <row r="17" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1314,8 +1403,9 @@
       <c r="X17" s="21"/>
       <c r="Y17" s="21"/>
       <c r="Z17" s="21"/>
-    </row>
-    <row r="18" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA17" s="21"/>
+    </row>
+    <row r="18" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1342,8 +1432,9 @@
       <c r="X18" s="21"/>
       <c r="Y18" s="21"/>
       <c r="Z18" s="21"/>
-    </row>
-    <row r="19" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA18" s="21"/>
+    </row>
+    <row r="19" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1370,8 +1461,9 @@
       <c r="X19" s="21"/>
       <c r="Y19" s="21"/>
       <c r="Z19" s="21"/>
-    </row>
-    <row r="20" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA19" s="21"/>
+    </row>
+    <row r="20" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -1398,8 +1490,9 @@
       <c r="X20" s="25"/>
       <c r="Y20" s="25"/>
       <c r="Z20" s="25"/>
-    </row>
-    <row r="21" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA20" s="25"/>
+    </row>
+    <row r="21" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1426,8 +1519,9 @@
       <c r="X21" s="21"/>
       <c r="Y21" s="21"/>
       <c r="Z21" s="21"/>
-    </row>
-    <row r="22" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA21" s="21"/>
+    </row>
+    <row r="22" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -1454,8 +1548,9 @@
       <c r="X22" s="11"/>
       <c r="Y22" s="11"/>
       <c r="Z22" s="11"/>
-    </row>
-    <row r="23" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA22" s="11"/>
+    </row>
+    <row r="23" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1482,8 +1577,9 @@
       <c r="X23" s="11"/>
       <c r="Y23" s="11"/>
       <c r="Z23" s="11"/>
-    </row>
-    <row r="24" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA23" s="11"/>
+    </row>
+    <row r="24" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1510,8 +1606,9 @@
       <c r="X24" s="11"/>
       <c r="Y24" s="11"/>
       <c r="Z24" s="11"/>
-    </row>
-    <row r="25" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA24" s="11"/>
+    </row>
+    <row r="25" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1538,8 +1635,9 @@
       <c r="X25" s="11"/>
       <c r="Y25" s="11"/>
       <c r="Z25" s="11"/>
-    </row>
-    <row r="26" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA25" s="11"/>
+    </row>
+    <row r="26" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1566,8 +1664,9 @@
       <c r="X26" s="11"/>
       <c r="Y26" s="11"/>
       <c r="Z26" s="11"/>
-    </row>
-    <row r="27" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA26" s="11"/>
+    </row>
+    <row r="27" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -1594,8 +1693,9 @@
       <c r="X27" s="11"/>
       <c r="Y27" s="11"/>
       <c r="Z27" s="11"/>
-    </row>
-    <row r="28" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA27" s="11"/>
+    </row>
+    <row r="28" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -1622,8 +1722,9 @@
       <c r="X28" s="11"/>
       <c r="Y28" s="11"/>
       <c r="Z28" s="11"/>
-    </row>
-    <row r="29" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA28" s="11"/>
+    </row>
+    <row r="29" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -1650,8 +1751,9 @@
       <c r="X29" s="11"/>
       <c r="Y29" s="11"/>
       <c r="Z29" s="11"/>
-    </row>
-    <row r="30" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA29" s="11"/>
+    </row>
+    <row r="30" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1678,8 +1780,9 @@
       <c r="X30" s="11"/>
       <c r="Y30" s="11"/>
       <c r="Z30" s="11"/>
-    </row>
-    <row r="31" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA30" s="11"/>
+    </row>
+    <row r="31" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -1706,8 +1809,9 @@
       <c r="X31" s="11"/>
       <c r="Y31" s="11"/>
       <c r="Z31" s="11"/>
-    </row>
-    <row r="32" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA31" s="11"/>
+    </row>
+    <row r="32" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1734,8 +1838,9 @@
       <c r="X32" s="11"/>
       <c r="Y32" s="11"/>
       <c r="Z32" s="11"/>
-    </row>
-    <row r="33" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA32" s="11"/>
+    </row>
+    <row r="33" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -1762,8 +1867,9 @@
       <c r="X33" s="11"/>
       <c r="Y33" s="11"/>
       <c r="Z33" s="11"/>
-    </row>
-    <row r="34" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA33" s="11"/>
+    </row>
+    <row r="34" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -1790,8 +1896,9 @@
       <c r="X34" s="11"/>
       <c r="Y34" s="11"/>
       <c r="Z34" s="11"/>
-    </row>
-    <row r="35" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA34" s="11"/>
+    </row>
+    <row r="35" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1818,8 +1925,9 @@
       <c r="X35" s="11"/>
       <c r="Y35" s="11"/>
       <c r="Z35" s="11"/>
-    </row>
-    <row r="36" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA35" s="11"/>
+    </row>
+    <row r="36" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -1846,8 +1954,9 @@
       <c r="X36" s="11"/>
       <c r="Y36" s="11"/>
       <c r="Z36" s="11"/>
-    </row>
-    <row r="37" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA36" s="11"/>
+    </row>
+    <row r="37" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -1874,8 +1983,9 @@
       <c r="X37" s="11"/>
       <c r="Y37" s="11"/>
       <c r="Z37" s="11"/>
-    </row>
-    <row r="38" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA37" s="11"/>
+    </row>
+    <row r="38" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -1902,8 +2012,9 @@
       <c r="X38" s="11"/>
       <c r="Y38" s="11"/>
       <c r="Z38" s="11"/>
-    </row>
-    <row r="39" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA38" s="11"/>
+    </row>
+    <row r="39" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -1930,8 +2041,9 @@
       <c r="X39" s="11"/>
       <c r="Y39" s="11"/>
       <c r="Z39" s="11"/>
-    </row>
-    <row r="40" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA39" s="11"/>
+    </row>
+    <row r="40" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -1958,8 +2070,9 @@
       <c r="X40" s="11"/>
       <c r="Y40" s="11"/>
       <c r="Z40" s="11"/>
-    </row>
-    <row r="41" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA40" s="11"/>
+    </row>
+    <row r="41" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -1986,8 +2099,9 @@
       <c r="X41" s="11"/>
       <c r="Y41" s="11"/>
       <c r="Z41" s="11"/>
-    </row>
-    <row r="42" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA41" s="11"/>
+    </row>
+    <row r="42" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -2014,8 +2128,9 @@
       <c r="X42" s="11"/>
       <c r="Y42" s="11"/>
       <c r="Z42" s="11"/>
-    </row>
-    <row r="43" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA42" s="11"/>
+    </row>
+    <row r="43" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -2042,8 +2157,9 @@
       <c r="X43" s="11"/>
       <c r="Y43" s="11"/>
       <c r="Z43" s="11"/>
-    </row>
-    <row r="44" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA43" s="11"/>
+    </row>
+    <row r="44" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -2070,8 +2186,9 @@
       <c r="X44" s="11"/>
       <c r="Y44" s="11"/>
       <c r="Z44" s="11"/>
-    </row>
-    <row r="45" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA44" s="11"/>
+    </row>
+    <row r="45" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -2098,8 +2215,9 @@
       <c r="X45" s="11"/>
       <c r="Y45" s="11"/>
       <c r="Z45" s="11"/>
-    </row>
-    <row r="46" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA45" s="11"/>
+    </row>
+    <row r="46" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -2126,8 +2244,9 @@
       <c r="X46" s="11"/>
       <c r="Y46" s="11"/>
       <c r="Z46" s="11"/>
-    </row>
-    <row r="47" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA46" s="11"/>
+    </row>
+    <row r="47" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -2154,8 +2273,9 @@
       <c r="X47" s="11"/>
       <c r="Y47" s="11"/>
       <c r="Z47" s="11"/>
-    </row>
-    <row r="48" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA47" s="11"/>
+    </row>
+    <row r="48" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -2182,8 +2302,9 @@
       <c r="X48" s="11"/>
       <c r="Y48" s="11"/>
       <c r="Z48" s="11"/>
-    </row>
-    <row r="49" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA48" s="11"/>
+    </row>
+    <row r="49" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -2210,8 +2331,9 @@
       <c r="X49" s="11"/>
       <c r="Y49" s="11"/>
       <c r="Z49" s="11"/>
-    </row>
-    <row r="50" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA49" s="11"/>
+    </row>
+    <row r="50" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -2238,8 +2360,9 @@
       <c r="X50" s="11"/>
       <c r="Y50" s="11"/>
       <c r="Z50" s="11"/>
-    </row>
-    <row r="51" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA50" s="11"/>
+    </row>
+    <row r="51" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -2266,8 +2389,9 @@
       <c r="X51" s="11"/>
       <c r="Y51" s="11"/>
       <c r="Z51" s="11"/>
-    </row>
-    <row r="52" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA51" s="11"/>
+    </row>
+    <row r="52" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -2294,8 +2418,9 @@
       <c r="X52" s="11"/>
       <c r="Y52" s="11"/>
       <c r="Z52" s="11"/>
-    </row>
-    <row r="53" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA52" s="11"/>
+    </row>
+    <row r="53" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -2322,8 +2447,9 @@
       <c r="X53" s="11"/>
       <c r="Y53" s="11"/>
       <c r="Z53" s="11"/>
-    </row>
-    <row r="54" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA53" s="11"/>
+    </row>
+    <row r="54" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -2350,8 +2476,9 @@
       <c r="X54" s="11"/>
       <c r="Y54" s="11"/>
       <c r="Z54" s="11"/>
-    </row>
-    <row r="55" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA54" s="11"/>
+    </row>
+    <row r="55" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -2378,8 +2505,9 @@
       <c r="X55" s="11"/>
       <c r="Y55" s="11"/>
       <c r="Z55" s="11"/>
-    </row>
-    <row r="56" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA55" s="11"/>
+    </row>
+    <row r="56" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -2406,8 +2534,9 @@
       <c r="X56" s="11"/>
       <c r="Y56" s="11"/>
       <c r="Z56" s="11"/>
-    </row>
-    <row r="57" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA56" s="11"/>
+    </row>
+    <row r="57" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -2434,8 +2563,9 @@
       <c r="X57" s="11"/>
       <c r="Y57" s="11"/>
       <c r="Z57" s="11"/>
-    </row>
-    <row r="58" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA57" s="11"/>
+    </row>
+    <row r="58" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -2462,8 +2592,9 @@
       <c r="X58" s="11"/>
       <c r="Y58" s="11"/>
       <c r="Z58" s="11"/>
-    </row>
-    <row r="59" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA58" s="11"/>
+    </row>
+    <row r="59" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -2490,8 +2621,9 @@
       <c r="X59" s="11"/>
       <c r="Y59" s="11"/>
       <c r="Z59" s="11"/>
-    </row>
-    <row r="60" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA59" s="11"/>
+    </row>
+    <row r="60" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -2518,8 +2650,9 @@
       <c r="X60" s="11"/>
       <c r="Y60" s="11"/>
       <c r="Z60" s="11"/>
-    </row>
-    <row r="61" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA60" s="11"/>
+    </row>
+    <row r="61" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -2546,8 +2679,9 @@
       <c r="X61" s="11"/>
       <c r="Y61" s="11"/>
       <c r="Z61" s="11"/>
-    </row>
-    <row r="62" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA61" s="11"/>
+    </row>
+    <row r="62" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -2574,8 +2708,9 @@
       <c r="X62" s="11"/>
       <c r="Y62" s="11"/>
       <c r="Z62" s="11"/>
-    </row>
-    <row r="63" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA62" s="11"/>
+    </row>
+    <row r="63" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -2602,8 +2737,9 @@
       <c r="X63" s="11"/>
       <c r="Y63" s="11"/>
       <c r="Z63" s="11"/>
-    </row>
-    <row r="64" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA63" s="11"/>
+    </row>
+    <row r="64" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -2630,8 +2766,9 @@
       <c r="X64" s="11"/>
       <c r="Y64" s="11"/>
       <c r="Z64" s="11"/>
-    </row>
-    <row r="65" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA64" s="11"/>
+    </row>
+    <row r="65" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -2658,8 +2795,9 @@
       <c r="X65" s="11"/>
       <c r="Y65" s="11"/>
       <c r="Z65" s="11"/>
-    </row>
-    <row r="66" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA65" s="11"/>
+    </row>
+    <row r="66" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -2686,8 +2824,9 @@
       <c r="X66" s="11"/>
       <c r="Y66" s="11"/>
       <c r="Z66" s="11"/>
-    </row>
-    <row r="67" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA66" s="11"/>
+    </row>
+    <row r="67" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -2714,8 +2853,9 @@
       <c r="X67" s="11"/>
       <c r="Y67" s="11"/>
       <c r="Z67" s="11"/>
-    </row>
-    <row r="68" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA67" s="11"/>
+    </row>
+    <row r="68" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -2742,8 +2882,9 @@
       <c r="X68" s="11"/>
       <c r="Y68" s="11"/>
       <c r="Z68" s="11"/>
-    </row>
-    <row r="69" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA68" s="11"/>
+    </row>
+    <row r="69" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -2770,8 +2911,9 @@
       <c r="X69" s="11"/>
       <c r="Y69" s="11"/>
       <c r="Z69" s="11"/>
-    </row>
-    <row r="70" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA69" s="11"/>
+    </row>
+    <row r="70" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -2798,8 +2940,9 @@
       <c r="X70" s="11"/>
       <c r="Y70" s="11"/>
       <c r="Z70" s="11"/>
-    </row>
-    <row r="71" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA70" s="11"/>
+    </row>
+    <row r="71" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -2826,8 +2969,9 @@
       <c r="X71" s="11"/>
       <c r="Y71" s="11"/>
       <c r="Z71" s="11"/>
-    </row>
-    <row r="72" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA71" s="11"/>
+    </row>
+    <row r="72" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -2854,8 +2998,9 @@
       <c r="X72" s="11"/>
       <c r="Y72" s="11"/>
       <c r="Z72" s="11"/>
-    </row>
-    <row r="73" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA72" s="11"/>
+    </row>
+    <row r="73" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -2882,8 +3027,9 @@
       <c r="X73" s="11"/>
       <c r="Y73" s="11"/>
       <c r="Z73" s="11"/>
-    </row>
-    <row r="74" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA73" s="11"/>
+    </row>
+    <row r="74" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -2910,8 +3056,9 @@
       <c r="X74" s="11"/>
       <c r="Y74" s="11"/>
       <c r="Z74" s="11"/>
-    </row>
-    <row r="75" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA74" s="11"/>
+    </row>
+    <row r="75" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -2938,8 +3085,9 @@
       <c r="X75" s="11"/>
       <c r="Y75" s="11"/>
       <c r="Z75" s="11"/>
-    </row>
-    <row r="76" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA75" s="11"/>
+    </row>
+    <row r="76" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -2966,8 +3114,9 @@
       <c r="X76" s="11"/>
       <c r="Y76" s="11"/>
       <c r="Z76" s="11"/>
-    </row>
-    <row r="77" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA76" s="11"/>
+    </row>
+    <row r="77" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -2994,8 +3143,9 @@
       <c r="X77" s="11"/>
       <c r="Y77" s="11"/>
       <c r="Z77" s="11"/>
-    </row>
-    <row r="78" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA77" s="11"/>
+    </row>
+    <row r="78" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -3022,8 +3172,9 @@
       <c r="X78" s="11"/>
       <c r="Y78" s="11"/>
       <c r="Z78" s="11"/>
-    </row>
-    <row r="79" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA78" s="11"/>
+    </row>
+    <row r="79" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -3050,8 +3201,9 @@
       <c r="X79" s="11"/>
       <c r="Y79" s="11"/>
       <c r="Z79" s="11"/>
-    </row>
-    <row r="80" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA79" s="11"/>
+    </row>
+    <row r="80" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -3078,8 +3230,9 @@
       <c r="X80" s="11"/>
       <c r="Y80" s="11"/>
       <c r="Z80" s="11"/>
-    </row>
-    <row r="81" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA80" s="11"/>
+    </row>
+    <row r="81" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -3106,8 +3259,9 @@
       <c r="X81" s="11"/>
       <c r="Y81" s="11"/>
       <c r="Z81" s="11"/>
-    </row>
-    <row r="82" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA81" s="11"/>
+    </row>
+    <row r="82" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -3134,8 +3288,9 @@
       <c r="X82" s="11"/>
       <c r="Y82" s="11"/>
       <c r="Z82" s="11"/>
-    </row>
-    <row r="83" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA82" s="11"/>
+    </row>
+    <row r="83" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -3162,8 +3317,9 @@
       <c r="X83" s="11"/>
       <c r="Y83" s="11"/>
       <c r="Z83" s="11"/>
-    </row>
-    <row r="84" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA83" s="11"/>
+    </row>
+    <row r="84" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -3190,8 +3346,9 @@
       <c r="X84" s="11"/>
       <c r="Y84" s="11"/>
       <c r="Z84" s="11"/>
-    </row>
-    <row r="85" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA84" s="11"/>
+    </row>
+    <row r="85" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -3218,8 +3375,9 @@
       <c r="X85" s="11"/>
       <c r="Y85" s="11"/>
       <c r="Z85" s="11"/>
-    </row>
-    <row r="86" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA85" s="11"/>
+    </row>
+    <row r="86" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -3246,8 +3404,9 @@
       <c r="X86" s="11"/>
       <c r="Y86" s="11"/>
       <c r="Z86" s="11"/>
-    </row>
-    <row r="87" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA86" s="11"/>
+    </row>
+    <row r="87" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -3274,8 +3433,9 @@
       <c r="X87" s="11"/>
       <c r="Y87" s="11"/>
       <c r="Z87" s="11"/>
-    </row>
-    <row r="88" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA87" s="11"/>
+    </row>
+    <row r="88" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -3302,8 +3462,9 @@
       <c r="X88" s="11"/>
       <c r="Y88" s="11"/>
       <c r="Z88" s="11"/>
-    </row>
-    <row r="89" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA88" s="11"/>
+    </row>
+    <row r="89" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -3330,8 +3491,9 @@
       <c r="X89" s="11"/>
       <c r="Y89" s="11"/>
       <c r="Z89" s="11"/>
-    </row>
-    <row r="90" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA89" s="11"/>
+    </row>
+    <row r="90" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -3358,8 +3520,9 @@
       <c r="X90" s="11"/>
       <c r="Y90" s="11"/>
       <c r="Z90" s="11"/>
-    </row>
-    <row r="91" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA90" s="11"/>
+    </row>
+    <row r="91" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -3386,8 +3549,9 @@
       <c r="X91" s="11"/>
       <c r="Y91" s="11"/>
       <c r="Z91" s="11"/>
-    </row>
-    <row r="92" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA91" s="11"/>
+    </row>
+    <row r="92" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -3414,8 +3578,9 @@
       <c r="X92" s="11"/>
       <c r="Y92" s="11"/>
       <c r="Z92" s="11"/>
-    </row>
-    <row r="93" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA92" s="11"/>
+    </row>
+    <row r="93" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -3442,8 +3607,9 @@
       <c r="X93" s="11"/>
       <c r="Y93" s="11"/>
       <c r="Z93" s="11"/>
-    </row>
-    <row r="94" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA93" s="11"/>
+    </row>
+    <row r="94" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -3470,8 +3636,9 @@
       <c r="X94" s="11"/>
       <c r="Y94" s="11"/>
       <c r="Z94" s="11"/>
-    </row>
-    <row r="95" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA94" s="11"/>
+    </row>
+    <row r="95" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
@@ -3498,8 +3665,9 @@
       <c r="X95" s="11"/>
       <c r="Y95" s="11"/>
       <c r="Z95" s="11"/>
-    </row>
-    <row r="96" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA95" s="11"/>
+    </row>
+    <row r="96" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A96" s="7"/>
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
@@ -3526,8 +3694,9 @@
       <c r="X96" s="11"/>
       <c r="Y96" s="11"/>
       <c r="Z96" s="11"/>
-    </row>
-    <row r="97" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA96" s="11"/>
+    </row>
+    <row r="97" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A97" s="7"/>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
@@ -3554,8 +3723,9 @@
       <c r="X97" s="11"/>
       <c r="Y97" s="11"/>
       <c r="Z97" s="11"/>
-    </row>
-    <row r="98" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA97" s="11"/>
+    </row>
+    <row r="98" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A98" s="7"/>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
@@ -3582,8 +3752,9 @@
       <c r="X98" s="11"/>
       <c r="Y98" s="11"/>
       <c r="Z98" s="11"/>
-    </row>
-    <row r="99" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA98" s="11"/>
+    </row>
+    <row r="99" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A99" s="7"/>
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
@@ -3610,8 +3781,9 @@
       <c r="X99" s="11"/>
       <c r="Y99" s="11"/>
       <c r="Z99" s="11"/>
-    </row>
-    <row r="100" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA99" s="11"/>
+    </row>
+    <row r="100" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A100" s="7"/>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
@@ -3638,8 +3810,9 @@
       <c r="X100" s="11"/>
       <c r="Y100" s="11"/>
       <c r="Z100" s="11"/>
-    </row>
-    <row r="101" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA100" s="11"/>
+    </row>
+    <row r="101" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A101" s="7"/>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
@@ -3666,8 +3839,9 @@
       <c r="X101" s="11"/>
       <c r="Y101" s="11"/>
       <c r="Z101" s="11"/>
-    </row>
-    <row r="102" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA101" s="11"/>
+    </row>
+    <row r="102" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
@@ -3694,8 +3868,9 @@
       <c r="X102" s="11"/>
       <c r="Y102" s="11"/>
       <c r="Z102" s="11"/>
-    </row>
-    <row r="103" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA102" s="11"/>
+    </row>
+    <row r="103" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
@@ -3722,8 +3897,9 @@
       <c r="X103" s="11"/>
       <c r="Y103" s="11"/>
       <c r="Z103" s="11"/>
-    </row>
-    <row r="104" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA103" s="11"/>
+    </row>
+    <row r="104" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A104" s="7"/>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
@@ -3750,8 +3926,9 @@
       <c r="X104" s="11"/>
       <c r="Y104" s="11"/>
       <c r="Z104" s="11"/>
-    </row>
-    <row r="105" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA104" s="11"/>
+    </row>
+    <row r="105" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A105" s="7"/>
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
@@ -3778,8 +3955,9 @@
       <c r="X105" s="11"/>
       <c r="Y105" s="11"/>
       <c r="Z105" s="11"/>
-    </row>
-    <row r="106" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA105" s="11"/>
+    </row>
+    <row r="106" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A106" s="7"/>
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
@@ -3806,8 +3984,9 @@
       <c r="X106" s="11"/>
       <c r="Y106" s="11"/>
       <c r="Z106" s="11"/>
-    </row>
-    <row r="107" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA106" s="11"/>
+    </row>
+    <row r="107" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A107" s="7"/>
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
@@ -3834,8 +4013,9 @@
       <c r="X107" s="11"/>
       <c r="Y107" s="11"/>
       <c r="Z107" s="11"/>
-    </row>
-    <row r="108" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA107" s="11"/>
+    </row>
+    <row r="108" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A108" s="7"/>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
@@ -3862,8 +4042,9 @@
       <c r="X108" s="11"/>
       <c r="Y108" s="11"/>
       <c r="Z108" s="11"/>
-    </row>
-    <row r="109" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA108" s="11"/>
+    </row>
+    <row r="109" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A109" s="7"/>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
@@ -3890,8 +4071,9 @@
       <c r="X109" s="11"/>
       <c r="Y109" s="11"/>
       <c r="Z109" s="11"/>
-    </row>
-    <row r="110" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA109" s="11"/>
+    </row>
+    <row r="110" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A110" s="7"/>
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
@@ -3918,8 +4100,9 @@
       <c r="X110" s="11"/>
       <c r="Y110" s="11"/>
       <c r="Z110" s="11"/>
-    </row>
-    <row r="111" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA110" s="11"/>
+    </row>
+    <row r="111" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A111" s="7"/>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
@@ -3946,8 +4129,9 @@
       <c r="X111" s="11"/>
       <c r="Y111" s="11"/>
       <c r="Z111" s="11"/>
-    </row>
-    <row r="112" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA111" s="11"/>
+    </row>
+    <row r="112" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A112" s="7"/>
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
@@ -3974,8 +4158,9 @@
       <c r="X112" s="11"/>
       <c r="Y112" s="11"/>
       <c r="Z112" s="11"/>
-    </row>
-    <row r="113" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA112" s="11"/>
+    </row>
+    <row r="113" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A113" s="7"/>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
@@ -4002,8 +4187,9 @@
       <c r="X113" s="11"/>
       <c r="Y113" s="11"/>
       <c r="Z113" s="11"/>
-    </row>
-    <row r="114" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA113" s="11"/>
+    </row>
+    <row r="114" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A114" s="7"/>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
@@ -4030,8 +4216,9 @@
       <c r="X114" s="11"/>
       <c r="Y114" s="11"/>
       <c r="Z114" s="11"/>
-    </row>
-    <row r="115" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA114" s="11"/>
+    </row>
+    <row r="115" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A115" s="7"/>
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
@@ -4058,8 +4245,9 @@
       <c r="X115" s="11"/>
       <c r="Y115" s="11"/>
       <c r="Z115" s="11"/>
-    </row>
-    <row r="116" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA115" s="11"/>
+    </row>
+    <row r="116" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A116" s="7"/>
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
@@ -4086,8 +4274,9 @@
       <c r="X116" s="11"/>
       <c r="Y116" s="11"/>
       <c r="Z116" s="11"/>
-    </row>
-    <row r="117" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA116" s="11"/>
+    </row>
+    <row r="117" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A117" s="7"/>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
@@ -4114,8 +4303,9 @@
       <c r="X117" s="11"/>
       <c r="Y117" s="11"/>
       <c r="Z117" s="11"/>
-    </row>
-    <row r="118" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA117" s="11"/>
+    </row>
+    <row r="118" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A118" s="7"/>
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
@@ -4142,8 +4332,9 @@
       <c r="X118" s="11"/>
       <c r="Y118" s="11"/>
       <c r="Z118" s="11"/>
-    </row>
-    <row r="119" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA118" s="11"/>
+    </row>
+    <row r="119" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A119" s="7"/>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
@@ -4170,8 +4361,9 @@
       <c r="X119" s="11"/>
       <c r="Y119" s="11"/>
       <c r="Z119" s="11"/>
-    </row>
-    <row r="120" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA119" s="11"/>
+    </row>
+    <row r="120" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A120" s="7"/>
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
@@ -4198,8 +4390,9 @@
       <c r="X120" s="11"/>
       <c r="Y120" s="11"/>
       <c r="Z120" s="11"/>
-    </row>
-    <row r="121" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA120" s="11"/>
+    </row>
+    <row r="121" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A121" s="7"/>
       <c r="B121" s="7"/>
       <c r="C121" s="7"/>
@@ -4226,8 +4419,9 @@
       <c r="X121" s="11"/>
       <c r="Y121" s="11"/>
       <c r="Z121" s="11"/>
-    </row>
-    <row r="122" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA121" s="11"/>
+    </row>
+    <row r="122" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A122" s="7"/>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
@@ -4254,8 +4448,9 @@
       <c r="X122" s="11"/>
       <c r="Y122" s="11"/>
       <c r="Z122" s="11"/>
-    </row>
-    <row r="123" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA122" s="11"/>
+    </row>
+    <row r="123" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A123" s="7"/>
       <c r="B123" s="7"/>
       <c r="C123" s="7"/>
@@ -4282,8 +4477,9 @@
       <c r="X123" s="11"/>
       <c r="Y123" s="11"/>
       <c r="Z123" s="11"/>
-    </row>
-    <row r="124" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA123" s="11"/>
+    </row>
+    <row r="124" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A124" s="7"/>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
@@ -4310,8 +4506,9 @@
       <c r="X124" s="11"/>
       <c r="Y124" s="11"/>
       <c r="Z124" s="11"/>
-    </row>
-    <row r="125" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA124" s="11"/>
+    </row>
+    <row r="125" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A125" s="7"/>
       <c r="B125" s="7"/>
       <c r="C125" s="7"/>
@@ -4338,8 +4535,9 @@
       <c r="X125" s="11"/>
       <c r="Y125" s="11"/>
       <c r="Z125" s="11"/>
-    </row>
-    <row r="126" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA125" s="11"/>
+    </row>
+    <row r="126" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A126" s="7"/>
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
@@ -4366,8 +4564,9 @@
       <c r="X126" s="11"/>
       <c r="Y126" s="11"/>
       <c r="Z126" s="11"/>
-    </row>
-    <row r="127" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA126" s="11"/>
+    </row>
+    <row r="127" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A127" s="7"/>
       <c r="B127" s="7"/>
       <c r="C127" s="7"/>
@@ -4394,8 +4593,9 @@
       <c r="X127" s="11"/>
       <c r="Y127" s="11"/>
       <c r="Z127" s="11"/>
-    </row>
-    <row r="128" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA127" s="11"/>
+    </row>
+    <row r="128" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A128" s="7"/>
       <c r="B128" s="7"/>
       <c r="C128" s="7"/>
@@ -4422,8 +4622,9 @@
       <c r="X128" s="11"/>
       <c r="Y128" s="11"/>
       <c r="Z128" s="11"/>
-    </row>
-    <row r="129" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA128" s="11"/>
+    </row>
+    <row r="129" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A129" s="7"/>
       <c r="B129" s="7"/>
       <c r="C129" s="7"/>
@@ -4450,8 +4651,9 @@
       <c r="X129" s="11"/>
       <c r="Y129" s="11"/>
       <c r="Z129" s="11"/>
-    </row>
-    <row r="130" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA129" s="11"/>
+    </row>
+    <row r="130" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A130" s="7"/>
       <c r="B130" s="7"/>
       <c r="C130" s="7"/>
@@ -4478,8 +4680,9 @@
       <c r="X130" s="11"/>
       <c r="Y130" s="11"/>
       <c r="Z130" s="11"/>
-    </row>
-    <row r="131" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA130" s="11"/>
+    </row>
+    <row r="131" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A131" s="7"/>
       <c r="B131" s="7"/>
       <c r="C131" s="7"/>
@@ -4506,8 +4709,9 @@
       <c r="X131" s="11"/>
       <c r="Y131" s="11"/>
       <c r="Z131" s="11"/>
-    </row>
-    <row r="132" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA131" s="11"/>
+    </row>
+    <row r="132" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A132" s="7"/>
       <c r="B132" s="7"/>
       <c r="C132" s="7"/>
@@ -4534,8 +4738,9 @@
       <c r="X132" s="11"/>
       <c r="Y132" s="11"/>
       <c r="Z132" s="11"/>
-    </row>
-    <row r="133" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA132" s="11"/>
+    </row>
+    <row r="133" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A133" s="7"/>
       <c r="B133" s="7"/>
       <c r="C133" s="7"/>
@@ -4562,8 +4767,9 @@
       <c r="X133" s="11"/>
       <c r="Y133" s="11"/>
       <c r="Z133" s="11"/>
-    </row>
-    <row r="134" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA133" s="11"/>
+    </row>
+    <row r="134" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A134" s="7"/>
       <c r="B134" s="7"/>
       <c r="C134" s="7"/>
@@ -4590,8 +4796,9 @@
       <c r="X134" s="11"/>
       <c r="Y134" s="11"/>
       <c r="Z134" s="11"/>
-    </row>
-    <row r="135" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA134" s="11"/>
+    </row>
+    <row r="135" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A135" s="7"/>
       <c r="B135" s="7"/>
       <c r="C135" s="7"/>
@@ -4618,8 +4825,9 @@
       <c r="X135" s="11"/>
       <c r="Y135" s="11"/>
       <c r="Z135" s="11"/>
-    </row>
-    <row r="136" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA135" s="11"/>
+    </row>
+    <row r="136" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A136" s="7"/>
       <c r="B136" s="7"/>
       <c r="C136" s="7"/>
@@ -4646,8 +4854,9 @@
       <c r="X136" s="11"/>
       <c r="Y136" s="11"/>
       <c r="Z136" s="11"/>
-    </row>
-    <row r="137" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA136" s="11"/>
+    </row>
+    <row r="137" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A137" s="7"/>
       <c r="B137" s="7"/>
       <c r="C137" s="7"/>
@@ -4674,8 +4883,9 @@
       <c r="X137" s="11"/>
       <c r="Y137" s="11"/>
       <c r="Z137" s="11"/>
-    </row>
-    <row r="138" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA137" s="11"/>
+    </row>
+    <row r="138" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A138" s="7"/>
       <c r="B138" s="7"/>
       <c r="C138" s="7"/>
@@ -4702,8 +4912,9 @@
       <c r="X138" s="11"/>
       <c r="Y138" s="11"/>
       <c r="Z138" s="11"/>
-    </row>
-    <row r="139" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA138" s="11"/>
+    </row>
+    <row r="139" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A139" s="7"/>
       <c r="B139" s="7"/>
       <c r="C139" s="7"/>
@@ -4730,8 +4941,9 @@
       <c r="X139" s="11"/>
       <c r="Y139" s="11"/>
       <c r="Z139" s="11"/>
-    </row>
-    <row r="140" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA139" s="11"/>
+    </row>
+    <row r="140" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A140" s="7"/>
       <c r="B140" s="7"/>
       <c r="C140" s="7"/>
@@ -4758,8 +4970,9 @@
       <c r="X140" s="11"/>
       <c r="Y140" s="11"/>
       <c r="Z140" s="11"/>
-    </row>
-    <row r="141" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA140" s="11"/>
+    </row>
+    <row r="141" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A141" s="7"/>
       <c r="B141" s="7"/>
       <c r="C141" s="7"/>
@@ -4786,8 +4999,9 @@
       <c r="X141" s="11"/>
       <c r="Y141" s="11"/>
       <c r="Z141" s="11"/>
-    </row>
-    <row r="142" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA141" s="11"/>
+    </row>
+    <row r="142" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A142" s="7"/>
       <c r="B142" s="7"/>
       <c r="C142" s="7"/>
@@ -4814,8 +5028,9 @@
       <c r="X142" s="11"/>
       <c r="Y142" s="11"/>
       <c r="Z142" s="11"/>
-    </row>
-    <row r="143" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA142" s="11"/>
+    </row>
+    <row r="143" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A143" s="7"/>
       <c r="B143" s="7"/>
       <c r="C143" s="7"/>
@@ -4842,8 +5057,9 @@
       <c r="X143" s="11"/>
       <c r="Y143" s="11"/>
       <c r="Z143" s="11"/>
-    </row>
-    <row r="144" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA143" s="11"/>
+    </row>
+    <row r="144" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A144" s="7"/>
       <c r="B144" s="7"/>
       <c r="C144" s="7"/>
@@ -4870,8 +5086,9 @@
       <c r="X144" s="11"/>
       <c r="Y144" s="11"/>
       <c r="Z144" s="11"/>
-    </row>
-    <row r="145" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA144" s="11"/>
+    </row>
+    <row r="145" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A145" s="7"/>
       <c r="B145" s="7"/>
       <c r="C145" s="7"/>
@@ -4898,8 +5115,9 @@
       <c r="X145" s="11"/>
       <c r="Y145" s="11"/>
       <c r="Z145" s="11"/>
-    </row>
-    <row r="146" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA145" s="11"/>
+    </row>
+    <row r="146" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A146" s="7"/>
       <c r="B146" s="7"/>
       <c r="C146" s="7"/>
@@ -4926,8 +5144,9 @@
       <c r="X146" s="11"/>
       <c r="Y146" s="11"/>
       <c r="Z146" s="11"/>
-    </row>
-    <row r="147" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA146" s="11"/>
+    </row>
+    <row r="147" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A147" s="7"/>
       <c r="B147" s="7"/>
       <c r="C147" s="7"/>
@@ -4954,8 +5173,9 @@
       <c r="X147" s="11"/>
       <c r="Y147" s="11"/>
       <c r="Z147" s="11"/>
-    </row>
-    <row r="148" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA147" s="11"/>
+    </row>
+    <row r="148" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A148" s="7"/>
       <c r="B148" s="7"/>
       <c r="C148" s="7"/>
@@ -4982,8 +5202,9 @@
       <c r="X148" s="11"/>
       <c r="Y148" s="11"/>
       <c r="Z148" s="11"/>
-    </row>
-    <row r="149" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA148" s="11"/>
+    </row>
+    <row r="149" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A149" s="7"/>
       <c r="B149" s="7"/>
       <c r="C149" s="7"/>
@@ -5010,8 +5231,9 @@
       <c r="X149" s="11"/>
       <c r="Y149" s="11"/>
       <c r="Z149" s="11"/>
-    </row>
-    <row r="150" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA149" s="11"/>
+    </row>
+    <row r="150" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A150" s="7"/>
       <c r="B150" s="7"/>
       <c r="C150" s="7"/>
@@ -5038,8 +5260,9 @@
       <c r="X150" s="11"/>
       <c r="Y150" s="11"/>
       <c r="Z150" s="11"/>
-    </row>
-    <row r="151" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA150" s="11"/>
+    </row>
+    <row r="151" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A151" s="7"/>
       <c r="B151" s="7"/>
       <c r="C151" s="7"/>
@@ -5066,8 +5289,9 @@
       <c r="X151" s="11"/>
       <c r="Y151" s="11"/>
       <c r="Z151" s="11"/>
-    </row>
-    <row r="152" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA151" s="11"/>
+    </row>
+    <row r="152" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A152" s="7"/>
       <c r="B152" s="7"/>
       <c r="C152" s="7"/>
@@ -5094,8 +5318,9 @@
       <c r="X152" s="16"/>
       <c r="Y152" s="16"/>
       <c r="Z152" s="16"/>
-    </row>
-    <row r="153" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA152" s="16"/>
+    </row>
+    <row r="153" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A153" s="7"/>
       <c r="B153" s="7"/>
       <c r="C153" s="7"/>
@@ -5122,8 +5347,9 @@
       <c r="X153" s="16"/>
       <c r="Y153" s="16"/>
       <c r="Z153" s="16"/>
-    </row>
-    <row r="154" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA153" s="16"/>
+    </row>
+    <row r="154" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A154" s="7"/>
       <c r="B154" s="7"/>
       <c r="C154" s="7"/>
@@ -5150,8 +5376,9 @@
       <c r="X154" s="16"/>
       <c r="Y154" s="16"/>
       <c r="Z154" s="16"/>
-    </row>
-    <row r="155" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA154" s="16"/>
+    </row>
+    <row r="155" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A155" s="7"/>
       <c r="B155" s="7"/>
       <c r="C155" s="7"/>
@@ -5178,8 +5405,9 @@
       <c r="X155" s="16"/>
       <c r="Y155" s="16"/>
       <c r="Z155" s="16"/>
-    </row>
-    <row r="156" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA155" s="16"/>
+    </row>
+    <row r="156" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A156" s="7"/>
       <c r="B156" s="7"/>
       <c r="C156" s="7"/>
@@ -5206,8 +5434,9 @@
       <c r="X156" s="16"/>
       <c r="Y156" s="16"/>
       <c r="Z156" s="16"/>
-    </row>
-    <row r="157" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA156" s="16"/>
+    </row>
+    <row r="157" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A157" s="17"/>
       <c r="B157" s="17"/>
       <c r="C157" s="17"/>
@@ -5234,8 +5463,9 @@
       <c r="X157" s="18"/>
       <c r="Y157" s="18"/>
       <c r="Z157" s="18"/>
-    </row>
-    <row r="158" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA157" s="18"/>
+    </row>
+    <row r="158" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A158" s="17"/>
       <c r="B158" s="17"/>
       <c r="C158" s="17"/>
@@ -5262,8 +5492,9 @@
       <c r="X158" s="18"/>
       <c r="Y158" s="18"/>
       <c r="Z158" s="18"/>
-    </row>
-    <row r="159" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA158" s="18"/>
+    </row>
+    <row r="159" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A159" s="17"/>
       <c r="B159" s="17"/>
       <c r="C159" s="17"/>
@@ -5290,8 +5521,9 @@
       <c r="X159" s="18"/>
       <c r="Y159" s="18"/>
       <c r="Z159" s="18"/>
-    </row>
-    <row r="160" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA159" s="18"/>
+    </row>
+    <row r="160" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A160" s="17"/>
       <c r="B160" s="17"/>
       <c r="C160" s="17"/>
@@ -5318,8 +5550,9 @@
       <c r="X160" s="18"/>
       <c r="Y160" s="18"/>
       <c r="Z160" s="18"/>
-    </row>
-    <row r="161" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA160" s="18"/>
+    </row>
+    <row r="161" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A161" s="17"/>
       <c r="B161" s="17"/>
       <c r="C161" s="17"/>
@@ -5346,8 +5579,9 @@
       <c r="X161" s="18"/>
       <c r="Y161" s="18"/>
       <c r="Z161" s="18"/>
-    </row>
-    <row r="162" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA161" s="18"/>
+    </row>
+    <row r="162" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A162" s="17"/>
       <c r="B162" s="17"/>
       <c r="C162" s="17"/>
@@ -5374,8 +5608,9 @@
       <c r="X162" s="18"/>
       <c r="Y162" s="18"/>
       <c r="Z162" s="18"/>
-    </row>
-    <row r="163" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA162" s="18"/>
+    </row>
+    <row r="163" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A163" s="17"/>
       <c r="B163" s="17"/>
       <c r="C163" s="17"/>
@@ -5402,8 +5637,9 @@
       <c r="X163" s="18"/>
       <c r="Y163" s="18"/>
       <c r="Z163" s="18"/>
-    </row>
-    <row r="164" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA163" s="18"/>
+    </row>
+    <row r="164" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A164" s="17"/>
       <c r="B164" s="17"/>
       <c r="C164" s="17"/>
@@ -5430,8 +5666,9 @@
       <c r="X164" s="18"/>
       <c r="Y164" s="18"/>
       <c r="Z164" s="18"/>
-    </row>
-    <row r="165" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA164" s="18"/>
+    </row>
+    <row r="165" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A165" s="17"/>
       <c r="B165" s="17"/>
       <c r="C165" s="17"/>
@@ -5458,8 +5695,9 @@
       <c r="X165" s="18"/>
       <c r="Y165" s="18"/>
       <c r="Z165" s="18"/>
-    </row>
-    <row r="166" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA165" s="18"/>
+    </row>
+    <row r="166" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A166" s="17"/>
       <c r="B166" s="17"/>
       <c r="C166" s="17"/>
@@ -5486,8 +5724,9 @@
       <c r="X166" s="18"/>
       <c r="Y166" s="18"/>
       <c r="Z166" s="18"/>
-    </row>
-    <row r="167" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA166" s="18"/>
+    </row>
+    <row r="167" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A167" s="17"/>
       <c r="B167" s="17"/>
       <c r="C167" s="17"/>
@@ -5514,8 +5753,9 @@
       <c r="X167" s="18"/>
       <c r="Y167" s="18"/>
       <c r="Z167" s="18"/>
-    </row>
-    <row r="168" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA167" s="18"/>
+    </row>
+    <row r="168" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A168" s="17"/>
       <c r="B168" s="17"/>
       <c r="C168" s="17"/>
@@ -5542,8 +5782,9 @@
       <c r="X168" s="18"/>
       <c r="Y168" s="18"/>
       <c r="Z168" s="18"/>
-    </row>
-    <row r="169" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA168" s="18"/>
+    </row>
+    <row r="169" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A169" s="17"/>
       <c r="B169" s="17"/>
       <c r="C169" s="17"/>
@@ -5570,8 +5811,9 @@
       <c r="X169" s="18"/>
       <c r="Y169" s="18"/>
       <c r="Z169" s="18"/>
-    </row>
-    <row r="170" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA169" s="18"/>
+    </row>
+    <row r="170" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A170" s="17"/>
       <c r="B170" s="17"/>
       <c r="C170" s="17"/>
@@ -5598,8 +5840,9 @@
       <c r="X170" s="18"/>
       <c r="Y170" s="18"/>
       <c r="Z170" s="18"/>
-    </row>
-    <row r="171" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA170" s="18"/>
+    </row>
+    <row r="171" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A171" s="17"/>
       <c r="B171" s="17"/>
       <c r="C171" s="17"/>
@@ -5626,8 +5869,9 @@
       <c r="X171" s="18"/>
       <c r="Y171" s="18"/>
       <c r="Z171" s="18"/>
-    </row>
-    <row r="172" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA171" s="18"/>
+    </row>
+    <row r="172" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A172" s="17"/>
       <c r="B172" s="17"/>
       <c r="C172" s="17"/>
@@ -5654,8 +5898,9 @@
       <c r="X172" s="18"/>
       <c r="Y172" s="18"/>
       <c r="Z172" s="18"/>
-    </row>
-    <row r="173" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA172" s="18"/>
+    </row>
+    <row r="173" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A173" s="17"/>
       <c r="B173" s="17"/>
       <c r="C173" s="17"/>
@@ -5682,8 +5927,9 @@
       <c r="X173" s="18"/>
       <c r="Y173" s="18"/>
       <c r="Z173" s="18"/>
-    </row>
-    <row r="174" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA173" s="18"/>
+    </row>
+    <row r="174" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A174" s="17"/>
       <c r="B174" s="17"/>
       <c r="C174" s="17"/>
@@ -5710,8 +5956,9 @@
       <c r="X174" s="18"/>
       <c r="Y174" s="18"/>
       <c r="Z174" s="18"/>
-    </row>
-    <row r="175" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA174" s="18"/>
+    </row>
+    <row r="175" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A175" s="17"/>
       <c r="B175" s="17"/>
       <c r="C175" s="17"/>
@@ -5738,8 +5985,9 @@
       <c r="X175" s="18"/>
       <c r="Y175" s="18"/>
       <c r="Z175" s="18"/>
-    </row>
-    <row r="176" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA175" s="18"/>
+    </row>
+    <row r="176" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A176" s="17"/>
       <c r="B176" s="17"/>
       <c r="C176" s="17"/>
@@ -5766,8 +6014,9 @@
       <c r="X176" s="18"/>
       <c r="Y176" s="18"/>
       <c r="Z176" s="18"/>
-    </row>
-    <row r="177" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA176" s="18"/>
+    </row>
+    <row r="177" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A177" s="17"/>
       <c r="B177" s="17"/>
       <c r="C177" s="17"/>
@@ -5794,8 +6043,9 @@
       <c r="X177" s="18"/>
       <c r="Y177" s="18"/>
       <c r="Z177" s="18"/>
-    </row>
-    <row r="178" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA177" s="18"/>
+    </row>
+    <row r="178" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A178" s="17"/>
       <c r="B178" s="17"/>
       <c r="C178" s="17"/>
@@ -5822,8 +6072,9 @@
       <c r="X178" s="18"/>
       <c r="Y178" s="18"/>
       <c r="Z178" s="18"/>
-    </row>
-    <row r="179" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA178" s="18"/>
+    </row>
+    <row r="179" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A179" s="17"/>
       <c r="B179" s="17"/>
       <c r="C179" s="17"/>
@@ -5850,8 +6101,9 @@
       <c r="X179" s="18"/>
       <c r="Y179" s="18"/>
       <c r="Z179" s="18"/>
-    </row>
-    <row r="180" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA179" s="18"/>
+    </row>
+    <row r="180" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A180" s="17"/>
       <c r="B180" s="17"/>
       <c r="C180" s="17"/>
@@ -5878,8 +6130,9 @@
       <c r="X180" s="18"/>
       <c r="Y180" s="18"/>
       <c r="Z180" s="18"/>
-    </row>
-    <row r="181" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA180" s="18"/>
+    </row>
+    <row r="181" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A181" s="17"/>
       <c r="B181" s="17"/>
       <c r="C181" s="17"/>
@@ -5906,8 +6159,9 @@
       <c r="X181" s="18"/>
       <c r="Y181" s="18"/>
       <c r="Z181" s="18"/>
-    </row>
-    <row r="182" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA181" s="18"/>
+    </row>
+    <row r="182" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A182" s="17"/>
       <c r="B182" s="17"/>
       <c r="C182" s="17"/>
@@ -5934,8 +6188,9 @@
       <c r="X182" s="18"/>
       <c r="Y182" s="18"/>
       <c r="Z182" s="18"/>
-    </row>
-    <row r="183" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA182" s="18"/>
+    </row>
+    <row r="183" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A183" s="17"/>
       <c r="B183" s="17"/>
       <c r="C183" s="17"/>
@@ -5962,8 +6217,9 @@
       <c r="X183" s="18"/>
       <c r="Y183" s="18"/>
       <c r="Z183" s="18"/>
-    </row>
-    <row r="184" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA183" s="18"/>
+    </row>
+    <row r="184" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A184" s="17"/>
       <c r="B184" s="17"/>
       <c r="C184" s="17"/>
@@ -5990,8 +6246,9 @@
       <c r="X184" s="18"/>
       <c r="Y184" s="18"/>
       <c r="Z184" s="18"/>
-    </row>
-    <row r="185" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA184" s="18"/>
+    </row>
+    <row r="185" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A185" s="17"/>
       <c r="B185" s="17"/>
       <c r="C185" s="17"/>
@@ -6018,8 +6275,9 @@
       <c r="X185" s="18"/>
       <c r="Y185" s="18"/>
       <c r="Z185" s="18"/>
-    </row>
-    <row r="186" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA185" s="18"/>
+    </row>
+    <row r="186" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A186" s="17"/>
       <c r="B186" s="17"/>
       <c r="C186" s="17"/>
@@ -6046,8 +6304,9 @@
       <c r="X186" s="18"/>
       <c r="Y186" s="18"/>
       <c r="Z186" s="18"/>
-    </row>
-    <row r="187" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA186" s="18"/>
+    </row>
+    <row r="187" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A187" s="17"/>
       <c r="B187" s="17"/>
       <c r="C187" s="17"/>
@@ -6074,8 +6333,9 @@
       <c r="X187" s="18"/>
       <c r="Y187" s="18"/>
       <c r="Z187" s="18"/>
-    </row>
-    <row r="188" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA187" s="18"/>
+    </row>
+    <row r="188" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A188" s="17"/>
       <c r="B188" s="17"/>
       <c r="C188" s="17"/>
@@ -6102,8 +6362,9 @@
       <c r="X188" s="18"/>
       <c r="Y188" s="18"/>
       <c r="Z188" s="18"/>
-    </row>
-    <row r="189" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA188" s="18"/>
+    </row>
+    <row r="189" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A189" s="17"/>
       <c r="B189" s="17"/>
       <c r="C189" s="17"/>
@@ -6130,8 +6391,9 @@
       <c r="X189" s="18"/>
       <c r="Y189" s="18"/>
       <c r="Z189" s="18"/>
-    </row>
-    <row r="190" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA189" s="18"/>
+    </row>
+    <row r="190" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A190" s="17"/>
       <c r="B190" s="17"/>
       <c r="C190" s="17"/>
@@ -6158,8 +6420,9 @@
       <c r="X190" s="18"/>
       <c r="Y190" s="18"/>
       <c r="Z190" s="18"/>
-    </row>
-    <row r="191" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA190" s="18"/>
+    </row>
+    <row r="191" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A191" s="17"/>
       <c r="B191" s="17"/>
       <c r="C191" s="17"/>
@@ -6186,8 +6449,9 @@
       <c r="X191" s="18"/>
       <c r="Y191" s="18"/>
       <c r="Z191" s="18"/>
-    </row>
-    <row r="192" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA191" s="18"/>
+    </row>
+    <row r="192" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A192" s="17"/>
       <c r="B192" s="17"/>
       <c r="C192" s="17"/>
@@ -6214,8 +6478,9 @@
       <c r="X192" s="18"/>
       <c r="Y192" s="18"/>
       <c r="Z192" s="18"/>
-    </row>
-    <row r="193" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA192" s="18"/>
+    </row>
+    <row r="193" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A193" s="17"/>
       <c r="B193" s="17"/>
       <c r="C193" s="17"/>
@@ -6242,8 +6507,9 @@
       <c r="X193" s="18"/>
       <c r="Y193" s="18"/>
       <c r="Z193" s="18"/>
-    </row>
-    <row r="194" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA193" s="18"/>
+    </row>
+    <row r="194" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A194" s="17"/>
       <c r="B194" s="17"/>
       <c r="C194" s="17"/>
@@ -6270,8 +6536,9 @@
       <c r="X194" s="18"/>
       <c r="Y194" s="18"/>
       <c r="Z194" s="18"/>
-    </row>
-    <row r="195" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA194" s="18"/>
+    </row>
+    <row r="195" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A195" s="17"/>
       <c r="B195" s="17"/>
       <c r="C195" s="17"/>
@@ -6298,8 +6565,9 @@
       <c r="X195" s="18"/>
       <c r="Y195" s="18"/>
       <c r="Z195" s="18"/>
-    </row>
-    <row r="196" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA195" s="18"/>
+    </row>
+    <row r="196" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A196" s="17"/>
       <c r="B196" s="17"/>
       <c r="C196" s="17"/>
@@ -6326,8 +6594,9 @@
       <c r="X196" s="18"/>
       <c r="Y196" s="18"/>
       <c r="Z196" s="18"/>
-    </row>
-    <row r="197" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA196" s="18"/>
+    </row>
+    <row r="197" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A197" s="17"/>
       <c r="B197" s="17"/>
       <c r="C197" s="17"/>
@@ -6354,8 +6623,9 @@
       <c r="X197" s="18"/>
       <c r="Y197" s="18"/>
       <c r="Z197" s="18"/>
-    </row>
-    <row r="198" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA197" s="18"/>
+    </row>
+    <row r="198" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A198" s="17"/>
       <c r="B198" s="17"/>
       <c r="C198" s="17"/>
@@ -6382,8 +6652,9 @@
       <c r="X198" s="18"/>
       <c r="Y198" s="18"/>
       <c r="Z198" s="18"/>
-    </row>
-    <row r="199" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA198" s="18"/>
+    </row>
+    <row r="199" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A199" s="17"/>
       <c r="B199" s="17"/>
       <c r="C199" s="17"/>
@@ -6410,8 +6681,9 @@
       <c r="X199" s="18"/>
       <c r="Y199" s="18"/>
       <c r="Z199" s="18"/>
-    </row>
-    <row r="200" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA199" s="18"/>
+    </row>
+    <row r="200" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A200" s="17"/>
       <c r="B200" s="17"/>
       <c r="C200" s="17"/>
@@ -6438,8 +6710,9 @@
       <c r="X200" s="18"/>
       <c r="Y200" s="18"/>
       <c r="Z200" s="18"/>
-    </row>
-    <row r="201" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA200" s="18"/>
+    </row>
+    <row r="201" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A201" s="17"/>
       <c r="B201" s="17"/>
       <c r="C201" s="17"/>
@@ -6466,8 +6739,9 @@
       <c r="X201" s="18"/>
       <c r="Y201" s="18"/>
       <c r="Z201" s="18"/>
-    </row>
-    <row r="202" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA201" s="18"/>
+    </row>
+    <row r="202" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A202" s="17"/>
       <c r="B202" s="17"/>
       <c r="C202" s="17"/>
@@ -6494,8 +6768,9 @@
       <c r="X202" s="18"/>
       <c r="Y202" s="18"/>
       <c r="Z202" s="18"/>
-    </row>
-    <row r="203" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA202" s="18"/>
+    </row>
+    <row r="203" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A203" s="17"/>
       <c r="B203" s="17"/>
       <c r="C203" s="17"/>
@@ -6522,8 +6797,9 @@
       <c r="X203" s="18"/>
       <c r="Y203" s="18"/>
       <c r="Z203" s="18"/>
-    </row>
-    <row r="204" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA203" s="18"/>
+    </row>
+    <row r="204" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A204" s="17"/>
       <c r="B204" s="17"/>
       <c r="C204" s="17"/>
@@ -6550,8 +6826,9 @@
       <c r="X204" s="18"/>
       <c r="Y204" s="18"/>
       <c r="Z204" s="18"/>
-    </row>
-    <row r="205" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA204" s="18"/>
+    </row>
+    <row r="205" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A205" s="17"/>
       <c r="B205" s="17"/>
       <c r="C205" s="17"/>
@@ -6578,8 +6855,9 @@
       <c r="X205" s="18"/>
       <c r="Y205" s="18"/>
       <c r="Z205" s="18"/>
-    </row>
-    <row r="206" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA205" s="18"/>
+    </row>
+    <row r="206" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A206" s="17"/>
       <c r="B206" s="17"/>
       <c r="C206" s="17"/>
@@ -6606,8 +6884,9 @@
       <c r="X206" s="18"/>
       <c r="Y206" s="18"/>
       <c r="Z206" s="18"/>
-    </row>
-    <row r="207" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA206" s="18"/>
+    </row>
+    <row r="207" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A207" s="17"/>
       <c r="B207" s="17"/>
       <c r="C207" s="17"/>
@@ -6634,8 +6913,9 @@
       <c r="X207" s="18"/>
       <c r="Y207" s="18"/>
       <c r="Z207" s="18"/>
-    </row>
-    <row r="208" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA207" s="18"/>
+    </row>
+    <row r="208" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A208" s="17"/>
       <c r="B208" s="17"/>
       <c r="C208" s="17"/>
@@ -6662,8 +6942,9 @@
       <c r="X208" s="18"/>
       <c r="Y208" s="18"/>
       <c r="Z208" s="18"/>
-    </row>
-    <row r="209" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA208" s="18"/>
+    </row>
+    <row r="209" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A209" s="17"/>
       <c r="B209" s="17"/>
       <c r="C209" s="17"/>
@@ -6690,8 +6971,9 @@
       <c r="X209" s="18"/>
       <c r="Y209" s="18"/>
       <c r="Z209" s="18"/>
-    </row>
-    <row r="210" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA209" s="18"/>
+    </row>
+    <row r="210" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A210" s="17"/>
       <c r="B210" s="17"/>
       <c r="C210" s="17"/>
@@ -6718,8 +7000,9 @@
       <c r="X210" s="18"/>
       <c r="Y210" s="18"/>
       <c r="Z210" s="18"/>
-    </row>
-    <row r="211" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA210" s="18"/>
+    </row>
+    <row r="211" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A211" s="17"/>
       <c r="B211" s="17"/>
       <c r="C211" s="17"/>
@@ -6746,8 +7029,9 @@
       <c r="X211" s="18"/>
       <c r="Y211" s="18"/>
       <c r="Z211" s="18"/>
-    </row>
-    <row r="212" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA211" s="18"/>
+    </row>
+    <row r="212" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A212" s="17"/>
       <c r="B212" s="17"/>
       <c r="C212" s="17"/>
@@ -6774,8 +7058,9 @@
       <c r="X212" s="18"/>
       <c r="Y212" s="18"/>
       <c r="Z212" s="18"/>
-    </row>
-    <row r="213" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA212" s="18"/>
+    </row>
+    <row r="213" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A213" s="17"/>
       <c r="B213" s="17"/>
       <c r="C213" s="17"/>
@@ -6802,8 +7087,9 @@
       <c r="X213" s="18"/>
       <c r="Y213" s="18"/>
       <c r="Z213" s="18"/>
-    </row>
-    <row r="214" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA213" s="18"/>
+    </row>
+    <row r="214" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A214" s="17"/>
       <c r="B214" s="17"/>
       <c r="C214" s="17"/>
@@ -6830,8 +7116,9 @@
       <c r="X214" s="18"/>
       <c r="Y214" s="18"/>
       <c r="Z214" s="18"/>
-    </row>
-    <row r="215" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA214" s="18"/>
+    </row>
+    <row r="215" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A215" s="17"/>
       <c r="B215" s="17"/>
       <c r="C215" s="17"/>
@@ -6858,8 +7145,9 @@
       <c r="X215" s="18"/>
       <c r="Y215" s="18"/>
       <c r="Z215" s="18"/>
-    </row>
-    <row r="216" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA215" s="18"/>
+    </row>
+    <row r="216" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A216" s="17"/>
       <c r="B216" s="17"/>
       <c r="C216" s="17"/>
@@ -6886,8 +7174,9 @@
       <c r="X216" s="18"/>
       <c r="Y216" s="18"/>
       <c r="Z216" s="18"/>
-    </row>
-    <row r="217" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA216" s="18"/>
+    </row>
+    <row r="217" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A217" s="17"/>
       <c r="B217" s="17"/>
       <c r="C217" s="17"/>
@@ -6914,8 +7203,9 @@
       <c r="X217" s="18"/>
       <c r="Y217" s="18"/>
       <c r="Z217" s="18"/>
-    </row>
-    <row r="218" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA217" s="18"/>
+    </row>
+    <row r="218" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A218" s="17"/>
       <c r="B218" s="17"/>
       <c r="C218" s="17"/>
@@ -6942,8 +7232,9 @@
       <c r="X218" s="18"/>
       <c r="Y218" s="18"/>
       <c r="Z218" s="18"/>
-    </row>
-    <row r="219" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA218" s="18"/>
+    </row>
+    <row r="219" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A219" s="17"/>
       <c r="B219" s="17"/>
       <c r="C219" s="17"/>
@@ -6970,8 +7261,9 @@
       <c r="X219" s="18"/>
       <c r="Y219" s="18"/>
       <c r="Z219" s="18"/>
-    </row>
-    <row r="220" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA219" s="18"/>
+    </row>
+    <row r="220" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A220" s="17"/>
       <c r="B220" s="17"/>
       <c r="C220" s="17"/>
@@ -6998,8 +7290,9 @@
       <c r="X220" s="18"/>
       <c r="Y220" s="18"/>
       <c r="Z220" s="18"/>
-    </row>
-    <row r="221" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA220" s="18"/>
+    </row>
+    <row r="221" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A221" s="17"/>
       <c r="B221" s="17"/>
       <c r="C221" s="17"/>
@@ -7026,8 +7319,9 @@
       <c r="X221" s="18"/>
       <c r="Y221" s="18"/>
       <c r="Z221" s="18"/>
-    </row>
-    <row r="222" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA221" s="18"/>
+    </row>
+    <row r="222" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A222" s="17"/>
       <c r="B222" s="17"/>
       <c r="C222" s="17"/>
@@ -7054,8 +7348,9 @@
       <c r="X222" s="18"/>
       <c r="Y222" s="18"/>
       <c r="Z222" s="18"/>
-    </row>
-    <row r="223" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA222" s="18"/>
+    </row>
+    <row r="223" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A223" s="17"/>
       <c r="B223" s="17"/>
       <c r="C223" s="17"/>
@@ -7082,8 +7377,9 @@
       <c r="X223" s="18"/>
       <c r="Y223" s="18"/>
       <c r="Z223" s="18"/>
-    </row>
-    <row r="224" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA223" s="18"/>
+    </row>
+    <row r="224" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A224" s="17"/>
       <c r="B224" s="17"/>
       <c r="C224" s="17"/>
@@ -7110,8 +7406,9 @@
       <c r="X224" s="18"/>
       <c r="Y224" s="18"/>
       <c r="Z224" s="18"/>
-    </row>
-    <row r="225" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA224" s="18"/>
+    </row>
+    <row r="225" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A225" s="17"/>
       <c r="B225" s="17"/>
       <c r="C225" s="17"/>
@@ -7138,8 +7435,9 @@
       <c r="X225" s="18"/>
       <c r="Y225" s="18"/>
       <c r="Z225" s="18"/>
-    </row>
-    <row r="226" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA225" s="18"/>
+    </row>
+    <row r="226" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A226" s="17"/>
       <c r="B226" s="17"/>
       <c r="C226" s="17"/>
@@ -7166,8 +7464,9 @@
       <c r="X226" s="18"/>
       <c r="Y226" s="18"/>
       <c r="Z226" s="18"/>
-    </row>
-    <row r="227" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA226" s="18"/>
+    </row>
+    <row r="227" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A227" s="17"/>
       <c r="B227" s="17"/>
       <c r="C227" s="17"/>
@@ -7194,8 +7493,9 @@
       <c r="X227" s="18"/>
       <c r="Y227" s="18"/>
       <c r="Z227" s="18"/>
-    </row>
-    <row r="228" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA227" s="18"/>
+    </row>
+    <row r="228" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A228" s="17"/>
       <c r="B228" s="17"/>
       <c r="C228" s="17"/>
@@ -7222,8 +7522,9 @@
       <c r="X228" s="18"/>
       <c r="Y228" s="18"/>
       <c r="Z228" s="18"/>
-    </row>
-    <row r="229" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA228" s="18"/>
+    </row>
+    <row r="229" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A229" s="17"/>
       <c r="B229" s="17"/>
       <c r="C229" s="17"/>
@@ -7250,8 +7551,9 @@
       <c r="X229" s="18"/>
       <c r="Y229" s="18"/>
       <c r="Z229" s="18"/>
-    </row>
-    <row r="230" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA229" s="18"/>
+    </row>
+    <row r="230" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A230" s="17"/>
       <c r="B230" s="17"/>
       <c r="C230" s="17"/>
@@ -7278,8 +7580,9 @@
       <c r="X230" s="18"/>
       <c r="Y230" s="18"/>
       <c r="Z230" s="18"/>
-    </row>
-    <row r="231" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA230" s="18"/>
+    </row>
+    <row r="231" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A231" s="17"/>
       <c r="B231" s="17"/>
       <c r="C231" s="17"/>
@@ -7306,8 +7609,9 @@
       <c r="X231" s="18"/>
       <c r="Y231" s="18"/>
       <c r="Z231" s="18"/>
-    </row>
-    <row r="232" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA231" s="18"/>
+    </row>
+    <row r="232" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A232" s="17"/>
       <c r="B232" s="17"/>
       <c r="C232" s="17"/>
@@ -7334,8 +7638,9 @@
       <c r="X232" s="18"/>
       <c r="Y232" s="18"/>
       <c r="Z232" s="18"/>
-    </row>
-    <row r="233" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA232" s="18"/>
+    </row>
+    <row r="233" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A233" s="17"/>
       <c r="B233" s="17"/>
       <c r="C233" s="17"/>
@@ -7362,8 +7667,9 @@
       <c r="X233" s="18"/>
       <c r="Y233" s="18"/>
       <c r="Z233" s="18"/>
-    </row>
-    <row r="234" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA233" s="18"/>
+    </row>
+    <row r="234" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A234" s="17"/>
       <c r="B234" s="17"/>
       <c r="C234" s="17"/>
@@ -7390,8 +7696,9 @@
       <c r="X234" s="18"/>
       <c r="Y234" s="18"/>
       <c r="Z234" s="18"/>
-    </row>
-    <row r="235" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA234" s="18"/>
+    </row>
+    <row r="235" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A235" s="17"/>
       <c r="B235" s="17"/>
       <c r="C235" s="17"/>
@@ -7418,8 +7725,9 @@
       <c r="X235" s="18"/>
       <c r="Y235" s="18"/>
       <c r="Z235" s="18"/>
-    </row>
-    <row r="236" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA235" s="18"/>
+    </row>
+    <row r="236" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A236" s="17"/>
       <c r="B236" s="17"/>
       <c r="C236" s="17"/>
@@ -7446,8 +7754,9 @@
       <c r="X236" s="18"/>
       <c r="Y236" s="18"/>
       <c r="Z236" s="18"/>
-    </row>
-    <row r="237" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA236" s="18"/>
+    </row>
+    <row r="237" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A237" s="17"/>
       <c r="B237" s="17"/>
       <c r="C237" s="17"/>
@@ -7474,8 +7783,9 @@
       <c r="X237" s="18"/>
       <c r="Y237" s="18"/>
       <c r="Z237" s="18"/>
-    </row>
-    <row r="238" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA237" s="18"/>
+    </row>
+    <row r="238" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A238" s="17"/>
       <c r="B238" s="17"/>
       <c r="C238" s="17"/>
@@ -7502,8 +7812,9 @@
       <c r="X238" s="18"/>
       <c r="Y238" s="18"/>
       <c r="Z238" s="18"/>
-    </row>
-    <row r="239" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA238" s="18"/>
+    </row>
+    <row r="239" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A239" s="17"/>
       <c r="B239" s="17"/>
       <c r="C239" s="17"/>
@@ -7530,8 +7841,9 @@
       <c r="X239" s="18"/>
       <c r="Y239" s="18"/>
       <c r="Z239" s="18"/>
-    </row>
-    <row r="240" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA239" s="18"/>
+    </row>
+    <row r="240" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A240" s="17"/>
       <c r="B240" s="17"/>
       <c r="C240" s="17"/>
@@ -7558,8 +7870,9 @@
       <c r="X240" s="18"/>
       <c r="Y240" s="18"/>
       <c r="Z240" s="18"/>
-    </row>
-    <row r="241" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA240" s="18"/>
+    </row>
+    <row r="241" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A241" s="17"/>
       <c r="B241" s="17"/>
       <c r="C241" s="17"/>
@@ -7586,8 +7899,9 @@
       <c r="X241" s="18"/>
       <c r="Y241" s="18"/>
       <c r="Z241" s="18"/>
-    </row>
-    <row r="242" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA241" s="18"/>
+    </row>
+    <row r="242" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A242" s="17"/>
       <c r="B242" s="17"/>
       <c r="C242" s="17"/>
@@ -7614,8 +7928,9 @@
       <c r="X242" s="18"/>
       <c r="Y242" s="18"/>
       <c r="Z242" s="18"/>
-    </row>
-    <row r="243" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA242" s="18"/>
+    </row>
+    <row r="243" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A243" s="17"/>
       <c r="B243" s="17"/>
       <c r="C243" s="17"/>
@@ -7642,8 +7957,9 @@
       <c r="X243" s="18"/>
       <c r="Y243" s="18"/>
       <c r="Z243" s="18"/>
-    </row>
-    <row r="244" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA243" s="18"/>
+    </row>
+    <row r="244" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A244" s="17"/>
       <c r="B244" s="17"/>
       <c r="C244" s="17"/>
@@ -7670,8 +7986,9 @@
       <c r="X244" s="18"/>
       <c r="Y244" s="18"/>
       <c r="Z244" s="18"/>
-    </row>
-    <row r="245" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA244" s="18"/>
+    </row>
+    <row r="245" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A245" s="17"/>
       <c r="B245" s="17"/>
       <c r="C245" s="17"/>
@@ -7698,8 +8015,9 @@
       <c r="X245" s="18"/>
       <c r="Y245" s="18"/>
       <c r="Z245" s="18"/>
-    </row>
-    <row r="246" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA245" s="18"/>
+    </row>
+    <row r="246" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A246" s="17"/>
       <c r="B246" s="17"/>
       <c r="C246" s="17"/>
@@ -7726,8 +8044,9 @@
       <c r="X246" s="18"/>
       <c r="Y246" s="18"/>
       <c r="Z246" s="18"/>
-    </row>
-    <row r="247" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA246" s="18"/>
+    </row>
+    <row r="247" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A247" s="17"/>
       <c r="B247" s="17"/>
       <c r="C247" s="17"/>
@@ -7754,8 +8073,9 @@
       <c r="X247" s="18"/>
       <c r="Y247" s="18"/>
       <c r="Z247" s="18"/>
-    </row>
-    <row r="248" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA247" s="18"/>
+    </row>
+    <row r="248" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A248" s="17"/>
       <c r="B248" s="17"/>
       <c r="C248" s="17"/>
@@ -7782,8 +8102,9 @@
       <c r="X248" s="18"/>
       <c r="Y248" s="18"/>
       <c r="Z248" s="18"/>
-    </row>
-    <row r="249" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA248" s="18"/>
+    </row>
+    <row r="249" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A249" s="17"/>
       <c r="B249" s="17"/>
       <c r="C249" s="17"/>
@@ -7810,8 +8131,9 @@
       <c r="X249" s="18"/>
       <c r="Y249" s="18"/>
       <c r="Z249" s="18"/>
-    </row>
-    <row r="250" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA249" s="18"/>
+    </row>
+    <row r="250" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A250" s="17"/>
       <c r="B250" s="17"/>
       <c r="C250" s="17"/>
@@ -7838,8 +8160,9 @@
       <c r="X250" s="18"/>
       <c r="Y250" s="18"/>
       <c r="Z250" s="18"/>
-    </row>
-    <row r="251" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA250" s="18"/>
+    </row>
+    <row r="251" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A251" s="17"/>
       <c r="B251" s="17"/>
       <c r="C251" s="17"/>
@@ -7866,8 +8189,9 @@
       <c r="X251" s="18"/>
       <c r="Y251" s="18"/>
       <c r="Z251" s="18"/>
-    </row>
-    <row r="252" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA251" s="18"/>
+    </row>
+    <row r="252" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A252" s="17"/>
       <c r="B252" s="17"/>
       <c r="C252" s="17"/>
@@ -7894,8 +8218,9 @@
       <c r="X252" s="18"/>
       <c r="Y252" s="18"/>
       <c r="Z252" s="18"/>
-    </row>
-    <row r="253" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA252" s="18"/>
+    </row>
+    <row r="253" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A253" s="17"/>
       <c r="B253" s="17"/>
       <c r="C253" s="17"/>
@@ -7922,8 +8247,9 @@
       <c r="X253" s="18"/>
       <c r="Y253" s="18"/>
       <c r="Z253" s="18"/>
-    </row>
-    <row r="254" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA253" s="18"/>
+    </row>
+    <row r="254" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A254" s="17"/>
       <c r="B254" s="17"/>
       <c r="C254" s="17"/>
@@ -7950,8 +8276,9 @@
       <c r="X254" s="18"/>
       <c r="Y254" s="18"/>
       <c r="Z254" s="18"/>
-    </row>
-    <row r="255" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA254" s="18"/>
+    </row>
+    <row r="255" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A255" s="17"/>
       <c r="B255" s="17"/>
       <c r="C255" s="17"/>
@@ -7978,8 +8305,9 @@
       <c r="X255" s="18"/>
       <c r="Y255" s="18"/>
       <c r="Z255" s="18"/>
-    </row>
-    <row r="256" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA255" s="18"/>
+    </row>
+    <row r="256" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A256" s="17"/>
       <c r="B256" s="17"/>
       <c r="C256" s="17"/>
@@ -8006,8 +8334,9 @@
       <c r="X256" s="18"/>
       <c r="Y256" s="18"/>
       <c r="Z256" s="18"/>
-    </row>
-    <row r="257" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA256" s="18"/>
+    </row>
+    <row r="257" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A257" s="17"/>
       <c r="B257" s="17"/>
       <c r="C257" s="17"/>
@@ -8034,8 +8363,9 @@
       <c r="X257" s="18"/>
       <c r="Y257" s="18"/>
       <c r="Z257" s="18"/>
-    </row>
-    <row r="258" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA257" s="18"/>
+    </row>
+    <row r="258" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A258" s="17"/>
       <c r="B258" s="17"/>
       <c r="C258" s="17"/>
@@ -8062,8 +8392,9 @@
       <c r="X258" s="18"/>
       <c r="Y258" s="18"/>
       <c r="Z258" s="18"/>
-    </row>
-    <row r="259" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA258" s="18"/>
+    </row>
+    <row r="259" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A259" s="17"/>
       <c r="B259" s="17"/>
       <c r="C259" s="17"/>
@@ -8090,8 +8421,9 @@
       <c r="X259" s="18"/>
       <c r="Y259" s="18"/>
       <c r="Z259" s="18"/>
-    </row>
-    <row r="260" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA259" s="18"/>
+    </row>
+    <row r="260" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A260" s="17"/>
       <c r="B260" s="17"/>
       <c r="C260" s="17"/>
@@ -8118,8 +8450,9 @@
       <c r="X260" s="18"/>
       <c r="Y260" s="18"/>
       <c r="Z260" s="18"/>
-    </row>
-    <row r="261" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA260" s="18"/>
+    </row>
+    <row r="261" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A261" s="17"/>
       <c r="B261" s="17"/>
       <c r="C261" s="17"/>
@@ -8146,8 +8479,9 @@
       <c r="X261" s="18"/>
       <c r="Y261" s="18"/>
       <c r="Z261" s="18"/>
-    </row>
-    <row r="262" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA261" s="18"/>
+    </row>
+    <row r="262" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A262" s="17"/>
       <c r="B262" s="17"/>
       <c r="C262" s="17"/>
@@ -8174,8 +8508,9 @@
       <c r="X262" s="18"/>
       <c r="Y262" s="18"/>
       <c r="Z262" s="18"/>
-    </row>
-    <row r="263" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA262" s="18"/>
+    </row>
+    <row r="263" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A263" s="17"/>
       <c r="B263" s="17"/>
       <c r="C263" s="17"/>
@@ -8202,8 +8537,9 @@
       <c r="X263" s="18"/>
       <c r="Y263" s="18"/>
       <c r="Z263" s="18"/>
-    </row>
-    <row r="264" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA263" s="18"/>
+    </row>
+    <row r="264" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A264" s="17"/>
       <c r="B264" s="17"/>
       <c r="C264" s="17"/>
@@ -8230,8 +8566,9 @@
       <c r="X264" s="18"/>
       <c r="Y264" s="18"/>
       <c r="Z264" s="18"/>
-    </row>
-    <row r="265" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA264" s="18"/>
+    </row>
+    <row r="265" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A265" s="17"/>
       <c r="B265" s="17"/>
       <c r="C265" s="17"/>
@@ -8258,8 +8595,9 @@
       <c r="X265" s="18"/>
       <c r="Y265" s="18"/>
       <c r="Z265" s="18"/>
-    </row>
-    <row r="266" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA265" s="18"/>
+    </row>
+    <row r="266" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A266" s="17"/>
       <c r="B266" s="17"/>
       <c r="C266" s="17"/>
@@ -8286,8 +8624,9 @@
       <c r="X266" s="18"/>
       <c r="Y266" s="18"/>
       <c r="Z266" s="18"/>
-    </row>
-    <row r="267" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA266" s="18"/>
+    </row>
+    <row r="267" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A267" s="17"/>
       <c r="B267" s="17"/>
       <c r="C267" s="17"/>
@@ -8314,8 +8653,9 @@
       <c r="X267" s="18"/>
       <c r="Y267" s="18"/>
       <c r="Z267" s="18"/>
-    </row>
-    <row r="268" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA267" s="18"/>
+    </row>
+    <row r="268" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A268" s="17"/>
       <c r="B268" s="17"/>
       <c r="C268" s="17"/>
@@ -8342,8 +8682,9 @@
       <c r="X268" s="18"/>
       <c r="Y268" s="18"/>
       <c r="Z268" s="18"/>
-    </row>
-    <row r="269" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA268" s="18"/>
+    </row>
+    <row r="269" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A269" s="17"/>
       <c r="B269" s="17"/>
       <c r="C269" s="17"/>
@@ -8370,8 +8711,9 @@
       <c r="X269" s="18"/>
       <c r="Y269" s="18"/>
       <c r="Z269" s="18"/>
-    </row>
-    <row r="270" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA269" s="18"/>
+    </row>
+    <row r="270" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A270" s="17"/>
       <c r="B270" s="17"/>
       <c r="C270" s="17"/>
@@ -8398,8 +8740,9 @@
       <c r="X270" s="18"/>
       <c r="Y270" s="18"/>
       <c r="Z270" s="18"/>
-    </row>
-    <row r="271" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA270" s="18"/>
+    </row>
+    <row r="271" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A271" s="17"/>
       <c r="B271" s="17"/>
       <c r="C271" s="17"/>
@@ -8426,8 +8769,9 @@
       <c r="X271" s="18"/>
       <c r="Y271" s="18"/>
       <c r="Z271" s="18"/>
-    </row>
-    <row r="272" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA271" s="18"/>
+    </row>
+    <row r="272" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A272" s="17"/>
       <c r="B272" s="17"/>
       <c r="C272" s="17"/>
@@ -8454,8 +8798,9 @@
       <c r="X272" s="18"/>
       <c r="Y272" s="18"/>
       <c r="Z272" s="18"/>
-    </row>
-    <row r="273" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA272" s="18"/>
+    </row>
+    <row r="273" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A273" s="17"/>
       <c r="B273" s="17"/>
       <c r="C273" s="17"/>
@@ -8482,8 +8827,9 @@
       <c r="X273" s="18"/>
       <c r="Y273" s="18"/>
       <c r="Z273" s="18"/>
-    </row>
-    <row r="274" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA273" s="18"/>
+    </row>
+    <row r="274" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A274" s="17"/>
       <c r="B274" s="17"/>
       <c r="C274" s="17"/>
@@ -8510,8 +8856,9 @@
       <c r="X274" s="18"/>
       <c r="Y274" s="18"/>
       <c r="Z274" s="18"/>
-    </row>
-    <row r="275" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA274" s="18"/>
+    </row>
+    <row r="275" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A275" s="17"/>
       <c r="B275" s="17"/>
       <c r="C275" s="17"/>
@@ -8538,8 +8885,9 @@
       <c r="X275" s="18"/>
       <c r="Y275" s="18"/>
       <c r="Z275" s="18"/>
-    </row>
-    <row r="276" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA275" s="18"/>
+    </row>
+    <row r="276" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A276" s="17"/>
       <c r="B276" s="17"/>
       <c r="C276" s="17"/>
@@ -8566,8 +8914,9 @@
       <c r="X276" s="18"/>
       <c r="Y276" s="18"/>
       <c r="Z276" s="18"/>
-    </row>
-    <row r="277" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA276" s="18"/>
+    </row>
+    <row r="277" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A277" s="17"/>
       <c r="B277" s="17"/>
       <c r="C277" s="17"/>
@@ -8594,8 +8943,9 @@
       <c r="X277" s="18"/>
       <c r="Y277" s="18"/>
       <c r="Z277" s="18"/>
-    </row>
-    <row r="278" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA277" s="18"/>
+    </row>
+    <row r="278" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A278" s="17"/>
       <c r="B278" s="17"/>
       <c r="C278" s="17"/>
@@ -8622,8 +8972,9 @@
       <c r="X278" s="18"/>
       <c r="Y278" s="18"/>
       <c r="Z278" s="18"/>
-    </row>
-    <row r="279" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA278" s="18"/>
+    </row>
+    <row r="279" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A279" s="17"/>
       <c r="B279" s="17"/>
       <c r="C279" s="17"/>
@@ -8650,8 +9001,9 @@
       <c r="X279" s="18"/>
       <c r="Y279" s="18"/>
       <c r="Z279" s="18"/>
-    </row>
-    <row r="280" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA279" s="18"/>
+    </row>
+    <row r="280" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A280" s="17"/>
       <c r="B280" s="17"/>
       <c r="C280" s="17"/>
@@ -8678,8 +9030,9 @@
       <c r="X280" s="18"/>
       <c r="Y280" s="18"/>
       <c r="Z280" s="18"/>
-    </row>
-    <row r="281" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA280" s="18"/>
+    </row>
+    <row r="281" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A281" s="17"/>
       <c r="B281" s="17"/>
       <c r="C281" s="17"/>
@@ -8706,8 +9059,9 @@
       <c r="X281" s="18"/>
       <c r="Y281" s="18"/>
       <c r="Z281" s="18"/>
-    </row>
-    <row r="282" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA281" s="18"/>
+    </row>
+    <row r="282" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A282" s="17"/>
       <c r="B282" s="17"/>
       <c r="C282" s="17"/>
@@ -8734,8 +9088,9 @@
       <c r="X282" s="18"/>
       <c r="Y282" s="18"/>
       <c r="Z282" s="18"/>
-    </row>
-    <row r="283" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA282" s="18"/>
+    </row>
+    <row r="283" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A283" s="17"/>
       <c r="B283" s="17"/>
       <c r="C283" s="17"/>
@@ -8762,8 +9117,9 @@
       <c r="X283" s="18"/>
       <c r="Y283" s="18"/>
       <c r="Z283" s="18"/>
-    </row>
-    <row r="284" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA283" s="18"/>
+    </row>
+    <row r="284" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A284" s="17"/>
       <c r="B284" s="17"/>
       <c r="C284" s="17"/>
@@ -8790,8 +9146,9 @@
       <c r="X284" s="18"/>
       <c r="Y284" s="18"/>
       <c r="Z284" s="18"/>
-    </row>
-    <row r="285" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA284" s="18"/>
+    </row>
+    <row r="285" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A285" s="17"/>
       <c r="B285" s="17"/>
       <c r="C285" s="17"/>
@@ -8818,8 +9175,9 @@
       <c r="X285" s="18"/>
       <c r="Y285" s="18"/>
       <c r="Z285" s="18"/>
-    </row>
-    <row r="286" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA285" s="18"/>
+    </row>
+    <row r="286" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A286" s="17"/>
       <c r="B286" s="17"/>
       <c r="C286" s="17"/>
@@ -8846,8 +9204,9 @@
       <c r="X286" s="18"/>
       <c r="Y286" s="18"/>
       <c r="Z286" s="18"/>
-    </row>
-    <row r="287" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA286" s="18"/>
+    </row>
+    <row r="287" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A287" s="17"/>
       <c r="B287" s="17"/>
       <c r="C287" s="17"/>
@@ -8874,8 +9233,9 @@
       <c r="X287" s="18"/>
       <c r="Y287" s="18"/>
       <c r="Z287" s="18"/>
-    </row>
-    <row r="288" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA287" s="18"/>
+    </row>
+    <row r="288" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A288" s="17"/>
       <c r="B288" s="17"/>
       <c r="C288" s="17"/>
@@ -8902,8 +9262,9 @@
       <c r="X288" s="18"/>
       <c r="Y288" s="18"/>
       <c r="Z288" s="18"/>
-    </row>
-    <row r="289" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA288" s="18"/>
+    </row>
+    <row r="289" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A289" s="17"/>
       <c r="B289" s="17"/>
       <c r="C289" s="17"/>
@@ -8930,8 +9291,9 @@
       <c r="X289" s="18"/>
       <c r="Y289" s="18"/>
       <c r="Z289" s="18"/>
-    </row>
-    <row r="290" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA289" s="18"/>
+    </row>
+    <row r="290" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A290" s="17"/>
       <c r="B290" s="17"/>
       <c r="C290" s="17"/>
@@ -8958,8 +9320,9 @@
       <c r="X290" s="18"/>
       <c r="Y290" s="18"/>
       <c r="Z290" s="18"/>
-    </row>
-    <row r="291" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA290" s="18"/>
+    </row>
+    <row r="291" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A291" s="17"/>
       <c r="B291" s="17"/>
       <c r="C291" s="17"/>
@@ -8986,8 +9349,9 @@
       <c r="X291" s="18"/>
       <c r="Y291" s="18"/>
       <c r="Z291" s="18"/>
-    </row>
-    <row r="292" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA291" s="18"/>
+    </row>
+    <row r="292" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A292" s="17"/>
       <c r="B292" s="17"/>
       <c r="C292" s="17"/>
@@ -9014,8 +9378,9 @@
       <c r="X292" s="18"/>
       <c r="Y292" s="18"/>
       <c r="Z292" s="18"/>
-    </row>
-    <row r="293" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA292" s="18"/>
+    </row>
+    <row r="293" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A293" s="17"/>
       <c r="B293" s="17"/>
       <c r="C293" s="17"/>
@@ -9042,8 +9407,9 @@
       <c r="X293" s="18"/>
       <c r="Y293" s="18"/>
       <c r="Z293" s="18"/>
-    </row>
-    <row r="294" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA293" s="18"/>
+    </row>
+    <row r="294" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A294" s="17"/>
       <c r="B294" s="17"/>
       <c r="C294" s="17"/>
@@ -9070,8 +9436,9 @@
       <c r="X294" s="18"/>
       <c r="Y294" s="18"/>
       <c r="Z294" s="18"/>
-    </row>
-    <row r="295" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA294" s="18"/>
+    </row>
+    <row r="295" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A295" s="17"/>
       <c r="B295" s="17"/>
       <c r="C295" s="17"/>
@@ -9098,8 +9465,9 @@
       <c r="X295" s="18"/>
       <c r="Y295" s="18"/>
       <c r="Z295" s="18"/>
-    </row>
-    <row r="296" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA295" s="18"/>
+    </row>
+    <row r="296" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A296" s="17"/>
       <c r="B296" s="17"/>
       <c r="C296" s="17"/>
@@ -9126,8 +9494,9 @@
       <c r="X296" s="18"/>
       <c r="Y296" s="18"/>
       <c r="Z296" s="18"/>
-    </row>
-    <row r="297" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA296" s="18"/>
+    </row>
+    <row r="297" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A297" s="17"/>
       <c r="B297" s="17"/>
       <c r="C297" s="17"/>
@@ -9154,8 +9523,9 @@
       <c r="X297" s="18"/>
       <c r="Y297" s="18"/>
       <c r="Z297" s="18"/>
-    </row>
-    <row r="298" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA297" s="18"/>
+    </row>
+    <row r="298" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A298" s="17"/>
       <c r="B298" s="17"/>
       <c r="C298" s="17"/>
@@ -9182,8 +9552,9 @@
       <c r="X298" s="18"/>
       <c r="Y298" s="18"/>
       <c r="Z298" s="18"/>
-    </row>
-    <row r="299" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA298" s="18"/>
+    </row>
+    <row r="299" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A299" s="17"/>
       <c r="B299" s="17"/>
       <c r="C299" s="17"/>
@@ -9210,8 +9581,9 @@
       <c r="X299" s="18"/>
       <c r="Y299" s="18"/>
       <c r="Z299" s="18"/>
-    </row>
-    <row r="300" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA299" s="18"/>
+    </row>
+    <row r="300" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A300" s="17"/>
       <c r="B300" s="17"/>
       <c r="C300" s="17"/>
@@ -9238,8 +9610,9 @@
       <c r="X300" s="18"/>
       <c r="Y300" s="18"/>
       <c r="Z300" s="18"/>
-    </row>
-    <row r="301" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA300" s="18"/>
+    </row>
+    <row r="301" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A301" s="17"/>
       <c r="B301" s="17"/>
       <c r="C301" s="17"/>
@@ -9266,8 +9639,9 @@
       <c r="X301" s="18"/>
       <c r="Y301" s="18"/>
       <c r="Z301" s="18"/>
-    </row>
-    <row r="302" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA301" s="18"/>
+    </row>
+    <row r="302" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A302" s="17"/>
       <c r="B302" s="17"/>
       <c r="C302" s="17"/>
@@ -9294,8 +9668,9 @@
       <c r="X302" s="18"/>
       <c r="Y302" s="18"/>
       <c r="Z302" s="18"/>
-    </row>
-    <row r="303" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA302" s="18"/>
+    </row>
+    <row r="303" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A303" s="17"/>
       <c r="B303" s="17"/>
       <c r="C303" s="17"/>
@@ -9322,8 +9697,9 @@
       <c r="X303" s="18"/>
       <c r="Y303" s="18"/>
       <c r="Z303" s="18"/>
-    </row>
-    <row r="304" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA303" s="18"/>
+    </row>
+    <row r="304" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A304" s="17"/>
       <c r="B304" s="17"/>
       <c r="C304" s="17"/>
@@ -9350,8 +9726,9 @@
       <c r="X304" s="18"/>
       <c r="Y304" s="18"/>
       <c r="Z304" s="18"/>
-    </row>
-    <row r="305" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA304" s="18"/>
+    </row>
+    <row r="305" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A305" s="17"/>
       <c r="B305" s="17"/>
       <c r="C305" s="17"/>
@@ -9378,8 +9755,9 @@
       <c r="X305" s="18"/>
       <c r="Y305" s="18"/>
       <c r="Z305" s="18"/>
-    </row>
-    <row r="306" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA305" s="18"/>
+    </row>
+    <row r="306" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A306" s="17"/>
       <c r="B306" s="17"/>
       <c r="C306" s="17"/>
@@ -9406,8 +9784,9 @@
       <c r="X306" s="18"/>
       <c r="Y306" s="18"/>
       <c r="Z306" s="18"/>
-    </row>
-    <row r="307" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA306" s="18"/>
+    </row>
+    <row r="307" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A307" s="17"/>
       <c r="B307" s="17"/>
       <c r="C307" s="17"/>
@@ -9434,8 +9813,9 @@
       <c r="X307" s="18"/>
       <c r="Y307" s="18"/>
       <c r="Z307" s="18"/>
-    </row>
-    <row r="308" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA307" s="18"/>
+    </row>
+    <row r="308" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A308" s="17"/>
       <c r="B308" s="17"/>
       <c r="C308" s="17"/>
@@ -9462,8 +9842,9 @@
       <c r="X308" s="18"/>
       <c r="Y308" s="18"/>
       <c r="Z308" s="18"/>
-    </row>
-    <row r="309" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA308" s="18"/>
+    </row>
+    <row r="309" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A309" s="17"/>
       <c r="B309" s="17"/>
       <c r="C309" s="17"/>
@@ -9490,8 +9871,9 @@
       <c r="X309" s="18"/>
       <c r="Y309" s="18"/>
       <c r="Z309" s="18"/>
-    </row>
-    <row r="310" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA309" s="18"/>
+    </row>
+    <row r="310" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A310" s="17"/>
       <c r="B310" s="17"/>
       <c r="C310" s="17"/>
@@ -9518,8 +9900,9 @@
       <c r="X310" s="18"/>
       <c r="Y310" s="18"/>
       <c r="Z310" s="18"/>
-    </row>
-    <row r="311" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA310" s="18"/>
+    </row>
+    <row r="311" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A311" s="17"/>
       <c r="B311" s="17"/>
       <c r="C311" s="17"/>
@@ -9546,8 +9929,9 @@
       <c r="X311" s="18"/>
       <c r="Y311" s="18"/>
       <c r="Z311" s="18"/>
-    </row>
-    <row r="312" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA311" s="18"/>
+    </row>
+    <row r="312" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A312" s="17"/>
       <c r="B312" s="17"/>
       <c r="C312" s="17"/>
@@ -9574,8 +9958,9 @@
       <c r="X312" s="18"/>
       <c r="Y312" s="18"/>
       <c r="Z312" s="18"/>
-    </row>
-    <row r="313" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA312" s="18"/>
+    </row>
+    <row r="313" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A313" s="17"/>
       <c r="B313" s="17"/>
       <c r="C313" s="17"/>
@@ -9602,8 +9987,9 @@
       <c r="X313" s="18"/>
       <c r="Y313" s="18"/>
       <c r="Z313" s="18"/>
-    </row>
-    <row r="314" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA313" s="18"/>
+    </row>
+    <row r="314" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A314" s="17"/>
       <c r="B314" s="17"/>
       <c r="C314" s="17"/>
@@ -9630,8 +10016,9 @@
       <c r="X314" s="18"/>
       <c r="Y314" s="18"/>
       <c r="Z314" s="18"/>
-    </row>
-    <row r="315" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA314" s="18"/>
+    </row>
+    <row r="315" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A315" s="17"/>
       <c r="B315" s="17"/>
       <c r="C315" s="17"/>
@@ -9658,8 +10045,9 @@
       <c r="X315" s="18"/>
       <c r="Y315" s="18"/>
       <c r="Z315" s="18"/>
-    </row>
-    <row r="316" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA315" s="18"/>
+    </row>
+    <row r="316" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A316" s="17"/>
       <c r="B316" s="17"/>
       <c r="C316" s="17"/>
@@ -9686,8 +10074,9 @@
       <c r="X316" s="18"/>
       <c r="Y316" s="18"/>
       <c r="Z316" s="18"/>
-    </row>
-    <row r="317" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA316" s="18"/>
+    </row>
+    <row r="317" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A317" s="17"/>
       <c r="B317" s="17"/>
       <c r="C317" s="17"/>
@@ -9714,8 +10103,9 @@
       <c r="X317" s="18"/>
       <c r="Y317" s="18"/>
       <c r="Z317" s="18"/>
-    </row>
-    <row r="318" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA317" s="18"/>
+    </row>
+    <row r="318" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A318" s="17"/>
       <c r="B318" s="17"/>
       <c r="C318" s="17"/>
@@ -9742,8 +10132,9 @@
       <c r="X318" s="18"/>
       <c r="Y318" s="18"/>
       <c r="Z318" s="18"/>
-    </row>
-    <row r="319" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA318" s="18"/>
+    </row>
+    <row r="319" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A319" s="17"/>
       <c r="B319" s="17"/>
       <c r="C319" s="17"/>
@@ -9770,8 +10161,9 @@
       <c r="X319" s="18"/>
       <c r="Y319" s="18"/>
       <c r="Z319" s="18"/>
-    </row>
-    <row r="320" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA319" s="18"/>
+    </row>
+    <row r="320" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A320" s="17"/>
       <c r="B320" s="17"/>
       <c r="C320" s="17"/>
@@ -9798,8 +10190,9 @@
       <c r="X320" s="18"/>
       <c r="Y320" s="18"/>
       <c r="Z320" s="18"/>
-    </row>
-    <row r="321" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA320" s="18"/>
+    </row>
+    <row r="321" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A321" s="17"/>
       <c r="B321" s="17"/>
       <c r="C321" s="17"/>
@@ -9826,8 +10219,9 @@
       <c r="X321" s="18"/>
       <c r="Y321" s="18"/>
       <c r="Z321" s="18"/>
-    </row>
-    <row r="322" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA321" s="18"/>
+    </row>
+    <row r="322" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A322" s="17"/>
       <c r="B322" s="17"/>
       <c r="C322" s="17"/>
@@ -9854,8 +10248,9 @@
       <c r="X322" s="18"/>
       <c r="Y322" s="18"/>
       <c r="Z322" s="18"/>
-    </row>
-    <row r="323" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA322" s="18"/>
+    </row>
+    <row r="323" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A323" s="17"/>
       <c r="B323" s="17"/>
       <c r="C323" s="17"/>
@@ -9882,8 +10277,9 @@
       <c r="X323" s="18"/>
       <c r="Y323" s="18"/>
       <c r="Z323" s="18"/>
-    </row>
-    <row r="324" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA323" s="18"/>
+    </row>
+    <row r="324" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A324" s="17"/>
       <c r="B324" s="17"/>
       <c r="C324" s="17"/>
@@ -9910,8 +10306,9 @@
       <c r="X324" s="18"/>
       <c r="Y324" s="18"/>
       <c r="Z324" s="18"/>
-    </row>
-    <row r="325" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA324" s="18"/>
+    </row>
+    <row r="325" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A325" s="17"/>
       <c r="B325" s="17"/>
       <c r="C325" s="17"/>
@@ -9938,8 +10335,9 @@
       <c r="X325" s="18"/>
       <c r="Y325" s="18"/>
       <c r="Z325" s="18"/>
-    </row>
-    <row r="326" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA325" s="18"/>
+    </row>
+    <row r="326" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A326" s="17"/>
       <c r="B326" s="17"/>
       <c r="C326" s="17"/>
@@ -9966,8 +10364,9 @@
       <c r="X326" s="18"/>
       <c r="Y326" s="18"/>
       <c r="Z326" s="18"/>
-    </row>
-    <row r="327" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA326" s="18"/>
+    </row>
+    <row r="327" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A327" s="17"/>
       <c r="B327" s="17"/>
       <c r="C327" s="17"/>
@@ -9994,8 +10393,9 @@
       <c r="X327" s="18"/>
       <c r="Y327" s="18"/>
       <c r="Z327" s="18"/>
-    </row>
-    <row r="328" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA327" s="18"/>
+    </row>
+    <row r="328" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A328" s="17"/>
       <c r="B328" s="17"/>
       <c r="C328" s="17"/>
@@ -10022,8 +10422,9 @@
       <c r="X328" s="18"/>
       <c r="Y328" s="18"/>
       <c r="Z328" s="18"/>
-    </row>
-    <row r="329" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA328" s="18"/>
+    </row>
+    <row r="329" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A329" s="17"/>
       <c r="B329" s="17"/>
       <c r="C329" s="17"/>
@@ -10050,8 +10451,9 @@
       <c r="X329" s="18"/>
       <c r="Y329" s="18"/>
       <c r="Z329" s="18"/>
-    </row>
-    <row r="330" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA329" s="18"/>
+    </row>
+    <row r="330" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A330" s="17"/>
       <c r="B330" s="17"/>
       <c r="C330" s="17"/>
@@ -10078,8 +10480,9 @@
       <c r="X330" s="18"/>
       <c r="Y330" s="18"/>
       <c r="Z330" s="18"/>
-    </row>
-    <row r="331" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA330" s="18"/>
+    </row>
+    <row r="331" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A331" s="17"/>
       <c r="B331" s="17"/>
       <c r="C331" s="17"/>
@@ -10106,8 +10509,9 @@
       <c r="X331" s="18"/>
       <c r="Y331" s="18"/>
       <c r="Z331" s="18"/>
-    </row>
-    <row r="332" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA331" s="18"/>
+    </row>
+    <row r="332" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A332" s="17"/>
       <c r="B332" s="17"/>
       <c r="C332" s="17"/>
@@ -10134,8 +10538,9 @@
       <c r="X332" s="18"/>
       <c r="Y332" s="18"/>
       <c r="Z332" s="18"/>
-    </row>
-    <row r="333" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA332" s="18"/>
+    </row>
+    <row r="333" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A333" s="17"/>
       <c r="B333" s="17"/>
       <c r="C333" s="17"/>
@@ -10162,8 +10567,9 @@
       <c r="X333" s="18"/>
       <c r="Y333" s="18"/>
       <c r="Z333" s="18"/>
-    </row>
-    <row r="334" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA333" s="18"/>
+    </row>
+    <row r="334" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A334" s="17"/>
       <c r="B334" s="17"/>
       <c r="C334" s="17"/>
@@ -10190,13 +10596,14 @@
       <c r="X334" s="18"/>
       <c r="Y334" s="18"/>
       <c r="Z334" s="18"/>
-    </row>
-    <row r="335" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="AA334" s="18"/>
+    </row>
+    <row r="335" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A335" s="5"/>
       <c r="B335" s="5"/>
       <c r="C335" s="5"/>
     </row>
-    <row r="336" spans="1:26" ht="20.100000000000001" customHeight="1">
+    <row r="336" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A336" s="5"/>
       <c r="B336" s="5"/>
       <c r="C336" s="5"/>

--- a/core/utils/cadastrodeitens.xlsx
+++ b/core/utils/cadastrodeitens.xlsx
@@ -1,40 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\ventura_project\ventura_project_backend\project-beck_ventura\core\utils\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD76577-D281-45B8-B4E5-7782DC44F55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B1B082-4DE9-4C31-96D8-745213623B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9029D061-8B28-4E8B-B87C-E01B1A6C0E7F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9029D061-8B28-4E8B-B87C-E01B1A6C0E7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>PROJETO</t>
   </si>
@@ -43,9 +34,6 @@
   </si>
   <si>
     <t>GENERO</t>
-  </si>
-  <si>
-    <t>feminino</t>
   </si>
   <si>
     <t>10</t>
@@ -117,25 +105,19 @@
     <t>00</t>
   </si>
   <si>
-    <t>masculino</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
-    <t>botucatu</t>
+    <t>EG/LG</t>
   </si>
   <si>
-    <t>item 1</t>
+    <t>santo andré</t>
   </si>
   <si>
-    <t>item 2</t>
+    <t>unissex</t>
   </si>
   <si>
-    <t>item 3</t>
-  </si>
-  <si>
-    <t>EG/LG</t>
+    <t>kit uniforme</t>
   </si>
 </sst>
 </file>
@@ -746,14 +728,14 @@
   <dimension ref="A1:AA784"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="3"/>
+    <col min="1" max="1" width="16.33203125" style="3"/>
     <col min="2" max="2" width="39" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="16.28515625" style="3"/>
+    <col min="3" max="16384" width="16.33203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="20.100000000000001" customHeight="1">
@@ -767,265 +749,197 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="2" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="20"/>
+      <c r="F2" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>26</v>
+      </c>
       <c r="H2" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K2" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M2" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N2" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O2" s="20"/>
       <c r="P2" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q2" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R2" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="S2" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
-      <c r="T2" s="20" t="s">
-        <v>28</v>
+      <c r="T2" s="20"/>
+      <c r="U2" s="21" t="s">
+        <v>26</v>
       </c>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21" t="s">
-        <v>28</v>
-      </c>
+      <c r="V2" s="21"/>
       <c r="W2" s="21"/>
       <c r="X2" s="21"/>
       <c r="Y2" s="21"/>
-      <c r="Z2" s="21" t="s">
-        <v>28</v>
-      </c>
+      <c r="Z2" s="21"/>
       <c r="AA2" s="21"/>
     </row>
     <row r="3" spans="1:27" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
       <c r="G3" s="20"/>
-      <c r="H3" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" s="20" t="s">
-        <v>28</v>
-      </c>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
       <c r="O3" s="20"/>
-      <c r="P3" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q3" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="R3" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="S3" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="T3" s="20" t="s">
-        <v>28</v>
-      </c>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
       <c r="U3" s="21"/>
-      <c r="V3" s="21" t="s">
-        <v>28</v>
-      </c>
+      <c r="V3" s="21"/>
       <c r="W3" s="21"/>
       <c r="X3" s="21"/>
       <c r="Y3" s="21"/>
-      <c r="Z3" s="21" t="s">
-        <v>28</v>
-      </c>
+      <c r="Z3" s="21"/>
       <c r="AA3" s="21"/>
     </row>
     <row r="4" spans="1:27" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
       <c r="G4" s="20"/>
-      <c r="H4" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4" s="20" t="s">
-        <v>28</v>
-      </c>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
       <c r="O4" s="20"/>
-      <c r="P4" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q4" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="R4" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="S4" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="T4" s="20" t="s">
-        <v>28</v>
-      </c>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
       <c r="U4" s="21"/>
-      <c r="V4" s="21" t="s">
-        <v>28</v>
-      </c>
+      <c r="V4" s="21"/>
       <c r="W4" s="21"/>
       <c r="X4" s="21"/>
       <c r="Y4" s="21"/>
-      <c r="Z4" s="21" t="s">
-        <v>28</v>
-      </c>
+      <c r="Z4" s="21"/>
       <c r="AA4" s="21"/>
     </row>
     <row r="5" spans="1:27" ht="20.100000000000001" customHeight="1">

--- a/core/utils/cadastrodeitens.xlsx
+++ b/core/utils/cadastrodeitens.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexandre\Desktop\projeto ventura backend\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B1B082-4DE9-4C31-96D8-745213623B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E91A5A-FF10-4DA8-9DB8-886A55526505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9029D061-8B28-4E8B-B87C-E01B1A6C0E7F}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{9029D061-8B28-4E8B-B87C-E01B1A6C0E7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -731,11 +731,11 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="3"/>
+    <col min="1" max="1" width="16.28515625" style="3"/>
     <col min="2" max="2" width="39" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="16.33203125" style="3"/>
+    <col min="3" max="16384" width="16.28515625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="20.100000000000001" customHeight="1">

--- a/core/utils/cadastrodeitens.xlsx
+++ b/core/utils/cadastrodeitens.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexandre\Desktop\projeto ventura backend\project-beck_ventura\core\utils\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E91A5A-FF10-4DA8-9DB8-886A55526505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB7F5EB-3FE2-4DDD-A09A-E66D3913A83F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{9029D061-8B28-4E8B-B87C-E01B1A6C0E7F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9029D061-8B28-4E8B-B87C-E01B1A6C0E7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="32">
   <si>
     <t>PROJETO</t>
   </si>
@@ -111,13 +111,16 @@
     <t>EG/LG</t>
   </si>
   <si>
-    <t>santo andré</t>
+    <t>kit uniforme</t>
   </si>
   <si>
-    <t>unissex</t>
+    <t>santos</t>
   </si>
   <si>
-    <t>kit uniforme</t>
+    <t>masculino</t>
+  </si>
+  <si>
+    <t>feminino</t>
   </si>
 </sst>
 </file>
@@ -728,14 +731,14 @@
   <dimension ref="A1:AA784"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="3"/>
+    <col min="1" max="1" width="16.33203125" style="3"/>
     <col min="2" max="2" width="39" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="16.28515625" style="3"/>
+    <col min="3" max="16384" width="16.33203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="20.100000000000001" customHeight="1">
@@ -823,19 +826,19 @@
     </row>
     <row r="2" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19" t="s">
+      <c r="E2" s="19" t="s">
         <v>26</v>
       </c>
+      <c r="F2" s="19"/>
       <c r="G2" s="20" t="s">
         <v>26</v>
       </c>
@@ -874,10 +877,10 @@
         <v>26</v>
       </c>
       <c r="T2" s="20"/>
-      <c r="U2" s="21" t="s">
+      <c r="U2" s="21"/>
+      <c r="V2" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="V2" s="21"/>
       <c r="W2" s="21"/>
       <c r="X2" s="21"/>
       <c r="Y2" s="21"/>
@@ -885,28 +888,62 @@
       <c r="AA2" s="21"/>
     </row>
     <row r="3" spans="1:27" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+      <c r="A3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
+      <c r="E3" s="19" t="s">
+        <v>26</v>
+      </c>
       <c r="F3" s="19"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
+      <c r="G3" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>26</v>
+      </c>
       <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
+      <c r="P3" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="S3" s="20" t="s">
+        <v>26</v>
+      </c>
       <c r="T3" s="20"/>
       <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
+      <c r="V3" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="W3" s="21"/>
       <c r="X3" s="21"/>
       <c r="Y3" s="21"/>

--- a/core/utils/cadastrodeitens.xlsx
+++ b/core/utils/cadastrodeitens.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB7F5EB-3FE2-4DDD-A09A-E66D3913A83F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E25EE2-E4FB-4331-97DA-34E829CAC5EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9029D061-8B28-4E8B-B87C-E01B1A6C0E7F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>PROJETO</t>
   </si>
@@ -111,16 +111,13 @@
     <t>EG/LG</t>
   </si>
   <si>
-    <t>kit uniforme</t>
-  </si>
-  <si>
-    <t>santos</t>
-  </si>
-  <si>
     <t>masculino</t>
   </si>
   <si>
-    <t>feminino</t>
+    <t>joinville</t>
+  </si>
+  <si>
+    <t>bermuda tactel</t>
   </si>
 </sst>
 </file>
@@ -731,7 +728,7 @@
   <dimension ref="A1:AA784"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -829,22 +826,16 @@
         <v>29</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="D2" s="19"/>
-      <c r="E2" s="19" t="s">
-        <v>26</v>
-      </c>
+      <c r="E2" s="19"/>
       <c r="F2" s="19"/>
-      <c r="G2" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>26</v>
-      </c>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
       <c r="I2" s="20" t="s">
         <v>26</v>
       </c>
@@ -878,9 +869,7 @@
       </c>
       <c r="T2" s="20"/>
       <c r="U2" s="21"/>
-      <c r="V2" s="21" t="s">
-        <v>26</v>
-      </c>
+      <c r="V2" s="21"/>
       <c r="W2" s="21"/>
       <c r="X2" s="21"/>
       <c r="Y2" s="21"/>
@@ -888,62 +877,28 @@
       <c r="AA2" s="21"/>
     </row>
     <row r="3" spans="1:27" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
       <c r="D3" s="19"/>
-      <c r="E3" s="19" t="s">
-        <v>26</v>
-      </c>
+      <c r="E3" s="19"/>
       <c r="F3" s="19"/>
-      <c r="G3" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" s="20" t="s">
-        <v>26</v>
-      </c>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
       <c r="O3" s="20"/>
-      <c r="P3" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q3" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="R3" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="S3" s="20" t="s">
-        <v>26</v>
-      </c>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
       <c r="T3" s="20"/>
       <c r="U3" s="21"/>
-      <c r="V3" s="21" t="s">
-        <v>26</v>
-      </c>
+      <c r="V3" s="21"/>
       <c r="W3" s="21"/>
       <c r="X3" s="21"/>
       <c r="Y3" s="21"/>

--- a/core/utils/cadastrodeitens.xlsx
+++ b/core/utils/cadastrodeitens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E25EE2-E4FB-4331-97DA-34E829CAC5EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFCF45C-CA17-4AF7-BC8B-5C29BEDA12DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9029D061-8B28-4E8B-B87C-E01B1A6C0E7F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>PROJETO</t>
   </si>
@@ -111,13 +111,13 @@
     <t>EG/LG</t>
   </si>
   <si>
-    <t>masculino</t>
+    <t>esteio</t>
   </si>
   <si>
-    <t>joinville</t>
+    <t>camiseta manga curta</t>
   </si>
   <si>
-    <t>bermuda tactel</t>
+    <t>unissex</t>
   </si>
 </sst>
 </file>
@@ -727,7 +727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13DA9257-B4D5-4E5C-82C2-6ED4623D6343}">
   <dimension ref="A1:AA784"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -823,19 +823,23 @@
     </row>
     <row r="2" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
+      <c r="G2" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>26</v>
+      </c>
       <c r="I2" s="20" t="s">
         <v>26</v>
       </c>
@@ -864,9 +868,7 @@
       <c r="R2" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="S2" s="20" t="s">
-        <v>26</v>
-      </c>
+      <c r="S2" s="20"/>
       <c r="T2" s="20"/>
       <c r="U2" s="21"/>
       <c r="V2" s="21"/>

--- a/core/utils/cadastrodeitens.xlsx
+++ b/core/utils/cadastrodeitens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFCF45C-CA17-4AF7-BC8B-5C29BEDA12DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037CFE2A-DC8D-4EFA-9A0F-FEB6C6ADE140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9029D061-8B28-4E8B-B87C-E01B1A6C0E7F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="36">
   <si>
     <t>PROJETO</t>
   </si>
@@ -111,13 +111,28 @@
     <t>EG/LG</t>
   </si>
   <si>
-    <t>esteio</t>
-  </si>
-  <si>
     <t>camiseta manga curta</t>
   </si>
   <si>
     <t>unissex</t>
+  </si>
+  <si>
+    <t>cubatão</t>
+  </si>
+  <si>
+    <t>masculino</t>
+  </si>
+  <si>
+    <t>feminino</t>
+  </si>
+  <si>
+    <t>camiseta regata</t>
+  </si>
+  <si>
+    <t>bermuda</t>
+  </si>
+  <si>
+    <t>camiseta manga longa</t>
   </si>
 </sst>
 </file>
@@ -727,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13DA9257-B4D5-4E5C-82C2-6ED4623D6343}">
   <dimension ref="A1:AA784"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -823,17 +838,19 @@
     </row>
     <row r="2" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="F2" s="19" t="s">
+        <v>26</v>
+      </c>
       <c r="G2" s="20" t="s">
         <v>26</v>
       </c>
@@ -868,156 +885,342 @@
       <c r="R2" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="S2" s="20"/>
+      <c r="S2" s="20" t="s">
+        <v>26</v>
+      </c>
       <c r="T2" s="20"/>
-      <c r="U2" s="21"/>
+      <c r="U2" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
+      <c r="W2" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="X2" s="21"/>
       <c r="Y2" s="21"/>
       <c r="Z2" s="21"/>
       <c r="AA2" s="21"/>
     </row>
     <row r="3" spans="1:27" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+      <c r="A3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
+      <c r="F3" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>26</v>
+      </c>
       <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
+      <c r="P3" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="S3" s="20" t="s">
+        <v>26</v>
+      </c>
       <c r="T3" s="20"/>
-      <c r="U3" s="21"/>
+      <c r="U3" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
+      <c r="W3" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="X3" s="21"/>
       <c r="Y3" s="21"/>
       <c r="Z3" s="21"/>
       <c r="AA3" s="21"/>
     </row>
     <row r="4" spans="1:27" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="A4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
+      <c r="F4" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="20" t="s">
+        <v>26</v>
+      </c>
       <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
+      <c r="P4" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="S4" s="20" t="s">
+        <v>26</v>
+      </c>
       <c r="T4" s="20"/>
-      <c r="U4" s="21"/>
+      <c r="U4" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="V4" s="21"/>
-      <c r="W4" s="21"/>
+      <c r="W4" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="X4" s="21"/>
       <c r="Y4" s="21"/>
       <c r="Z4" s="21"/>
       <c r="AA4" s="21"/>
     </row>
     <row r="5" spans="1:27" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="A5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
+      <c r="F5" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="20" t="s">
+        <v>26</v>
+      </c>
       <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
+      <c r="P5" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="R5" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="S5" s="20" t="s">
+        <v>26</v>
+      </c>
       <c r="T5" s="20"/>
-      <c r="U5" s="21"/>
+      <c r="U5" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
+      <c r="W5" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="X5" s="21"/>
       <c r="Y5" s="21"/>
       <c r="Z5" s="21"/>
       <c r="AA5" s="21"/>
     </row>
     <row r="6" spans="1:27" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="A6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
+      <c r="F6" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="20" t="s">
+        <v>26</v>
+      </c>
       <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
+      <c r="P6" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q6" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="R6" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="S6" s="20" t="s">
+        <v>26</v>
+      </c>
       <c r="T6" s="20"/>
-      <c r="U6" s="21"/>
+      <c r="U6" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
+      <c r="W6" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="X6" s="21"/>
       <c r="Y6" s="21"/>
       <c r="Z6" s="21"/>
       <c r="AA6" s="21"/>
     </row>
     <row r="7" spans="1:27" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="A7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
+      <c r="F7" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" s="20" t="s">
+        <v>26</v>
+      </c>
       <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
+      <c r="P7" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q7" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="R7" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="S7" s="20" t="s">
+        <v>26</v>
+      </c>
       <c r="T7" s="20"/>
-      <c r="U7" s="21"/>
+      <c r="U7" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
+      <c r="W7" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="X7" s="21"/>
       <c r="Y7" s="21"/>
       <c r="Z7" s="21"/>
@@ -1146,15 +1349,15 @@
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
       <c r="L12" s="20"/>
       <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
       <c r="P12" s="20"/>
       <c r="Q12" s="20"/>
       <c r="R12" s="20"/>
@@ -1175,15 +1378,15 @@
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
       <c r="L13" s="20"/>
       <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
       <c r="P13" s="20"/>
       <c r="Q13" s="20"/>
       <c r="R13" s="20"/>

--- a/core/utils/cadastrodeitens.xlsx
+++ b/core/utils/cadastrodeitens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037CFE2A-DC8D-4EFA-9A0F-FEB6C6ADE140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A80EDFA-629E-4918-AB48-D59BBC4E13ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9029D061-8B28-4E8B-B87C-E01B1A6C0E7F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="32">
   <si>
     <t>PROJETO</t>
   </si>
@@ -105,34 +105,22 @@
     <t>00</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>EG/LG</t>
   </si>
   <si>
-    <t>camiseta manga curta</t>
+    <t>SANTO ANDRÉ</t>
   </si>
   <si>
-    <t>unissex</t>
+    <t>KIT VERÃO</t>
   </si>
   <si>
-    <t>cubatão</t>
+    <t>UNISSEX</t>
   </si>
   <si>
-    <t>masculino</t>
+    <t>KIT INVERNO</t>
   </si>
   <si>
-    <t>feminino</t>
-  </si>
-  <si>
-    <t>camiseta regata</t>
-  </si>
-  <si>
-    <t>bermuda</t>
-  </si>
-  <si>
-    <t>camiseta manga longa</t>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -743,7 +731,7 @@
   <dimension ref="A1:AA784"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -830,7 +818,7 @@
         <v>14</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA1" s="2" t="s">
         <v>20</v>
@@ -838,64 +826,62 @@
     </row>
     <row r="2" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="19"/>
       <c r="F2" s="19" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="K2" s="20" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M2" s="20" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="N2" s="20" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="O2" s="20"/>
       <c r="P2" s="20" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="Q2" s="20" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="R2" s="20" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="S2" s="20" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="T2" s="20"/>
       <c r="U2" s="21" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="V2" s="21"/>
-      <c r="W2" s="21" t="s">
-        <v>26</v>
-      </c>
+      <c r="W2" s="21"/>
       <c r="X2" s="21"/>
       <c r="Y2" s="21"/>
       <c r="Z2" s="21"/>
@@ -903,324 +889,178 @@
     </row>
     <row r="3" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
       <c r="F3" s="19" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="J3" s="20" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M3" s="20" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="N3" s="20" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="O3" s="20"/>
       <c r="P3" s="20" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="Q3" s="20" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="R3" s="20" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="S3" s="20" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="T3" s="20"/>
       <c r="U3" s="21" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="V3" s="21"/>
-      <c r="W3" s="21" t="s">
-        <v>26</v>
-      </c>
+      <c r="W3" s="21"/>
       <c r="X3" s="21"/>
       <c r="Y3" s="21"/>
       <c r="Z3" s="21"/>
       <c r="AA3" s="21"/>
     </row>
     <row r="4" spans="1:27" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
-      <c r="F4" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" s="20" t="s">
-        <v>26</v>
-      </c>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
       <c r="O4" s="20"/>
-      <c r="P4" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q4" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="R4" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="S4" s="20" t="s">
-        <v>26</v>
-      </c>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
       <c r="T4" s="20"/>
-      <c r="U4" s="21" t="s">
-        <v>26</v>
-      </c>
+      <c r="U4" s="21"/>
       <c r="V4" s="21"/>
-      <c r="W4" s="21" t="s">
-        <v>26</v>
-      </c>
+      <c r="W4" s="21"/>
       <c r="X4" s="21"/>
       <c r="Y4" s="21"/>
       <c r="Z4" s="21"/>
       <c r="AA4" s="21"/>
     </row>
     <row r="5" spans="1:27" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
-      <c r="F5" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" s="20" t="s">
-        <v>26</v>
-      </c>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
       <c r="O5" s="20"/>
-      <c r="P5" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q5" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="R5" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="S5" s="20" t="s">
-        <v>26</v>
-      </c>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
       <c r="T5" s="20"/>
-      <c r="U5" s="21" t="s">
-        <v>26</v>
-      </c>
+      <c r="U5" s="21"/>
       <c r="V5" s="21"/>
-      <c r="W5" s="21" t="s">
-        <v>26</v>
-      </c>
+      <c r="W5" s="21"/>
       <c r="X5" s="21"/>
       <c r="Y5" s="21"/>
       <c r="Z5" s="21"/>
       <c r="AA5" s="21"/>
     </row>
     <row r="6" spans="1:27" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
-      <c r="F6" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="M6" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="N6" s="20" t="s">
-        <v>26</v>
-      </c>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
       <c r="O6" s="20"/>
-      <c r="P6" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q6" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="R6" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="S6" s="20" t="s">
-        <v>26</v>
-      </c>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
       <c r="T6" s="20"/>
-      <c r="U6" s="21" t="s">
-        <v>26</v>
-      </c>
+      <c r="U6" s="21"/>
       <c r="V6" s="21"/>
-      <c r="W6" s="21" t="s">
-        <v>26</v>
-      </c>
+      <c r="W6" s="21"/>
       <c r="X6" s="21"/>
       <c r="Y6" s="21"/>
       <c r="Z6" s="21"/>
       <c r="AA6" s="21"/>
     </row>
     <row r="7" spans="1:27" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
-      <c r="F7" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="M7" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="N7" s="20" t="s">
-        <v>26</v>
-      </c>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
       <c r="O7" s="20"/>
-      <c r="P7" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q7" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="R7" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="S7" s="20" t="s">
-        <v>26</v>
-      </c>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
       <c r="T7" s="20"/>
-      <c r="U7" s="21" t="s">
-        <v>26</v>
-      </c>
+      <c r="U7" s="21"/>
       <c r="V7" s="21"/>
-      <c r="W7" s="21" t="s">
-        <v>26</v>
-      </c>
+      <c r="W7" s="21"/>
       <c r="X7" s="21"/>
       <c r="Y7" s="21"/>
       <c r="Z7" s="21"/>

--- a/core/utils/cadastrodeitens.xlsx
+++ b/core/utils/cadastrodeitens.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A80EDFA-629E-4918-AB48-D59BBC4E13ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDC34B3-B77A-46DE-8052-39D484BE9186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9029D061-8B28-4E8B-B87C-E01B1A6C0E7F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="33">
   <si>
     <t>PROJETO</t>
   </si>
@@ -108,19 +108,22 @@
     <t>EG/LG</t>
   </si>
   <si>
-    <t>SANTO ANDRÉ</t>
-  </si>
-  <si>
-    <t>KIT VERÃO</t>
-  </si>
-  <si>
     <t>UNISSEX</t>
   </si>
   <si>
-    <t>KIT INVERNO</t>
+    <t>X</t>
   </si>
   <si>
-    <t>X</t>
+    <t>RIO GRANDE DO SUL</t>
+  </si>
+  <si>
+    <t>BERMUDA</t>
+  </si>
+  <si>
+    <t>CAMISETA MANGA CURTA BRANCA</t>
+  </si>
+  <si>
+    <t>CAMISETA MANGA CURTA VERDE</t>
   </si>
 </sst>
 </file>
@@ -731,12 +734,12 @@
   <dimension ref="A1:AA784"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z3" sqref="Z3"/>
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="3"/>
+    <col min="1" max="1" width="27.88671875" style="3" customWidth="1"/>
     <col min="2" max="2" width="39" style="3" customWidth="1"/>
     <col min="3" max="16384" width="16.33203125" style="3"/>
   </cols>
@@ -826,60 +829,56 @@
     </row>
     <row r="2" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="19"/>
-      <c r="F2" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>31</v>
-      </c>
+      <c r="F2" s="19"/>
+      <c r="G2" s="20"/>
       <c r="H2" s="20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K2" s="20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M2" s="20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
-      <c r="N2" s="20" t="s">
-        <v>31</v>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20" t="s">
+        <v>28</v>
       </c>
-      <c r="O2" s="20"/>
       <c r="P2" s="20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="Q2" s="20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="R2" s="20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="S2" s="20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
-      <c r="T2" s="20"/>
-      <c r="U2" s="21" t="s">
-        <v>31</v>
+      <c r="T2" s="20" t="s">
+        <v>28</v>
       </c>
+      <c r="U2" s="21"/>
       <c r="V2" s="21"/>
       <c r="W2" s="21"/>
       <c r="X2" s="21"/>
@@ -889,60 +888,56 @@
     </row>
     <row r="3" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
-      <c r="F3" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>31</v>
-      </c>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
       <c r="H3" s="20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J3" s="20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M3" s="20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
-      <c r="N3" s="20" t="s">
-        <v>31</v>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20" t="s">
+        <v>28</v>
       </c>
-      <c r="O3" s="20"/>
       <c r="P3" s="20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="Q3" s="20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="R3" s="20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="S3" s="20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
-      <c r="T3" s="20"/>
-      <c r="U3" s="21" t="s">
-        <v>31</v>
+      <c r="T3" s="20" t="s">
+        <v>28</v>
       </c>
+      <c r="U3" s="21"/>
       <c r="V3" s="21"/>
       <c r="W3" s="21"/>
       <c r="X3" s="21"/>
@@ -951,26 +946,56 @@
       <c r="AA3" s="21"/>
     </row>
     <row r="4" spans="1:27" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="A4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
       <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
+      <c r="H4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
+      <c r="O4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="S4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="T4" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="U4" s="21"/>
       <c r="V4" s="21"/>
       <c r="W4" s="21"/>

--- a/core/utils/cadastrodeitens.xlsx
+++ b/core/utils/cadastrodeitens.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDC34B3-B77A-46DE-8052-39D484BE9186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BF99AC-AD7C-46C0-A578-38357832DD51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9029D061-8B28-4E8B-B87C-E01B1A6C0E7F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{9029D061-8B28-4E8B-B87C-E01B1A6C0E7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>PROJETO</t>
   </si>
@@ -106,24 +106,6 @@
   </si>
   <si>
     <t>EG/LG</t>
-  </si>
-  <si>
-    <t>UNISSEX</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>RIO GRANDE DO SUL</t>
-  </si>
-  <si>
-    <t>BERMUDA</t>
-  </si>
-  <si>
-    <t>CAMISETA MANGA CURTA BRANCA</t>
-  </si>
-  <si>
-    <t>CAMISETA MANGA CURTA VERDE</t>
   </si>
 </sst>
 </file>
@@ -734,14 +716,14 @@
   <dimension ref="A1:AA784"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="27.88671875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="39" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="16.33203125" style="3"/>
+    <col min="3" max="16384" width="16.28515625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="20.100000000000001" customHeight="1">
@@ -828,56 +810,26 @@
       </c>
     </row>
     <row r="2" spans="1:27" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
       <c r="D2" s="19"/>
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
       <c r="G2" s="20"/>
-      <c r="H2" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>28</v>
-      </c>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
       <c r="N2" s="20"/>
-      <c r="O2" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="R2" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="S2" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="T2" s="20" t="s">
-        <v>28</v>
-      </c>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
       <c r="U2" s="21"/>
       <c r="V2" s="21"/>
       <c r="W2" s="21"/>
@@ -887,56 +839,26 @@
       <c r="AA2" s="21"/>
     </row>
     <row r="3" spans="1:27" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
       <c r="G3" s="20"/>
-      <c r="H3" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="20" t="s">
-        <v>28</v>
-      </c>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
       <c r="N3" s="20"/>
-      <c r="O3" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q3" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="R3" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="S3" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="T3" s="20" t="s">
-        <v>28</v>
-      </c>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
       <c r="U3" s="21"/>
       <c r="V3" s="21"/>
       <c r="W3" s="21"/>
@@ -946,56 +868,26 @@
       <c r="AA3" s="21"/>
     </row>
     <row r="4" spans="1:27" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
       <c r="G4" s="20"/>
-      <c r="H4" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="20" t="s">
-        <v>28</v>
-      </c>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
       <c r="N4" s="20"/>
-      <c r="O4" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="P4" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q4" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="R4" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="S4" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="T4" s="20" t="s">
-        <v>28</v>
-      </c>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
       <c r="U4" s="21"/>
       <c r="V4" s="21"/>
       <c r="W4" s="21"/>

--- a/core/utils/cadastrodeitens.xlsx
+++ b/core/utils/cadastrodeitens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BF99AC-AD7C-46C0-A578-38357832DD51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F99CE4C-1A55-4CF3-A471-08D90AFD884C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{9029D061-8B28-4E8B-B87C-E01B1A6C0E7F}"/>
   </bookViews>
@@ -716,7 +716,7 @@
   <dimension ref="A1:AA784"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>

--- a/core/utils/cadastrodeitens.xlsx
+++ b/core/utils/cadastrodeitens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F99CE4C-1A55-4CF3-A471-08D90AFD884C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C44494-8D81-48AC-8D32-3E65654C90CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{9029D061-8B28-4E8B-B87C-E01B1A6C0E7F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="36">
   <si>
     <t>PROJETO</t>
   </si>
@@ -106,6 +106,33 @@
   </si>
   <si>
     <t>EG/LG</t>
+  </si>
+  <si>
+    <t>ARARANGUÁ</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>BERMUDA</t>
+  </si>
+  <si>
+    <t>CALÇA</t>
+  </si>
+  <si>
+    <t>MASCULINO</t>
+  </si>
+  <si>
+    <t>JAQUETA</t>
+  </si>
+  <si>
+    <t>UNISSEX</t>
+  </si>
+  <si>
+    <t>SHORT SAIA</t>
+  </si>
+  <si>
+    <t>FEMININO</t>
   </si>
 </sst>
 </file>
@@ -716,7 +743,7 @@
   <dimension ref="A1:AA784"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -810,116 +837,252 @@
       </c>
     </row>
     <row r="2" spans="1:27" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="A2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="D2" s="19"/>
       <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
+      <c r="F2" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
+      <c r="O2" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="T2" s="20"/>
       <c r="U2" s="21"/>
       <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
+      <c r="W2" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="X2" s="21"/>
       <c r="Y2" s="21"/>
       <c r="Z2" s="21"/>
       <c r="AA2" s="21"/>
     </row>
     <row r="3" spans="1:27" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+      <c r="A3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
+      <c r="F3" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
+      <c r="O3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="T3" s="20"/>
       <c r="U3" s="21"/>
       <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
+      <c r="W3" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="X3" s="21"/>
       <c r="Y3" s="21"/>
       <c r="Z3" s="21"/>
       <c r="AA3" s="21"/>
     </row>
     <row r="4" spans="1:27" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="A4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
+      <c r="F4" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
+      <c r="O4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="S4" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="T4" s="20"/>
       <c r="U4" s="21"/>
       <c r="V4" s="21"/>
-      <c r="W4" s="21"/>
+      <c r="W4" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="X4" s="21"/>
       <c r="Y4" s="21"/>
       <c r="Z4" s="21"/>
       <c r="AA4" s="21"/>
     </row>
     <row r="5" spans="1:27" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="A5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
+      <c r="F5" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
+      <c r="O5" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="R5" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="S5" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="T5" s="20"/>
       <c r="U5" s="21"/>
       <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
+      <c r="W5" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="X5" s="21"/>
       <c r="Y5" s="21"/>
       <c r="Z5" s="21"/>

--- a/core/utils/cadastrodeitens.xlsx
+++ b/core/utils/cadastrodeitens.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C44494-8D81-48AC-8D32-3E65654C90CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C924E36-F38E-4C41-9B9F-44E64175AAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{9029D061-8B28-4E8B-B87C-E01B1A6C0E7F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9029D061-8B28-4E8B-B87C-E01B1A6C0E7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
   <si>
     <t>PROJETO</t>
   </si>
@@ -108,31 +108,34 @@
     <t>EG/LG</t>
   </si>
   <si>
-    <t>ARARANGUÁ</t>
+    <t>ITAPEVI</t>
   </si>
   <si>
-    <t>X</t>
+    <t>SHORT - SAIA</t>
+  </si>
+  <si>
+    <t>CALÇA MOLETOM</t>
+  </si>
+  <si>
+    <t>CASACO MOLETOM</t>
+  </si>
+  <si>
+    <t>CAMISETA MANGA CURTA</t>
   </si>
   <si>
     <t>BERMUDA</t>
   </si>
   <si>
-    <t>CALÇA</t>
+    <t>FEMININO</t>
+  </si>
+  <si>
+    <t>UNISSEX</t>
   </si>
   <si>
     <t>MASCULINO</t>
   </si>
   <si>
-    <t>JAQUETA</t>
-  </si>
-  <si>
-    <t>UNISSEX</t>
-  </si>
-  <si>
-    <t>SHORT SAIA</t>
-  </si>
-  <si>
-    <t>FEMININO</t>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -743,7 +746,7 @@
   <dimension ref="A1:AA784"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -841,59 +844,35 @@
         <v>27</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="19"/>
-      <c r="F2" s="19" t="s">
-        <v>28</v>
+      <c r="F2" s="19"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20" t="s">
+        <v>36</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>28</v>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20" t="s">
+        <v>36</v>
       </c>
-      <c r="H2" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="R2" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="S2" s="20" t="s">
-        <v>28</v>
-      </c>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
       <c r="T2" s="20"/>
       <c r="U2" s="21"/>
       <c r="V2" s="21"/>
-      <c r="W2" s="21" t="s">
-        <v>28</v>
-      </c>
+      <c r="W2" s="21"/>
       <c r="X2" s="21"/>
       <c r="Y2" s="21"/>
       <c r="Z2" s="21"/>
@@ -904,59 +883,33 @@
         <v>27</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
-      <c r="F3" s="19" t="s">
-        <v>28</v>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20" t="s">
+        <v>36</v>
       </c>
-      <c r="G3" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q3" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="R3" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="S3" s="20" t="s">
-        <v>28</v>
-      </c>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
       <c r="T3" s="20"/>
       <c r="U3" s="21"/>
       <c r="V3" s="21"/>
-      <c r="W3" s="21" t="s">
-        <v>28</v>
-      </c>
+      <c r="W3" s="21"/>
       <c r="X3" s="21"/>
       <c r="Y3" s="21"/>
       <c r="Z3" s="21"/>
@@ -967,59 +920,37 @@
         <v>27</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
-      <c r="F4" s="19" t="s">
-        <v>28</v>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20" t="s">
+        <v>36</v>
       </c>
-      <c r="G4" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="20" t="s">
-        <v>28</v>
-      </c>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
       <c r="N4" s="20"/>
-      <c r="O4" s="20" t="s">
-        <v>28</v>
-      </c>
+      <c r="O4" s="20"/>
       <c r="P4" s="20" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="Q4" s="20" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
-      <c r="R4" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="S4" s="20" t="s">
-        <v>28</v>
-      </c>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
       <c r="T4" s="20"/>
       <c r="U4" s="21"/>
       <c r="V4" s="21"/>
-      <c r="W4" s="21" t="s">
-        <v>28</v>
-      </c>
+      <c r="W4" s="21"/>
       <c r="X4" s="21"/>
       <c r="Y4" s="21"/>
       <c r="Z4" s="21"/>
@@ -1030,68 +961,48 @@
         <v>27</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
-      <c r="F5" s="19" t="s">
-        <v>28</v>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20" t="s">
+        <v>36</v>
       </c>
-      <c r="G5" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="M5" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="P5" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="R5" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="S5" s="20" t="s">
-        <v>28</v>
-      </c>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
       <c r="T5" s="20"/>
       <c r="U5" s="21"/>
       <c r="V5" s="21"/>
-      <c r="W5" s="21" t="s">
-        <v>28</v>
-      </c>
+      <c r="W5" s="21"/>
       <c r="X5" s="21"/>
       <c r="Y5" s="21"/>
       <c r="Z5" s="21"/>
       <c r="AA5" s="21"/>
     </row>
     <row r="6" spans="1:27" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="A6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
@@ -1101,7 +1012,9 @@
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
       <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
+      <c r="M6" s="20" t="s">
+        <v>36</v>
+      </c>
       <c r="N6" s="20"/>
       <c r="O6" s="20"/>
       <c r="P6" s="20"/>

--- a/core/utils/cadastrodeitens.xlsx
+++ b/core/utils/cadastrodeitens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C924E36-F38E-4C41-9B9F-44E64175AAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE968099-FACA-4EC8-A79D-F9BE95434C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9029D061-8B28-4E8B-B87C-E01B1A6C0E7F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>PROJETO</t>
   </si>
@@ -105,37 +105,7 @@
     <t>00</t>
   </si>
   <si>
-    <t>EG/LG</t>
-  </si>
-  <si>
-    <t>ITAPEVI</t>
-  </si>
-  <si>
-    <t>SHORT - SAIA</t>
-  </si>
-  <si>
-    <t>CALÇA MOLETOM</t>
-  </si>
-  <si>
-    <t>CASACO MOLETOM</t>
-  </si>
-  <si>
-    <t>CAMISETA MANGA CURTA</t>
-  </si>
-  <si>
-    <t>BERMUDA</t>
-  </si>
-  <si>
-    <t>FEMININO</t>
-  </si>
-  <si>
-    <t>UNISSEX</t>
-  </si>
-  <si>
-    <t>MASCULINO</t>
-  </si>
-  <si>
-    <t>X</t>
+    <t>EXG</t>
   </si>
 </sst>
 </file>
@@ -746,7 +716,7 @@
   <dimension ref="A1:AA784"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -840,15 +810,9 @@
       </c>
     </row>
     <row r="2" spans="1:27" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
       <c r="D2" s="19"/>
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
@@ -857,15 +821,11 @@
       <c r="I2" s="20"/>
       <c r="J2" s="20"/>
       <c r="K2" s="20"/>
-      <c r="L2" s="20" t="s">
-        <v>36</v>
-      </c>
+      <c r="L2" s="20"/>
       <c r="M2" s="20"/>
       <c r="N2" s="20"/>
       <c r="O2" s="20"/>
-      <c r="P2" s="20" t="s">
-        <v>36</v>
-      </c>
+      <c r="P2" s="20"/>
       <c r="Q2" s="20"/>
       <c r="R2" s="20"/>
       <c r="S2" s="20"/>
@@ -879,15 +839,9 @@
       <c r="AA2" s="21"/>
     </row>
     <row r="3" spans="1:27" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
@@ -900,9 +854,7 @@
       <c r="M3" s="20"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
-      <c r="P3" s="20" t="s">
-        <v>36</v>
-      </c>
+      <c r="P3" s="20"/>
       <c r="Q3" s="20"/>
       <c r="R3" s="20"/>
       <c r="S3" s="20"/>
@@ -916,15 +868,9 @@
       <c r="AA3" s="21"/>
     </row>
     <row r="4" spans="1:27" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
@@ -932,19 +878,13 @@
       <c r="H4" s="20"/>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
-      <c r="K4" s="20" t="s">
-        <v>36</v>
-      </c>
+      <c r="K4" s="20"/>
       <c r="L4" s="20"/>
       <c r="M4" s="20"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
-      <c r="P4" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q4" s="20" t="s">
-        <v>36</v>
-      </c>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
       <c r="R4" s="20"/>
       <c r="S4" s="20"/>
       <c r="T4" s="20"/>
@@ -957,15 +897,9 @@
       <c r="AA4" s="21"/>
     </row>
     <row r="5" spans="1:27" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
@@ -976,9 +910,7 @@
       <c r="K5" s="20"/>
       <c r="L5" s="20"/>
       <c r="M5" s="20"/>
-      <c r="N5" s="20" t="s">
-        <v>36</v>
-      </c>
+      <c r="N5" s="20"/>
       <c r="O5" s="20"/>
       <c r="P5" s="20"/>
       <c r="Q5" s="20"/>
@@ -994,15 +926,9 @@
       <c r="AA5" s="21"/>
     </row>
     <row r="6" spans="1:27" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>35</v>
-      </c>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
@@ -1012,9 +938,7 @@
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
       <c r="L6" s="20"/>
-      <c r="M6" s="20" t="s">
-        <v>36</v>
-      </c>
+      <c r="M6" s="20"/>
       <c r="N6" s="20"/>
       <c r="O6" s="20"/>
       <c r="P6" s="20"/>

--- a/core/utils/cadastrodeitens.xlsx
+++ b/core/utils/cadastrodeitens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE968099-FACA-4EC8-A79D-F9BE95434C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBF296E-70E7-4A7D-8665-F766144145A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9029D061-8B28-4E8B-B87C-E01B1A6C0E7F}"/>
   </bookViews>
@@ -716,7 +716,7 @@
   <dimension ref="A1:AA784"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -809,7 +809,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:27" ht="24" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>

--- a/core/utils/cadastrodeitens.xlsx
+++ b/core/utils/cadastrodeitens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBF296E-70E7-4A7D-8665-F766144145A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062BB209-E41C-4071-8564-9542B5DFD571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9029D061-8B28-4E8B-B87C-E01B1A6C0E7F}"/>
   </bookViews>
@@ -716,7 +716,7 @@
   <dimension ref="A1:AA784"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A2" sqref="A2:AA21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -832,7 +832,7 @@
       <c r="T2" s="20"/>
       <c r="U2" s="21"/>
       <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
+      <c r="W2" s="20"/>
       <c r="X2" s="21"/>
       <c r="Y2" s="21"/>
       <c r="Z2" s="21"/>
@@ -861,7 +861,7 @@
       <c r="T3" s="20"/>
       <c r="U3" s="21"/>
       <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
+      <c r="W3" s="20"/>
       <c r="X3" s="21"/>
       <c r="Y3" s="21"/>
       <c r="Z3" s="21"/>
@@ -890,7 +890,7 @@
       <c r="T4" s="20"/>
       <c r="U4" s="21"/>
       <c r="V4" s="21"/>
-      <c r="W4" s="21"/>
+      <c r="W4" s="20"/>
       <c r="X4" s="21"/>
       <c r="Y4" s="21"/>
       <c r="Z4" s="21"/>
@@ -919,7 +919,7 @@
       <c r="T5" s="20"/>
       <c r="U5" s="21"/>
       <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
+      <c r="W5" s="20"/>
       <c r="X5" s="21"/>
       <c r="Y5" s="21"/>
       <c r="Z5" s="21"/>
@@ -948,7 +948,7 @@
       <c r="T6" s="20"/>
       <c r="U6" s="21"/>
       <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
+      <c r="W6" s="20"/>
       <c r="X6" s="21"/>
       <c r="Y6" s="21"/>
       <c r="Z6" s="21"/>

--- a/core/utils/cadastrodeitens.xlsx
+++ b/core/utils/cadastrodeitens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062BB209-E41C-4071-8564-9542B5DFD571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D14A6F-838B-4CF5-9098-9BA7DC2F2BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9029D061-8B28-4E8B-B87C-E01B1A6C0E7F}"/>
   </bookViews>
@@ -715,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13DA9257-B4D5-4E5C-82C2-6ED4623D6343}">
   <dimension ref="A1:AA784"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:AA21"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>

--- a/core/utils/cadastrodeitens.xlsx
+++ b/core/utils/cadastrodeitens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D14A6F-838B-4CF5-9098-9BA7DC2F2BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF98005-EE64-4B74-97F1-456D8FB79D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9029D061-8B28-4E8B-B87C-E01B1A6C0E7F}"/>
   </bookViews>
@@ -715,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13DA9257-B4D5-4E5C-82C2-6ED4623D6343}">
   <dimension ref="A1:AA784"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>

--- a/core/utils/cadastrodeitens.xlsx
+++ b/core/utils/cadastrodeitens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF98005-EE64-4B74-97F1-456D8FB79D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD4B314-D20A-4BAE-B456-47FB5A70B540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9029D061-8B28-4E8B-B87C-E01B1A6C0E7F}"/>
   </bookViews>
@@ -716,7 +716,7 @@
   <dimension ref="A1:AA784"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>

--- a/core/utils/cadastrodeitens.xlsx
+++ b/core/utils/cadastrodeitens.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD4B314-D20A-4BAE-B456-47FB5A70B540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C1B036-B2C9-4B3F-B528-89FF12DF1264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9029D061-8B28-4E8B-B87C-E01B1A6C0E7F}"/>
   </bookViews>
@@ -716,7 +716,7 @@
   <dimension ref="A1:AA784"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>

--- a/core/utils/cadastrodeitens.xlsx
+++ b/core/utils/cadastrodeitens.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C1B036-B2C9-4B3F-B528-89FF12DF1264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39706D06-F941-4787-9671-89544B9260B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9029D061-8B28-4E8B-B87C-E01B1A6C0E7F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>PROJETO</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>EXG</t>
+  </si>
+  <si>
+    <t>EXGG</t>
   </si>
 </sst>
 </file>
@@ -713,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13DA9257-B4D5-4E5C-82C2-6ED4623D6343}">
-  <dimension ref="A1:AA784"/>
+  <dimension ref="A1:AB784"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -726,7 +729,7 @@
     <col min="3" max="16384" width="16.28515625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -806,10 +809,13 @@
         <v>26</v>
       </c>
       <c r="AA1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB1" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="24" customHeight="1">
+    <row r="2" spans="1:28" ht="24" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -837,8 +843,9 @@
       <c r="Y2" s="21"/>
       <c r="Z2" s="21"/>
       <c r="AA2" s="21"/>
-    </row>
-    <row r="3" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB2" s="21"/>
+    </row>
+    <row r="3" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -866,8 +873,9 @@
       <c r="Y3" s="21"/>
       <c r="Z3" s="21"/>
       <c r="AA3" s="21"/>
-    </row>
-    <row r="4" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB3" s="21"/>
+    </row>
+    <row r="4" spans="1:28" ht="38.25" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -895,8 +903,9 @@
       <c r="Y4" s="21"/>
       <c r="Z4" s="21"/>
       <c r="AA4" s="21"/>
-    </row>
-    <row r="5" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB4" s="21"/>
+    </row>
+    <row r="5" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -924,8 +933,9 @@
       <c r="Y5" s="21"/>
       <c r="Z5" s="21"/>
       <c r="AA5" s="21"/>
-    </row>
-    <row r="6" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB5" s="21"/>
+    </row>
+    <row r="6" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -953,8 +963,9 @@
       <c r="Y6" s="21"/>
       <c r="Z6" s="21"/>
       <c r="AA6" s="21"/>
-    </row>
-    <row r="7" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB6" s="21"/>
+    </row>
+    <row r="7" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -982,8 +993,9 @@
       <c r="Y7" s="21"/>
       <c r="Z7" s="21"/>
       <c r="AA7" s="21"/>
-    </row>
-    <row r="8" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB7" s="21"/>
+    </row>
+    <row r="8" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1011,8 +1023,9 @@
       <c r="Y8" s="21"/>
       <c r="Z8" s="21"/>
       <c r="AA8" s="21"/>
-    </row>
-    <row r="9" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB8" s="21"/>
+    </row>
+    <row r="9" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1040,8 +1053,9 @@
       <c r="Y9" s="21"/>
       <c r="Z9" s="21"/>
       <c r="AA9" s="21"/>
-    </row>
-    <row r="10" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB9" s="21"/>
+    </row>
+    <row r="10" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1069,8 +1083,9 @@
       <c r="Y10" s="21"/>
       <c r="Z10" s="21"/>
       <c r="AA10" s="21"/>
-    </row>
-    <row r="11" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB10" s="21"/>
+    </row>
+    <row r="11" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1098,8 +1113,9 @@
       <c r="Y11" s="21"/>
       <c r="Z11" s="21"/>
       <c r="AA11" s="21"/>
-    </row>
-    <row r="12" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB11" s="21"/>
+    </row>
+    <row r="12" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1127,8 +1143,9 @@
       <c r="Y12" s="21"/>
       <c r="Z12" s="21"/>
       <c r="AA12" s="21"/>
-    </row>
-    <row r="13" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB12" s="21"/>
+    </row>
+    <row r="13" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1156,8 +1173,9 @@
       <c r="Y13" s="21"/>
       <c r="Z13" s="21"/>
       <c r="AA13" s="21"/>
-    </row>
-    <row r="14" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB13" s="21"/>
+    </row>
+    <row r="14" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1185,8 +1203,9 @@
       <c r="Y14" s="21"/>
       <c r="Z14" s="21"/>
       <c r="AA14" s="21"/>
-    </row>
-    <row r="15" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB14" s="21"/>
+    </row>
+    <row r="15" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1214,8 +1233,9 @@
       <c r="Y15" s="21"/>
       <c r="Z15" s="21"/>
       <c r="AA15" s="21"/>
-    </row>
-    <row r="16" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB15" s="21"/>
+    </row>
+    <row r="16" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1243,8 +1263,9 @@
       <c r="Y16" s="21"/>
       <c r="Z16" s="21"/>
       <c r="AA16" s="21"/>
-    </row>
-    <row r="17" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB16" s="21"/>
+    </row>
+    <row r="17" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1272,8 +1293,9 @@
       <c r="Y17" s="21"/>
       <c r="Z17" s="21"/>
       <c r="AA17" s="21"/>
-    </row>
-    <row r="18" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB17" s="21"/>
+    </row>
+    <row r="18" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1301,8 +1323,9 @@
       <c r="Y18" s="21"/>
       <c r="Z18" s="21"/>
       <c r="AA18" s="21"/>
-    </row>
-    <row r="19" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB18" s="21"/>
+    </row>
+    <row r="19" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1330,8 +1353,9 @@
       <c r="Y19" s="21"/>
       <c r="Z19" s="21"/>
       <c r="AA19" s="21"/>
-    </row>
-    <row r="20" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB19" s="21"/>
+    </row>
+    <row r="20" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -1359,8 +1383,9 @@
       <c r="Y20" s="25"/>
       <c r="Z20" s="25"/>
       <c r="AA20" s="25"/>
-    </row>
-    <row r="21" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB20" s="25"/>
+    </row>
+    <row r="21" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1388,8 +1413,9 @@
       <c r="Y21" s="21"/>
       <c r="Z21" s="21"/>
       <c r="AA21" s="21"/>
-    </row>
-    <row r="22" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB21" s="21"/>
+    </row>
+    <row r="22" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -1417,8 +1443,9 @@
       <c r="Y22" s="11"/>
       <c r="Z22" s="11"/>
       <c r="AA22" s="11"/>
-    </row>
-    <row r="23" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB22" s="11"/>
+    </row>
+    <row r="23" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1446,8 +1473,9 @@
       <c r="Y23" s="11"/>
       <c r="Z23" s="11"/>
       <c r="AA23" s="11"/>
-    </row>
-    <row r="24" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB23" s="11"/>
+    </row>
+    <row r="24" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1475,8 +1503,9 @@
       <c r="Y24" s="11"/>
       <c r="Z24" s="11"/>
       <c r="AA24" s="11"/>
-    </row>
-    <row r="25" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB24" s="11"/>
+    </row>
+    <row r="25" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1504,8 +1533,9 @@
       <c r="Y25" s="11"/>
       <c r="Z25" s="11"/>
       <c r="AA25" s="11"/>
-    </row>
-    <row r="26" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB25" s="11"/>
+    </row>
+    <row r="26" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1533,8 +1563,9 @@
       <c r="Y26" s="11"/>
       <c r="Z26" s="11"/>
       <c r="AA26" s="11"/>
-    </row>
-    <row r="27" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB26" s="11"/>
+    </row>
+    <row r="27" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -1562,8 +1593,9 @@
       <c r="Y27" s="11"/>
       <c r="Z27" s="11"/>
       <c r="AA27" s="11"/>
-    </row>
-    <row r="28" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB27" s="11"/>
+    </row>
+    <row r="28" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -1591,8 +1623,9 @@
       <c r="Y28" s="11"/>
       <c r="Z28" s="11"/>
       <c r="AA28" s="11"/>
-    </row>
-    <row r="29" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB28" s="11"/>
+    </row>
+    <row r="29" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -1620,8 +1653,9 @@
       <c r="Y29" s="11"/>
       <c r="Z29" s="11"/>
       <c r="AA29" s="11"/>
-    </row>
-    <row r="30" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB29" s="11"/>
+    </row>
+    <row r="30" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1649,8 +1683,9 @@
       <c r="Y30" s="11"/>
       <c r="Z30" s="11"/>
       <c r="AA30" s="11"/>
-    </row>
-    <row r="31" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB30" s="11"/>
+    </row>
+    <row r="31" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -1678,8 +1713,9 @@
       <c r="Y31" s="11"/>
       <c r="Z31" s="11"/>
       <c r="AA31" s="11"/>
-    </row>
-    <row r="32" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB31" s="11"/>
+    </row>
+    <row r="32" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1707,8 +1743,9 @@
       <c r="Y32" s="11"/>
       <c r="Z32" s="11"/>
       <c r="AA32" s="11"/>
-    </row>
-    <row r="33" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB32" s="11"/>
+    </row>
+    <row r="33" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -1736,8 +1773,9 @@
       <c r="Y33" s="11"/>
       <c r="Z33" s="11"/>
       <c r="AA33" s="11"/>
-    </row>
-    <row r="34" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB33" s="11"/>
+    </row>
+    <row r="34" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -1765,8 +1803,9 @@
       <c r="Y34" s="11"/>
       <c r="Z34" s="11"/>
       <c r="AA34" s="11"/>
-    </row>
-    <row r="35" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB34" s="11"/>
+    </row>
+    <row r="35" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1794,8 +1833,9 @@
       <c r="Y35" s="11"/>
       <c r="Z35" s="11"/>
       <c r="AA35" s="11"/>
-    </row>
-    <row r="36" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB35" s="11"/>
+    </row>
+    <row r="36" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -1823,8 +1863,9 @@
       <c r="Y36" s="11"/>
       <c r="Z36" s="11"/>
       <c r="AA36" s="11"/>
-    </row>
-    <row r="37" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB36" s="11"/>
+    </row>
+    <row r="37" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -1852,8 +1893,9 @@
       <c r="Y37" s="11"/>
       <c r="Z37" s="11"/>
       <c r="AA37" s="11"/>
-    </row>
-    <row r="38" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB37" s="11"/>
+    </row>
+    <row r="38" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -1881,8 +1923,9 @@
       <c r="Y38" s="11"/>
       <c r="Z38" s="11"/>
       <c r="AA38" s="11"/>
-    </row>
-    <row r="39" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB38" s="11"/>
+    </row>
+    <row r="39" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -1910,8 +1953,9 @@
       <c r="Y39" s="11"/>
       <c r="Z39" s="11"/>
       <c r="AA39" s="11"/>
-    </row>
-    <row r="40" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB39" s="11"/>
+    </row>
+    <row r="40" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -1939,8 +1983,9 @@
       <c r="Y40" s="11"/>
       <c r="Z40" s="11"/>
       <c r="AA40" s="11"/>
-    </row>
-    <row r="41" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB40" s="11"/>
+    </row>
+    <row r="41" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -1968,8 +2013,9 @@
       <c r="Y41" s="11"/>
       <c r="Z41" s="11"/>
       <c r="AA41" s="11"/>
-    </row>
-    <row r="42" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB41" s="11"/>
+    </row>
+    <row r="42" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -1997,8 +2043,9 @@
       <c r="Y42" s="11"/>
       <c r="Z42" s="11"/>
       <c r="AA42" s="11"/>
-    </row>
-    <row r="43" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB42" s="11"/>
+    </row>
+    <row r="43" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -2026,8 +2073,9 @@
       <c r="Y43" s="11"/>
       <c r="Z43" s="11"/>
       <c r="AA43" s="11"/>
-    </row>
-    <row r="44" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB43" s="11"/>
+    </row>
+    <row r="44" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -2055,8 +2103,9 @@
       <c r="Y44" s="11"/>
       <c r="Z44" s="11"/>
       <c r="AA44" s="11"/>
-    </row>
-    <row r="45" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB44" s="11"/>
+    </row>
+    <row r="45" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -2084,8 +2133,9 @@
       <c r="Y45" s="11"/>
       <c r="Z45" s="11"/>
       <c r="AA45" s="11"/>
-    </row>
-    <row r="46" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB45" s="11"/>
+    </row>
+    <row r="46" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -2113,8 +2163,9 @@
       <c r="Y46" s="11"/>
       <c r="Z46" s="11"/>
       <c r="AA46" s="11"/>
-    </row>
-    <row r="47" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB46" s="11"/>
+    </row>
+    <row r="47" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -2142,8 +2193,9 @@
       <c r="Y47" s="11"/>
       <c r="Z47" s="11"/>
       <c r="AA47" s="11"/>
-    </row>
-    <row r="48" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB47" s="11"/>
+    </row>
+    <row r="48" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -2171,8 +2223,9 @@
       <c r="Y48" s="11"/>
       <c r="Z48" s="11"/>
       <c r="AA48" s="11"/>
-    </row>
-    <row r="49" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB48" s="11"/>
+    </row>
+    <row r="49" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -2200,8 +2253,9 @@
       <c r="Y49" s="11"/>
       <c r="Z49" s="11"/>
       <c r="AA49" s="11"/>
-    </row>
-    <row r="50" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB49" s="11"/>
+    </row>
+    <row r="50" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -2229,8 +2283,9 @@
       <c r="Y50" s="11"/>
       <c r="Z50" s="11"/>
       <c r="AA50" s="11"/>
-    </row>
-    <row r="51" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB50" s="11"/>
+    </row>
+    <row r="51" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -2258,8 +2313,9 @@
       <c r="Y51" s="11"/>
       <c r="Z51" s="11"/>
       <c r="AA51" s="11"/>
-    </row>
-    <row r="52" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB51" s="11"/>
+    </row>
+    <row r="52" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -2287,8 +2343,9 @@
       <c r="Y52" s="11"/>
       <c r="Z52" s="11"/>
       <c r="AA52" s="11"/>
-    </row>
-    <row r="53" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB52" s="11"/>
+    </row>
+    <row r="53" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -2316,8 +2373,9 @@
       <c r="Y53" s="11"/>
       <c r="Z53" s="11"/>
       <c r="AA53" s="11"/>
-    </row>
-    <row r="54" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB53" s="11"/>
+    </row>
+    <row r="54" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -2345,8 +2403,9 @@
       <c r="Y54" s="11"/>
       <c r="Z54" s="11"/>
       <c r="AA54" s="11"/>
-    </row>
-    <row r="55" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB54" s="11"/>
+    </row>
+    <row r="55" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -2374,8 +2433,9 @@
       <c r="Y55" s="11"/>
       <c r="Z55" s="11"/>
       <c r="AA55" s="11"/>
-    </row>
-    <row r="56" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB55" s="11"/>
+    </row>
+    <row r="56" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -2403,8 +2463,9 @@
       <c r="Y56" s="11"/>
       <c r="Z56" s="11"/>
       <c r="AA56" s="11"/>
-    </row>
-    <row r="57" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB56" s="11"/>
+    </row>
+    <row r="57" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -2432,8 +2493,9 @@
       <c r="Y57" s="11"/>
       <c r="Z57" s="11"/>
       <c r="AA57" s="11"/>
-    </row>
-    <row r="58" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB57" s="11"/>
+    </row>
+    <row r="58" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -2461,8 +2523,9 @@
       <c r="Y58" s="11"/>
       <c r="Z58" s="11"/>
       <c r="AA58" s="11"/>
-    </row>
-    <row r="59" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB58" s="11"/>
+    </row>
+    <row r="59" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -2490,8 +2553,9 @@
       <c r="Y59" s="11"/>
       <c r="Z59" s="11"/>
       <c r="AA59" s="11"/>
-    </row>
-    <row r="60" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB59" s="11"/>
+    </row>
+    <row r="60" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -2519,8 +2583,9 @@
       <c r="Y60" s="11"/>
       <c r="Z60" s="11"/>
       <c r="AA60" s="11"/>
-    </row>
-    <row r="61" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB60" s="11"/>
+    </row>
+    <row r="61" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -2548,8 +2613,9 @@
       <c r="Y61" s="11"/>
       <c r="Z61" s="11"/>
       <c r="AA61" s="11"/>
-    </row>
-    <row r="62" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB61" s="11"/>
+    </row>
+    <row r="62" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -2577,8 +2643,9 @@
       <c r="Y62" s="11"/>
       <c r="Z62" s="11"/>
       <c r="AA62" s="11"/>
-    </row>
-    <row r="63" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB62" s="11"/>
+    </row>
+    <row r="63" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -2606,8 +2673,9 @@
       <c r="Y63" s="11"/>
       <c r="Z63" s="11"/>
       <c r="AA63" s="11"/>
-    </row>
-    <row r="64" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB63" s="11"/>
+    </row>
+    <row r="64" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -2635,8 +2703,9 @@
       <c r="Y64" s="11"/>
       <c r="Z64" s="11"/>
       <c r="AA64" s="11"/>
-    </row>
-    <row r="65" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB64" s="11"/>
+    </row>
+    <row r="65" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -2664,8 +2733,9 @@
       <c r="Y65" s="11"/>
       <c r="Z65" s="11"/>
       <c r="AA65" s="11"/>
-    </row>
-    <row r="66" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB65" s="11"/>
+    </row>
+    <row r="66" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -2693,8 +2763,9 @@
       <c r="Y66" s="11"/>
       <c r="Z66" s="11"/>
       <c r="AA66" s="11"/>
-    </row>
-    <row r="67" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB66" s="11"/>
+    </row>
+    <row r="67" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -2722,8 +2793,9 @@
       <c r="Y67" s="11"/>
       <c r="Z67" s="11"/>
       <c r="AA67" s="11"/>
-    </row>
-    <row r="68" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB67" s="11"/>
+    </row>
+    <row r="68" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -2751,8 +2823,9 @@
       <c r="Y68" s="11"/>
       <c r="Z68" s="11"/>
       <c r="AA68" s="11"/>
-    </row>
-    <row r="69" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB68" s="11"/>
+    </row>
+    <row r="69" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -2780,8 +2853,9 @@
       <c r="Y69" s="11"/>
       <c r="Z69" s="11"/>
       <c r="AA69" s="11"/>
-    </row>
-    <row r="70" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB69" s="11"/>
+    </row>
+    <row r="70" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -2809,8 +2883,9 @@
       <c r="Y70" s="11"/>
       <c r="Z70" s="11"/>
       <c r="AA70" s="11"/>
-    </row>
-    <row r="71" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB70" s="11"/>
+    </row>
+    <row r="71" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -2838,8 +2913,9 @@
       <c r="Y71" s="11"/>
       <c r="Z71" s="11"/>
       <c r="AA71" s="11"/>
-    </row>
-    <row r="72" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB71" s="11"/>
+    </row>
+    <row r="72" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -2867,8 +2943,9 @@
       <c r="Y72" s="11"/>
       <c r="Z72" s="11"/>
       <c r="AA72" s="11"/>
-    </row>
-    <row r="73" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB72" s="11"/>
+    </row>
+    <row r="73" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -2896,8 +2973,9 @@
       <c r="Y73" s="11"/>
       <c r="Z73" s="11"/>
       <c r="AA73" s="11"/>
-    </row>
-    <row r="74" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB73" s="11"/>
+    </row>
+    <row r="74" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -2925,8 +3003,9 @@
       <c r="Y74" s="11"/>
       <c r="Z74" s="11"/>
       <c r="AA74" s="11"/>
-    </row>
-    <row r="75" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB74" s="11"/>
+    </row>
+    <row r="75" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -2954,8 +3033,9 @@
       <c r="Y75" s="11"/>
       <c r="Z75" s="11"/>
       <c r="AA75" s="11"/>
-    </row>
-    <row r="76" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB75" s="11"/>
+    </row>
+    <row r="76" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -2983,8 +3063,9 @@
       <c r="Y76" s="11"/>
       <c r="Z76" s="11"/>
       <c r="AA76" s="11"/>
-    </row>
-    <row r="77" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB76" s="11"/>
+    </row>
+    <row r="77" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -3012,8 +3093,9 @@
       <c r="Y77" s="11"/>
       <c r="Z77" s="11"/>
       <c r="AA77" s="11"/>
-    </row>
-    <row r="78" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB77" s="11"/>
+    </row>
+    <row r="78" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -3041,8 +3123,9 @@
       <c r="Y78" s="11"/>
       <c r="Z78" s="11"/>
       <c r="AA78" s="11"/>
-    </row>
-    <row r="79" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB78" s="11"/>
+    </row>
+    <row r="79" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -3070,8 +3153,9 @@
       <c r="Y79" s="11"/>
       <c r="Z79" s="11"/>
       <c r="AA79" s="11"/>
-    </row>
-    <row r="80" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB79" s="11"/>
+    </row>
+    <row r="80" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -3099,8 +3183,9 @@
       <c r="Y80" s="11"/>
       <c r="Z80" s="11"/>
       <c r="AA80" s="11"/>
-    </row>
-    <row r="81" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB80" s="11"/>
+    </row>
+    <row r="81" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -3128,8 +3213,9 @@
       <c r="Y81" s="11"/>
       <c r="Z81" s="11"/>
       <c r="AA81" s="11"/>
-    </row>
-    <row r="82" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB81" s="11"/>
+    </row>
+    <row r="82" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -3157,8 +3243,9 @@
       <c r="Y82" s="11"/>
       <c r="Z82" s="11"/>
       <c r="AA82" s="11"/>
-    </row>
-    <row r="83" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB82" s="11"/>
+    </row>
+    <row r="83" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -3186,8 +3273,9 @@
       <c r="Y83" s="11"/>
       <c r="Z83" s="11"/>
       <c r="AA83" s="11"/>
-    </row>
-    <row r="84" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB83" s="11"/>
+    </row>
+    <row r="84" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -3215,8 +3303,9 @@
       <c r="Y84" s="11"/>
       <c r="Z84" s="11"/>
       <c r="AA84" s="11"/>
-    </row>
-    <row r="85" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB84" s="11"/>
+    </row>
+    <row r="85" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -3244,8 +3333,9 @@
       <c r="Y85" s="11"/>
       <c r="Z85" s="11"/>
       <c r="AA85" s="11"/>
-    </row>
-    <row r="86" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB85" s="11"/>
+    </row>
+    <row r="86" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -3273,8 +3363,9 @@
       <c r="Y86" s="11"/>
       <c r="Z86" s="11"/>
       <c r="AA86" s="11"/>
-    </row>
-    <row r="87" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB86" s="11"/>
+    </row>
+    <row r="87" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -3302,8 +3393,9 @@
       <c r="Y87" s="11"/>
       <c r="Z87" s="11"/>
       <c r="AA87" s="11"/>
-    </row>
-    <row r="88" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB87" s="11"/>
+    </row>
+    <row r="88" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -3331,8 +3423,9 @@
       <c r="Y88" s="11"/>
       <c r="Z88" s="11"/>
       <c r="AA88" s="11"/>
-    </row>
-    <row r="89" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB88" s="11"/>
+    </row>
+    <row r="89" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -3360,8 +3453,9 @@
       <c r="Y89" s="11"/>
       <c r="Z89" s="11"/>
       <c r="AA89" s="11"/>
-    </row>
-    <row r="90" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB89" s="11"/>
+    </row>
+    <row r="90" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -3389,8 +3483,9 @@
       <c r="Y90" s="11"/>
       <c r="Z90" s="11"/>
       <c r="AA90" s="11"/>
-    </row>
-    <row r="91" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB90" s="11"/>
+    </row>
+    <row r="91" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -3418,8 +3513,9 @@
       <c r="Y91" s="11"/>
       <c r="Z91" s="11"/>
       <c r="AA91" s="11"/>
-    </row>
-    <row r="92" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB91" s="11"/>
+    </row>
+    <row r="92" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -3447,8 +3543,9 @@
       <c r="Y92" s="11"/>
       <c r="Z92" s="11"/>
       <c r="AA92" s="11"/>
-    </row>
-    <row r="93" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB92" s="11"/>
+    </row>
+    <row r="93" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -3476,8 +3573,9 @@
       <c r="Y93" s="11"/>
       <c r="Z93" s="11"/>
       <c r="AA93" s="11"/>
-    </row>
-    <row r="94" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB93" s="11"/>
+    </row>
+    <row r="94" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -3505,8 +3603,9 @@
       <c r="Y94" s="11"/>
       <c r="Z94" s="11"/>
       <c r="AA94" s="11"/>
-    </row>
-    <row r="95" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB94" s="11"/>
+    </row>
+    <row r="95" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
@@ -3534,8 +3633,9 @@
       <c r="Y95" s="11"/>
       <c r="Z95" s="11"/>
       <c r="AA95" s="11"/>
-    </row>
-    <row r="96" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB95" s="11"/>
+    </row>
+    <row r="96" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A96" s="7"/>
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
@@ -3563,8 +3663,9 @@
       <c r="Y96" s="11"/>
       <c r="Z96" s="11"/>
       <c r="AA96" s="11"/>
-    </row>
-    <row r="97" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB96" s="11"/>
+    </row>
+    <row r="97" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A97" s="7"/>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
@@ -3592,8 +3693,9 @@
       <c r="Y97" s="11"/>
       <c r="Z97" s="11"/>
       <c r="AA97" s="11"/>
-    </row>
-    <row r="98" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB97" s="11"/>
+    </row>
+    <row r="98" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A98" s="7"/>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
@@ -3621,8 +3723,9 @@
       <c r="Y98" s="11"/>
       <c r="Z98" s="11"/>
       <c r="AA98" s="11"/>
-    </row>
-    <row r="99" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB98" s="11"/>
+    </row>
+    <row r="99" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A99" s="7"/>
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
@@ -3650,8 +3753,9 @@
       <c r="Y99" s="11"/>
       <c r="Z99" s="11"/>
       <c r="AA99" s="11"/>
-    </row>
-    <row r="100" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB99" s="11"/>
+    </row>
+    <row r="100" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A100" s="7"/>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
@@ -3679,8 +3783,9 @@
       <c r="Y100" s="11"/>
       <c r="Z100" s="11"/>
       <c r="AA100" s="11"/>
-    </row>
-    <row r="101" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB100" s="11"/>
+    </row>
+    <row r="101" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A101" s="7"/>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
@@ -3708,8 +3813,9 @@
       <c r="Y101" s="11"/>
       <c r="Z101" s="11"/>
       <c r="AA101" s="11"/>
-    </row>
-    <row r="102" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB101" s="11"/>
+    </row>
+    <row r="102" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
@@ -3737,8 +3843,9 @@
       <c r="Y102" s="11"/>
       <c r="Z102" s="11"/>
       <c r="AA102" s="11"/>
-    </row>
-    <row r="103" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB102" s="11"/>
+    </row>
+    <row r="103" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
@@ -3766,8 +3873,9 @@
       <c r="Y103" s="11"/>
       <c r="Z103" s="11"/>
       <c r="AA103" s="11"/>
-    </row>
-    <row r="104" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB103" s="11"/>
+    </row>
+    <row r="104" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A104" s="7"/>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
@@ -3795,8 +3903,9 @@
       <c r="Y104" s="11"/>
       <c r="Z104" s="11"/>
       <c r="AA104" s="11"/>
-    </row>
-    <row r="105" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB104" s="11"/>
+    </row>
+    <row r="105" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A105" s="7"/>
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
@@ -3824,8 +3933,9 @@
       <c r="Y105" s="11"/>
       <c r="Z105" s="11"/>
       <c r="AA105" s="11"/>
-    </row>
-    <row r="106" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB105" s="11"/>
+    </row>
+    <row r="106" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A106" s="7"/>
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
@@ -3853,8 +3963,9 @@
       <c r="Y106" s="11"/>
       <c r="Z106" s="11"/>
       <c r="AA106" s="11"/>
-    </row>
-    <row r="107" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB106" s="11"/>
+    </row>
+    <row r="107" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A107" s="7"/>
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
@@ -3882,8 +3993,9 @@
       <c r="Y107" s="11"/>
       <c r="Z107" s="11"/>
       <c r="AA107" s="11"/>
-    </row>
-    <row r="108" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB107" s="11"/>
+    </row>
+    <row r="108" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A108" s="7"/>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
@@ -3911,8 +4023,9 @@
       <c r="Y108" s="11"/>
       <c r="Z108" s="11"/>
       <c r="AA108" s="11"/>
-    </row>
-    <row r="109" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB108" s="11"/>
+    </row>
+    <row r="109" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A109" s="7"/>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
@@ -3940,8 +4053,9 @@
       <c r="Y109" s="11"/>
       <c r="Z109" s="11"/>
       <c r="AA109" s="11"/>
-    </row>
-    <row r="110" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB109" s="11"/>
+    </row>
+    <row r="110" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A110" s="7"/>
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
@@ -3969,8 +4083,9 @@
       <c r="Y110" s="11"/>
       <c r="Z110" s="11"/>
       <c r="AA110" s="11"/>
-    </row>
-    <row r="111" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB110" s="11"/>
+    </row>
+    <row r="111" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A111" s="7"/>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
@@ -3998,8 +4113,9 @@
       <c r="Y111" s="11"/>
       <c r="Z111" s="11"/>
       <c r="AA111" s="11"/>
-    </row>
-    <row r="112" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB111" s="11"/>
+    </row>
+    <row r="112" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A112" s="7"/>
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
@@ -4027,8 +4143,9 @@
       <c r="Y112" s="11"/>
       <c r="Z112" s="11"/>
       <c r="AA112" s="11"/>
-    </row>
-    <row r="113" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB112" s="11"/>
+    </row>
+    <row r="113" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A113" s="7"/>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
@@ -4056,8 +4173,9 @@
       <c r="Y113" s="11"/>
       <c r="Z113" s="11"/>
       <c r="AA113" s="11"/>
-    </row>
-    <row r="114" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB113" s="11"/>
+    </row>
+    <row r="114" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A114" s="7"/>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
@@ -4085,8 +4203,9 @@
       <c r="Y114" s="11"/>
       <c r="Z114" s="11"/>
       <c r="AA114" s="11"/>
-    </row>
-    <row r="115" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB114" s="11"/>
+    </row>
+    <row r="115" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A115" s="7"/>
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
@@ -4114,8 +4233,9 @@
       <c r="Y115" s="11"/>
       <c r="Z115" s="11"/>
       <c r="AA115" s="11"/>
-    </row>
-    <row r="116" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB115" s="11"/>
+    </row>
+    <row r="116" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A116" s="7"/>
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
@@ -4143,8 +4263,9 @@
       <c r="Y116" s="11"/>
       <c r="Z116" s="11"/>
       <c r="AA116" s="11"/>
-    </row>
-    <row r="117" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB116" s="11"/>
+    </row>
+    <row r="117" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A117" s="7"/>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
@@ -4172,8 +4293,9 @@
       <c r="Y117" s="11"/>
       <c r="Z117" s="11"/>
       <c r="AA117" s="11"/>
-    </row>
-    <row r="118" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB117" s="11"/>
+    </row>
+    <row r="118" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A118" s="7"/>
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
@@ -4201,8 +4323,9 @@
       <c r="Y118" s="11"/>
       <c r="Z118" s="11"/>
       <c r="AA118" s="11"/>
-    </row>
-    <row r="119" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB118" s="11"/>
+    </row>
+    <row r="119" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A119" s="7"/>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
@@ -4230,8 +4353,9 @@
       <c r="Y119" s="11"/>
       <c r="Z119" s="11"/>
       <c r="AA119" s="11"/>
-    </row>
-    <row r="120" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB119" s="11"/>
+    </row>
+    <row r="120" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A120" s="7"/>
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
@@ -4259,8 +4383,9 @@
       <c r="Y120" s="11"/>
       <c r="Z120" s="11"/>
       <c r="AA120" s="11"/>
-    </row>
-    <row r="121" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB120" s="11"/>
+    </row>
+    <row r="121" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A121" s="7"/>
       <c r="B121" s="7"/>
       <c r="C121" s="7"/>
@@ -4288,8 +4413,9 @@
       <c r="Y121" s="11"/>
       <c r="Z121" s="11"/>
       <c r="AA121" s="11"/>
-    </row>
-    <row r="122" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB121" s="11"/>
+    </row>
+    <row r="122" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A122" s="7"/>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
@@ -4317,8 +4443,9 @@
       <c r="Y122" s="11"/>
       <c r="Z122" s="11"/>
       <c r="AA122" s="11"/>
-    </row>
-    <row r="123" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB122" s="11"/>
+    </row>
+    <row r="123" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A123" s="7"/>
       <c r="B123" s="7"/>
       <c r="C123" s="7"/>
@@ -4346,8 +4473,9 @@
       <c r="Y123" s="11"/>
       <c r="Z123" s="11"/>
       <c r="AA123" s="11"/>
-    </row>
-    <row r="124" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB123" s="11"/>
+    </row>
+    <row r="124" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A124" s="7"/>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
@@ -4375,8 +4503,9 @@
       <c r="Y124" s="11"/>
       <c r="Z124" s="11"/>
       <c r="AA124" s="11"/>
-    </row>
-    <row r="125" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB124" s="11"/>
+    </row>
+    <row r="125" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A125" s="7"/>
       <c r="B125" s="7"/>
       <c r="C125" s="7"/>
@@ -4404,8 +4533,9 @@
       <c r="Y125" s="11"/>
       <c r="Z125" s="11"/>
       <c r="AA125" s="11"/>
-    </row>
-    <row r="126" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB125" s="11"/>
+    </row>
+    <row r="126" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A126" s="7"/>
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
@@ -4433,8 +4563,9 @@
       <c r="Y126" s="11"/>
       <c r="Z126" s="11"/>
       <c r="AA126" s="11"/>
-    </row>
-    <row r="127" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB126" s="11"/>
+    </row>
+    <row r="127" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A127" s="7"/>
       <c r="B127" s="7"/>
       <c r="C127" s="7"/>
@@ -4462,8 +4593,9 @@
       <c r="Y127" s="11"/>
       <c r="Z127" s="11"/>
       <c r="AA127" s="11"/>
-    </row>
-    <row r="128" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB127" s="11"/>
+    </row>
+    <row r="128" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A128" s="7"/>
       <c r="B128" s="7"/>
       <c r="C128" s="7"/>
@@ -4491,8 +4623,9 @@
       <c r="Y128" s="11"/>
       <c r="Z128" s="11"/>
       <c r="AA128" s="11"/>
-    </row>
-    <row r="129" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB128" s="11"/>
+    </row>
+    <row r="129" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A129" s="7"/>
       <c r="B129" s="7"/>
       <c r="C129" s="7"/>
@@ -4520,8 +4653,9 @@
       <c r="Y129" s="11"/>
       <c r="Z129" s="11"/>
       <c r="AA129" s="11"/>
-    </row>
-    <row r="130" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB129" s="11"/>
+    </row>
+    <row r="130" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A130" s="7"/>
       <c r="B130" s="7"/>
       <c r="C130" s="7"/>
@@ -4549,8 +4683,9 @@
       <c r="Y130" s="11"/>
       <c r="Z130" s="11"/>
       <c r="AA130" s="11"/>
-    </row>
-    <row r="131" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB130" s="11"/>
+    </row>
+    <row r="131" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A131" s="7"/>
       <c r="B131" s="7"/>
       <c r="C131" s="7"/>
@@ -4578,8 +4713,9 @@
       <c r="Y131" s="11"/>
       <c r="Z131" s="11"/>
       <c r="AA131" s="11"/>
-    </row>
-    <row r="132" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB131" s="11"/>
+    </row>
+    <row r="132" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A132" s="7"/>
       <c r="B132" s="7"/>
       <c r="C132" s="7"/>
@@ -4607,8 +4743,9 @@
       <c r="Y132" s="11"/>
       <c r="Z132" s="11"/>
       <c r="AA132" s="11"/>
-    </row>
-    <row r="133" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB132" s="11"/>
+    </row>
+    <row r="133" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A133" s="7"/>
       <c r="B133" s="7"/>
       <c r="C133" s="7"/>
@@ -4636,8 +4773,9 @@
       <c r="Y133" s="11"/>
       <c r="Z133" s="11"/>
       <c r="AA133" s="11"/>
-    </row>
-    <row r="134" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB133" s="11"/>
+    </row>
+    <row r="134" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A134" s="7"/>
       <c r="B134" s="7"/>
       <c r="C134" s="7"/>
@@ -4665,8 +4803,9 @@
       <c r="Y134" s="11"/>
       <c r="Z134" s="11"/>
       <c r="AA134" s="11"/>
-    </row>
-    <row r="135" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB134" s="11"/>
+    </row>
+    <row r="135" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A135" s="7"/>
       <c r="B135" s="7"/>
       <c r="C135" s="7"/>
@@ -4694,8 +4833,9 @@
       <c r="Y135" s="11"/>
       <c r="Z135" s="11"/>
       <c r="AA135" s="11"/>
-    </row>
-    <row r="136" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB135" s="11"/>
+    </row>
+    <row r="136" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A136" s="7"/>
       <c r="B136" s="7"/>
       <c r="C136" s="7"/>
@@ -4723,8 +4863,9 @@
       <c r="Y136" s="11"/>
       <c r="Z136" s="11"/>
       <c r="AA136" s="11"/>
-    </row>
-    <row r="137" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB136" s="11"/>
+    </row>
+    <row r="137" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A137" s="7"/>
       <c r="B137" s="7"/>
       <c r="C137" s="7"/>
@@ -4752,8 +4893,9 @@
       <c r="Y137" s="11"/>
       <c r="Z137" s="11"/>
       <c r="AA137" s="11"/>
-    </row>
-    <row r="138" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB137" s="11"/>
+    </row>
+    <row r="138" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A138" s="7"/>
       <c r="B138" s="7"/>
       <c r="C138" s="7"/>
@@ -4781,8 +4923,9 @@
       <c r="Y138" s="11"/>
       <c r="Z138" s="11"/>
       <c r="AA138" s="11"/>
-    </row>
-    <row r="139" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB138" s="11"/>
+    </row>
+    <row r="139" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A139" s="7"/>
       <c r="B139" s="7"/>
       <c r="C139" s="7"/>
@@ -4810,8 +4953,9 @@
       <c r="Y139" s="11"/>
       <c r="Z139" s="11"/>
       <c r="AA139" s="11"/>
-    </row>
-    <row r="140" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB139" s="11"/>
+    </row>
+    <row r="140" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A140" s="7"/>
       <c r="B140" s="7"/>
       <c r="C140" s="7"/>
@@ -4839,8 +4983,9 @@
       <c r="Y140" s="11"/>
       <c r="Z140" s="11"/>
       <c r="AA140" s="11"/>
-    </row>
-    <row r="141" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB140" s="11"/>
+    </row>
+    <row r="141" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A141" s="7"/>
       <c r="B141" s="7"/>
       <c r="C141" s="7"/>
@@ -4868,8 +5013,9 @@
       <c r="Y141" s="11"/>
       <c r="Z141" s="11"/>
       <c r="AA141" s="11"/>
-    </row>
-    <row r="142" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB141" s="11"/>
+    </row>
+    <row r="142" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A142" s="7"/>
       <c r="B142" s="7"/>
       <c r="C142" s="7"/>
@@ -4897,8 +5043,9 @@
       <c r="Y142" s="11"/>
       <c r="Z142" s="11"/>
       <c r="AA142" s="11"/>
-    </row>
-    <row r="143" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB142" s="11"/>
+    </row>
+    <row r="143" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A143" s="7"/>
       <c r="B143" s="7"/>
       <c r="C143" s="7"/>
@@ -4926,8 +5073,9 @@
       <c r="Y143" s="11"/>
       <c r="Z143" s="11"/>
       <c r="AA143" s="11"/>
-    </row>
-    <row r="144" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB143" s="11"/>
+    </row>
+    <row r="144" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A144" s="7"/>
       <c r="B144" s="7"/>
       <c r="C144" s="7"/>
@@ -4955,8 +5103,9 @@
       <c r="Y144" s="11"/>
       <c r="Z144" s="11"/>
       <c r="AA144" s="11"/>
-    </row>
-    <row r="145" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB144" s="11"/>
+    </row>
+    <row r="145" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A145" s="7"/>
       <c r="B145" s="7"/>
       <c r="C145" s="7"/>
@@ -4984,8 +5133,9 @@
       <c r="Y145" s="11"/>
       <c r="Z145" s="11"/>
       <c r="AA145" s="11"/>
-    </row>
-    <row r="146" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB145" s="11"/>
+    </row>
+    <row r="146" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A146" s="7"/>
       <c r="B146" s="7"/>
       <c r="C146" s="7"/>
@@ -5013,8 +5163,9 @@
       <c r="Y146" s="11"/>
       <c r="Z146" s="11"/>
       <c r="AA146" s="11"/>
-    </row>
-    <row r="147" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB146" s="11"/>
+    </row>
+    <row r="147" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A147" s="7"/>
       <c r="B147" s="7"/>
       <c r="C147" s="7"/>
@@ -5042,8 +5193,9 @@
       <c r="Y147" s="11"/>
       <c r="Z147" s="11"/>
       <c r="AA147" s="11"/>
-    </row>
-    <row r="148" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB147" s="11"/>
+    </row>
+    <row r="148" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A148" s="7"/>
       <c r="B148" s="7"/>
       <c r="C148" s="7"/>
@@ -5071,8 +5223,9 @@
       <c r="Y148" s="11"/>
       <c r="Z148" s="11"/>
       <c r="AA148" s="11"/>
-    </row>
-    <row r="149" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB148" s="11"/>
+    </row>
+    <row r="149" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A149" s="7"/>
       <c r="B149" s="7"/>
       <c r="C149" s="7"/>
@@ -5100,8 +5253,9 @@
       <c r="Y149" s="11"/>
       <c r="Z149" s="11"/>
       <c r="AA149" s="11"/>
-    </row>
-    <row r="150" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB149" s="11"/>
+    </row>
+    <row r="150" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A150" s="7"/>
       <c r="B150" s="7"/>
       <c r="C150" s="7"/>
@@ -5129,8 +5283,9 @@
       <c r="Y150" s="11"/>
       <c r="Z150" s="11"/>
       <c r="AA150" s="11"/>
-    </row>
-    <row r="151" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB150" s="11"/>
+    </row>
+    <row r="151" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A151" s="7"/>
       <c r="B151" s="7"/>
       <c r="C151" s="7"/>
@@ -5158,8 +5313,9 @@
       <c r="Y151" s="11"/>
       <c r="Z151" s="11"/>
       <c r="AA151" s="11"/>
-    </row>
-    <row r="152" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB151" s="11"/>
+    </row>
+    <row r="152" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A152" s="7"/>
       <c r="B152" s="7"/>
       <c r="C152" s="7"/>
@@ -5187,8 +5343,9 @@
       <c r="Y152" s="16"/>
       <c r="Z152" s="16"/>
       <c r="AA152" s="16"/>
-    </row>
-    <row r="153" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB152" s="16"/>
+    </row>
+    <row r="153" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A153" s="7"/>
       <c r="B153" s="7"/>
       <c r="C153" s="7"/>
@@ -5216,8 +5373,9 @@
       <c r="Y153" s="16"/>
       <c r="Z153" s="16"/>
       <c r="AA153" s="16"/>
-    </row>
-    <row r="154" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB153" s="16"/>
+    </row>
+    <row r="154" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A154" s="7"/>
       <c r="B154" s="7"/>
       <c r="C154" s="7"/>
@@ -5245,8 +5403,9 @@
       <c r="Y154" s="16"/>
       <c r="Z154" s="16"/>
       <c r="AA154" s="16"/>
-    </row>
-    <row r="155" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB154" s="16"/>
+    </row>
+    <row r="155" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A155" s="7"/>
       <c r="B155" s="7"/>
       <c r="C155" s="7"/>
@@ -5274,8 +5433,9 @@
       <c r="Y155" s="16"/>
       <c r="Z155" s="16"/>
       <c r="AA155" s="16"/>
-    </row>
-    <row r="156" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB155" s="16"/>
+    </row>
+    <row r="156" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A156" s="7"/>
       <c r="B156" s="7"/>
       <c r="C156" s="7"/>
@@ -5303,8 +5463,9 @@
       <c r="Y156" s="16"/>
       <c r="Z156" s="16"/>
       <c r="AA156" s="16"/>
-    </row>
-    <row r="157" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB156" s="16"/>
+    </row>
+    <row r="157" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A157" s="17"/>
       <c r="B157" s="17"/>
       <c r="C157" s="17"/>
@@ -5332,8 +5493,9 @@
       <c r="Y157" s="18"/>
       <c r="Z157" s="18"/>
       <c r="AA157" s="18"/>
-    </row>
-    <row r="158" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB157" s="18"/>
+    </row>
+    <row r="158" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A158" s="17"/>
       <c r="B158" s="17"/>
       <c r="C158" s="17"/>
@@ -5361,8 +5523,9 @@
       <c r="Y158" s="18"/>
       <c r="Z158" s="18"/>
       <c r="AA158" s="18"/>
-    </row>
-    <row r="159" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB158" s="18"/>
+    </row>
+    <row r="159" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A159" s="17"/>
       <c r="B159" s="17"/>
       <c r="C159" s="17"/>
@@ -5390,8 +5553,9 @@
       <c r="Y159" s="18"/>
       <c r="Z159" s="18"/>
       <c r="AA159" s="18"/>
-    </row>
-    <row r="160" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB159" s="18"/>
+    </row>
+    <row r="160" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A160" s="17"/>
       <c r="B160" s="17"/>
       <c r="C160" s="17"/>
@@ -5419,8 +5583,9 @@
       <c r="Y160" s="18"/>
       <c r="Z160" s="18"/>
       <c r="AA160" s="18"/>
-    </row>
-    <row r="161" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB160" s="18"/>
+    </row>
+    <row r="161" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A161" s="17"/>
       <c r="B161" s="17"/>
       <c r="C161" s="17"/>
@@ -5448,8 +5613,9 @@
       <c r="Y161" s="18"/>
       <c r="Z161" s="18"/>
       <c r="AA161" s="18"/>
-    </row>
-    <row r="162" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB161" s="18"/>
+    </row>
+    <row r="162" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A162" s="17"/>
       <c r="B162" s="17"/>
       <c r="C162" s="17"/>
@@ -5477,8 +5643,9 @@
       <c r="Y162" s="18"/>
       <c r="Z162" s="18"/>
       <c r="AA162" s="18"/>
-    </row>
-    <row r="163" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB162" s="18"/>
+    </row>
+    <row r="163" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A163" s="17"/>
       <c r="B163" s="17"/>
       <c r="C163" s="17"/>
@@ -5506,8 +5673,9 @@
       <c r="Y163" s="18"/>
       <c r="Z163" s="18"/>
       <c r="AA163" s="18"/>
-    </row>
-    <row r="164" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB163" s="18"/>
+    </row>
+    <row r="164" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A164" s="17"/>
       <c r="B164" s="17"/>
       <c r="C164" s="17"/>
@@ -5535,8 +5703,9 @@
       <c r="Y164" s="18"/>
       <c r="Z164" s="18"/>
       <c r="AA164" s="18"/>
-    </row>
-    <row r="165" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB164" s="18"/>
+    </row>
+    <row r="165" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A165" s="17"/>
       <c r="B165" s="17"/>
       <c r="C165" s="17"/>
@@ -5564,8 +5733,9 @@
       <c r="Y165" s="18"/>
       <c r="Z165" s="18"/>
       <c r="AA165" s="18"/>
-    </row>
-    <row r="166" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB165" s="18"/>
+    </row>
+    <row r="166" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A166" s="17"/>
       <c r="B166" s="17"/>
       <c r="C166" s="17"/>
@@ -5593,8 +5763,9 @@
       <c r="Y166" s="18"/>
       <c r="Z166" s="18"/>
       <c r="AA166" s="18"/>
-    </row>
-    <row r="167" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB166" s="18"/>
+    </row>
+    <row r="167" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A167" s="17"/>
       <c r="B167" s="17"/>
       <c r="C167" s="17"/>
@@ -5622,8 +5793,9 @@
       <c r="Y167" s="18"/>
       <c r="Z167" s="18"/>
       <c r="AA167" s="18"/>
-    </row>
-    <row r="168" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB167" s="18"/>
+    </row>
+    <row r="168" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A168" s="17"/>
       <c r="B168" s="17"/>
       <c r="C168" s="17"/>
@@ -5651,8 +5823,9 @@
       <c r="Y168" s="18"/>
       <c r="Z168" s="18"/>
       <c r="AA168" s="18"/>
-    </row>
-    <row r="169" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB168" s="18"/>
+    </row>
+    <row r="169" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A169" s="17"/>
       <c r="B169" s="17"/>
       <c r="C169" s="17"/>
@@ -5680,8 +5853,9 @@
       <c r="Y169" s="18"/>
       <c r="Z169" s="18"/>
       <c r="AA169" s="18"/>
-    </row>
-    <row r="170" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB169" s="18"/>
+    </row>
+    <row r="170" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A170" s="17"/>
       <c r="B170" s="17"/>
       <c r="C170" s="17"/>
@@ -5709,8 +5883,9 @@
       <c r="Y170" s="18"/>
       <c r="Z170" s="18"/>
       <c r="AA170" s="18"/>
-    </row>
-    <row r="171" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB170" s="18"/>
+    </row>
+    <row r="171" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A171" s="17"/>
       <c r="B171" s="17"/>
       <c r="C171" s="17"/>
@@ -5738,8 +5913,9 @@
       <c r="Y171" s="18"/>
       <c r="Z171" s="18"/>
       <c r="AA171" s="18"/>
-    </row>
-    <row r="172" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB171" s="18"/>
+    </row>
+    <row r="172" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A172" s="17"/>
       <c r="B172" s="17"/>
       <c r="C172" s="17"/>
@@ -5767,8 +5943,9 @@
       <c r="Y172" s="18"/>
       <c r="Z172" s="18"/>
       <c r="AA172" s="18"/>
-    </row>
-    <row r="173" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB172" s="18"/>
+    </row>
+    <row r="173" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A173" s="17"/>
       <c r="B173" s="17"/>
       <c r="C173" s="17"/>
@@ -5796,8 +5973,9 @@
       <c r="Y173" s="18"/>
       <c r="Z173" s="18"/>
       <c r="AA173" s="18"/>
-    </row>
-    <row r="174" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB173" s="18"/>
+    </row>
+    <row r="174" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A174" s="17"/>
       <c r="B174" s="17"/>
       <c r="C174" s="17"/>
@@ -5825,8 +6003,9 @@
       <c r="Y174" s="18"/>
       <c r="Z174" s="18"/>
       <c r="AA174" s="18"/>
-    </row>
-    <row r="175" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB174" s="18"/>
+    </row>
+    <row r="175" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A175" s="17"/>
       <c r="B175" s="17"/>
       <c r="C175" s="17"/>
@@ -5854,8 +6033,9 @@
       <c r="Y175" s="18"/>
       <c r="Z175" s="18"/>
       <c r="AA175" s="18"/>
-    </row>
-    <row r="176" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB175" s="18"/>
+    </row>
+    <row r="176" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A176" s="17"/>
       <c r="B176" s="17"/>
       <c r="C176" s="17"/>
@@ -5883,8 +6063,9 @@
       <c r="Y176" s="18"/>
       <c r="Z176" s="18"/>
       <c r="AA176" s="18"/>
-    </row>
-    <row r="177" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB176" s="18"/>
+    </row>
+    <row r="177" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A177" s="17"/>
       <c r="B177" s="17"/>
       <c r="C177" s="17"/>
@@ -5912,8 +6093,9 @@
       <c r="Y177" s="18"/>
       <c r="Z177" s="18"/>
       <c r="AA177" s="18"/>
-    </row>
-    <row r="178" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB177" s="18"/>
+    </row>
+    <row r="178" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A178" s="17"/>
       <c r="B178" s="17"/>
       <c r="C178" s="17"/>
@@ -5941,8 +6123,9 @@
       <c r="Y178" s="18"/>
       <c r="Z178" s="18"/>
       <c r="AA178" s="18"/>
-    </row>
-    <row r="179" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB178" s="18"/>
+    </row>
+    <row r="179" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A179" s="17"/>
       <c r="B179" s="17"/>
       <c r="C179" s="17"/>
@@ -5970,8 +6153,9 @@
       <c r="Y179" s="18"/>
       <c r="Z179" s="18"/>
       <c r="AA179" s="18"/>
-    </row>
-    <row r="180" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB179" s="18"/>
+    </row>
+    <row r="180" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A180" s="17"/>
       <c r="B180" s="17"/>
       <c r="C180" s="17"/>
@@ -5999,8 +6183,9 @@
       <c r="Y180" s="18"/>
       <c r="Z180" s="18"/>
       <c r="AA180" s="18"/>
-    </row>
-    <row r="181" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB180" s="18"/>
+    </row>
+    <row r="181" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A181" s="17"/>
       <c r="B181" s="17"/>
       <c r="C181" s="17"/>
@@ -6028,8 +6213,9 @@
       <c r="Y181" s="18"/>
       <c r="Z181" s="18"/>
       <c r="AA181" s="18"/>
-    </row>
-    <row r="182" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB181" s="18"/>
+    </row>
+    <row r="182" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A182" s="17"/>
       <c r="B182" s="17"/>
       <c r="C182" s="17"/>
@@ -6057,8 +6243,9 @@
       <c r="Y182" s="18"/>
       <c r="Z182" s="18"/>
       <c r="AA182" s="18"/>
-    </row>
-    <row r="183" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB182" s="18"/>
+    </row>
+    <row r="183" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A183" s="17"/>
       <c r="B183" s="17"/>
       <c r="C183" s="17"/>
@@ -6086,8 +6273,9 @@
       <c r="Y183" s="18"/>
       <c r="Z183" s="18"/>
       <c r="AA183" s="18"/>
-    </row>
-    <row r="184" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB183" s="18"/>
+    </row>
+    <row r="184" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A184" s="17"/>
       <c r="B184" s="17"/>
       <c r="C184" s="17"/>
@@ -6115,8 +6303,9 @@
       <c r="Y184" s="18"/>
       <c r="Z184" s="18"/>
       <c r="AA184" s="18"/>
-    </row>
-    <row r="185" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB184" s="18"/>
+    </row>
+    <row r="185" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A185" s="17"/>
       <c r="B185" s="17"/>
       <c r="C185" s="17"/>
@@ -6144,8 +6333,9 @@
       <c r="Y185" s="18"/>
       <c r="Z185" s="18"/>
       <c r="AA185" s="18"/>
-    </row>
-    <row r="186" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB185" s="18"/>
+    </row>
+    <row r="186" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A186" s="17"/>
       <c r="B186" s="17"/>
       <c r="C186" s="17"/>
@@ -6173,8 +6363,9 @@
       <c r="Y186" s="18"/>
       <c r="Z186" s="18"/>
       <c r="AA186" s="18"/>
-    </row>
-    <row r="187" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB186" s="18"/>
+    </row>
+    <row r="187" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A187" s="17"/>
       <c r="B187" s="17"/>
       <c r="C187" s="17"/>
@@ -6202,8 +6393,9 @@
       <c r="Y187" s="18"/>
       <c r="Z187" s="18"/>
       <c r="AA187" s="18"/>
-    </row>
-    <row r="188" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB187" s="18"/>
+    </row>
+    <row r="188" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A188" s="17"/>
       <c r="B188" s="17"/>
       <c r="C188" s="17"/>
@@ -6231,8 +6423,9 @@
       <c r="Y188" s="18"/>
       <c r="Z188" s="18"/>
       <c r="AA188" s="18"/>
-    </row>
-    <row r="189" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB188" s="18"/>
+    </row>
+    <row r="189" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A189" s="17"/>
       <c r="B189" s="17"/>
       <c r="C189" s="17"/>
@@ -6260,8 +6453,9 @@
       <c r="Y189" s="18"/>
       <c r="Z189" s="18"/>
       <c r="AA189" s="18"/>
-    </row>
-    <row r="190" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB189" s="18"/>
+    </row>
+    <row r="190" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A190" s="17"/>
       <c r="B190" s="17"/>
       <c r="C190" s="17"/>
@@ -6289,8 +6483,9 @@
       <c r="Y190" s="18"/>
       <c r="Z190" s="18"/>
       <c r="AA190" s="18"/>
-    </row>
-    <row r="191" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB190" s="18"/>
+    </row>
+    <row r="191" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A191" s="17"/>
       <c r="B191" s="17"/>
       <c r="C191" s="17"/>
@@ -6318,8 +6513,9 @@
       <c r="Y191" s="18"/>
       <c r="Z191" s="18"/>
       <c r="AA191" s="18"/>
-    </row>
-    <row r="192" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB191" s="18"/>
+    </row>
+    <row r="192" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A192" s="17"/>
       <c r="B192" s="17"/>
       <c r="C192" s="17"/>
@@ -6347,8 +6543,9 @@
       <c r="Y192" s="18"/>
       <c r="Z192" s="18"/>
       <c r="AA192" s="18"/>
-    </row>
-    <row r="193" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB192" s="18"/>
+    </row>
+    <row r="193" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A193" s="17"/>
       <c r="B193" s="17"/>
       <c r="C193" s="17"/>
@@ -6376,8 +6573,9 @@
       <c r="Y193" s="18"/>
       <c r="Z193" s="18"/>
       <c r="AA193" s="18"/>
-    </row>
-    <row r="194" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB193" s="18"/>
+    </row>
+    <row r="194" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A194" s="17"/>
       <c r="B194" s="17"/>
       <c r="C194" s="17"/>
@@ -6405,8 +6603,9 @@
       <c r="Y194" s="18"/>
       <c r="Z194" s="18"/>
       <c r="AA194" s="18"/>
-    </row>
-    <row r="195" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB194" s="18"/>
+    </row>
+    <row r="195" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A195" s="17"/>
       <c r="B195" s="17"/>
       <c r="C195" s="17"/>
@@ -6434,8 +6633,9 @@
       <c r="Y195" s="18"/>
       <c r="Z195" s="18"/>
       <c r="AA195" s="18"/>
-    </row>
-    <row r="196" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB195" s="18"/>
+    </row>
+    <row r="196" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A196" s="17"/>
       <c r="B196" s="17"/>
       <c r="C196" s="17"/>
@@ -6463,8 +6663,9 @@
       <c r="Y196" s="18"/>
       <c r="Z196" s="18"/>
       <c r="AA196" s="18"/>
-    </row>
-    <row r="197" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB196" s="18"/>
+    </row>
+    <row r="197" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A197" s="17"/>
       <c r="B197" s="17"/>
       <c r="C197" s="17"/>
@@ -6492,8 +6693,9 @@
       <c r="Y197" s="18"/>
       <c r="Z197" s="18"/>
       <c r="AA197" s="18"/>
-    </row>
-    <row r="198" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB197" s="18"/>
+    </row>
+    <row r="198" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A198" s="17"/>
       <c r="B198" s="17"/>
       <c r="C198" s="17"/>
@@ -6521,8 +6723,9 @@
       <c r="Y198" s="18"/>
       <c r="Z198" s="18"/>
       <c r="AA198" s="18"/>
-    </row>
-    <row r="199" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB198" s="18"/>
+    </row>
+    <row r="199" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A199" s="17"/>
       <c r="B199" s="17"/>
       <c r="C199" s="17"/>
@@ -6550,8 +6753,9 @@
       <c r="Y199" s="18"/>
       <c r="Z199" s="18"/>
       <c r="AA199" s="18"/>
-    </row>
-    <row r="200" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB199" s="18"/>
+    </row>
+    <row r="200" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A200" s="17"/>
       <c r="B200" s="17"/>
       <c r="C200" s="17"/>
@@ -6579,8 +6783,9 @@
       <c r="Y200" s="18"/>
       <c r="Z200" s="18"/>
       <c r="AA200" s="18"/>
-    </row>
-    <row r="201" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB200" s="18"/>
+    </row>
+    <row r="201" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A201" s="17"/>
       <c r="B201" s="17"/>
       <c r="C201" s="17"/>
@@ -6608,8 +6813,9 @@
       <c r="Y201" s="18"/>
       <c r="Z201" s="18"/>
       <c r="AA201" s="18"/>
-    </row>
-    <row r="202" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB201" s="18"/>
+    </row>
+    <row r="202" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A202" s="17"/>
       <c r="B202" s="17"/>
       <c r="C202" s="17"/>
@@ -6637,8 +6843,9 @@
       <c r="Y202" s="18"/>
       <c r="Z202" s="18"/>
       <c r="AA202" s="18"/>
-    </row>
-    <row r="203" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB202" s="18"/>
+    </row>
+    <row r="203" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A203" s="17"/>
       <c r="B203" s="17"/>
       <c r="C203" s="17"/>
@@ -6666,8 +6873,9 @@
       <c r="Y203" s="18"/>
       <c r="Z203" s="18"/>
       <c r="AA203" s="18"/>
-    </row>
-    <row r="204" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB203" s="18"/>
+    </row>
+    <row r="204" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A204" s="17"/>
       <c r="B204" s="17"/>
       <c r="C204" s="17"/>
@@ -6695,8 +6903,9 @@
       <c r="Y204" s="18"/>
       <c r="Z204" s="18"/>
       <c r="AA204" s="18"/>
-    </row>
-    <row r="205" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB204" s="18"/>
+    </row>
+    <row r="205" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A205" s="17"/>
       <c r="B205" s="17"/>
       <c r="C205" s="17"/>
@@ -6724,8 +6933,9 @@
       <c r="Y205" s="18"/>
       <c r="Z205" s="18"/>
       <c r="AA205" s="18"/>
-    </row>
-    <row r="206" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB205" s="18"/>
+    </row>
+    <row r="206" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A206" s="17"/>
       <c r="B206" s="17"/>
       <c r="C206" s="17"/>
@@ -6753,8 +6963,9 @@
       <c r="Y206" s="18"/>
       <c r="Z206" s="18"/>
       <c r="AA206" s="18"/>
-    </row>
-    <row r="207" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB206" s="18"/>
+    </row>
+    <row r="207" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A207" s="17"/>
       <c r="B207" s="17"/>
       <c r="C207" s="17"/>
@@ -6782,8 +6993,9 @@
       <c r="Y207" s="18"/>
       <c r="Z207" s="18"/>
       <c r="AA207" s="18"/>
-    </row>
-    <row r="208" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB207" s="18"/>
+    </row>
+    <row r="208" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A208" s="17"/>
       <c r="B208" s="17"/>
       <c r="C208" s="17"/>
@@ -6811,8 +7023,9 @@
       <c r="Y208" s="18"/>
       <c r="Z208" s="18"/>
       <c r="AA208" s="18"/>
-    </row>
-    <row r="209" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB208" s="18"/>
+    </row>
+    <row r="209" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A209" s="17"/>
       <c r="B209" s="17"/>
       <c r="C209" s="17"/>
@@ -6840,8 +7053,9 @@
       <c r="Y209" s="18"/>
       <c r="Z209" s="18"/>
       <c r="AA209" s="18"/>
-    </row>
-    <row r="210" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB209" s="18"/>
+    </row>
+    <row r="210" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A210" s="17"/>
       <c r="B210" s="17"/>
       <c r="C210" s="17"/>
@@ -6869,8 +7083,9 @@
       <c r="Y210" s="18"/>
       <c r="Z210" s="18"/>
       <c r="AA210" s="18"/>
-    </row>
-    <row r="211" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB210" s="18"/>
+    </row>
+    <row r="211" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A211" s="17"/>
       <c r="B211" s="17"/>
       <c r="C211" s="17"/>
@@ -6898,8 +7113,9 @@
       <c r="Y211" s="18"/>
       <c r="Z211" s="18"/>
       <c r="AA211" s="18"/>
-    </row>
-    <row r="212" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB211" s="18"/>
+    </row>
+    <row r="212" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A212" s="17"/>
       <c r="B212" s="17"/>
       <c r="C212" s="17"/>
@@ -6927,8 +7143,9 @@
       <c r="Y212" s="18"/>
       <c r="Z212" s="18"/>
       <c r="AA212" s="18"/>
-    </row>
-    <row r="213" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB212" s="18"/>
+    </row>
+    <row r="213" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A213" s="17"/>
       <c r="B213" s="17"/>
       <c r="C213" s="17"/>
@@ -6956,8 +7173,9 @@
       <c r="Y213" s="18"/>
       <c r="Z213" s="18"/>
       <c r="AA213" s="18"/>
-    </row>
-    <row r="214" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB213" s="18"/>
+    </row>
+    <row r="214" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A214" s="17"/>
       <c r="B214" s="17"/>
       <c r="C214" s="17"/>
@@ -6985,8 +7203,9 @@
       <c r="Y214" s="18"/>
       <c r="Z214" s="18"/>
       <c r="AA214" s="18"/>
-    </row>
-    <row r="215" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB214" s="18"/>
+    </row>
+    <row r="215" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A215" s="17"/>
       <c r="B215" s="17"/>
       <c r="C215" s="17"/>
@@ -7014,8 +7233,9 @@
       <c r="Y215" s="18"/>
       <c r="Z215" s="18"/>
       <c r="AA215" s="18"/>
-    </row>
-    <row r="216" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB215" s="18"/>
+    </row>
+    <row r="216" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A216" s="17"/>
       <c r="B216" s="17"/>
       <c r="C216" s="17"/>
@@ -7043,8 +7263,9 @@
       <c r="Y216" s="18"/>
       <c r="Z216" s="18"/>
       <c r="AA216" s="18"/>
-    </row>
-    <row r="217" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB216" s="18"/>
+    </row>
+    <row r="217" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A217" s="17"/>
       <c r="B217" s="17"/>
       <c r="C217" s="17"/>
@@ -7072,8 +7293,9 @@
       <c r="Y217" s="18"/>
       <c r="Z217" s="18"/>
       <c r="AA217" s="18"/>
-    </row>
-    <row r="218" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB217" s="18"/>
+    </row>
+    <row r="218" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A218" s="17"/>
       <c r="B218" s="17"/>
       <c r="C218" s="17"/>
@@ -7101,8 +7323,9 @@
       <c r="Y218" s="18"/>
       <c r="Z218" s="18"/>
       <c r="AA218" s="18"/>
-    </row>
-    <row r="219" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB218" s="18"/>
+    </row>
+    <row r="219" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A219" s="17"/>
       <c r="B219" s="17"/>
       <c r="C219" s="17"/>
@@ -7130,8 +7353,9 @@
       <c r="Y219" s="18"/>
       <c r="Z219" s="18"/>
       <c r="AA219" s="18"/>
-    </row>
-    <row r="220" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB219" s="18"/>
+    </row>
+    <row r="220" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A220" s="17"/>
       <c r="B220" s="17"/>
       <c r="C220" s="17"/>
@@ -7159,8 +7383,9 @@
       <c r="Y220" s="18"/>
       <c r="Z220" s="18"/>
       <c r="AA220" s="18"/>
-    </row>
-    <row r="221" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB220" s="18"/>
+    </row>
+    <row r="221" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A221" s="17"/>
       <c r="B221" s="17"/>
       <c r="C221" s="17"/>
@@ -7188,8 +7413,9 @@
       <c r="Y221" s="18"/>
       <c r="Z221" s="18"/>
       <c r="AA221" s="18"/>
-    </row>
-    <row r="222" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB221" s="18"/>
+    </row>
+    <row r="222" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A222" s="17"/>
       <c r="B222" s="17"/>
       <c r="C222" s="17"/>
@@ -7217,8 +7443,9 @@
       <c r="Y222" s="18"/>
       <c r="Z222" s="18"/>
       <c r="AA222" s="18"/>
-    </row>
-    <row r="223" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB222" s="18"/>
+    </row>
+    <row r="223" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A223" s="17"/>
       <c r="B223" s="17"/>
       <c r="C223" s="17"/>
@@ -7246,8 +7473,9 @@
       <c r="Y223" s="18"/>
       <c r="Z223" s="18"/>
       <c r="AA223" s="18"/>
-    </row>
-    <row r="224" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB223" s="18"/>
+    </row>
+    <row r="224" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A224" s="17"/>
       <c r="B224" s="17"/>
       <c r="C224" s="17"/>
@@ -7275,8 +7503,9 @@
       <c r="Y224" s="18"/>
       <c r="Z224" s="18"/>
       <c r="AA224" s="18"/>
-    </row>
-    <row r="225" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB224" s="18"/>
+    </row>
+    <row r="225" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A225" s="17"/>
       <c r="B225" s="17"/>
       <c r="C225" s="17"/>
@@ -7304,8 +7533,9 @@
       <c r="Y225" s="18"/>
       <c r="Z225" s="18"/>
       <c r="AA225" s="18"/>
-    </row>
-    <row r="226" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB225" s="18"/>
+    </row>
+    <row r="226" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A226" s="17"/>
       <c r="B226" s="17"/>
       <c r="C226" s="17"/>
@@ -7333,8 +7563,9 @@
       <c r="Y226" s="18"/>
       <c r="Z226" s="18"/>
       <c r="AA226" s="18"/>
-    </row>
-    <row r="227" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB226" s="18"/>
+    </row>
+    <row r="227" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A227" s="17"/>
       <c r="B227" s="17"/>
       <c r="C227" s="17"/>
@@ -7362,8 +7593,9 @@
       <c r="Y227" s="18"/>
       <c r="Z227" s="18"/>
       <c r="AA227" s="18"/>
-    </row>
-    <row r="228" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB227" s="18"/>
+    </row>
+    <row r="228" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A228" s="17"/>
       <c r="B228" s="17"/>
       <c r="C228" s="17"/>
@@ -7391,8 +7623,9 @@
       <c r="Y228" s="18"/>
       <c r="Z228" s="18"/>
       <c r="AA228" s="18"/>
-    </row>
-    <row r="229" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB228" s="18"/>
+    </row>
+    <row r="229" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A229" s="17"/>
       <c r="B229" s="17"/>
       <c r="C229" s="17"/>
@@ -7420,8 +7653,9 @@
       <c r="Y229" s="18"/>
       <c r="Z229" s="18"/>
       <c r="AA229" s="18"/>
-    </row>
-    <row r="230" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB229" s="18"/>
+    </row>
+    <row r="230" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A230" s="17"/>
       <c r="B230" s="17"/>
       <c r="C230" s="17"/>
@@ -7449,8 +7683,9 @@
       <c r="Y230" s="18"/>
       <c r="Z230" s="18"/>
       <c r="AA230" s="18"/>
-    </row>
-    <row r="231" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB230" s="18"/>
+    </row>
+    <row r="231" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A231" s="17"/>
       <c r="B231" s="17"/>
       <c r="C231" s="17"/>
@@ -7478,8 +7713,9 @@
       <c r="Y231" s="18"/>
       <c r="Z231" s="18"/>
       <c r="AA231" s="18"/>
-    </row>
-    <row r="232" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB231" s="18"/>
+    </row>
+    <row r="232" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A232" s="17"/>
       <c r="B232" s="17"/>
       <c r="C232" s="17"/>
@@ -7507,8 +7743,9 @@
       <c r="Y232" s="18"/>
       <c r="Z232" s="18"/>
       <c r="AA232" s="18"/>
-    </row>
-    <row r="233" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB232" s="18"/>
+    </row>
+    <row r="233" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A233" s="17"/>
       <c r="B233" s="17"/>
       <c r="C233" s="17"/>
@@ -7536,8 +7773,9 @@
       <c r="Y233" s="18"/>
       <c r="Z233" s="18"/>
       <c r="AA233" s="18"/>
-    </row>
-    <row r="234" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB233" s="18"/>
+    </row>
+    <row r="234" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A234" s="17"/>
       <c r="B234" s="17"/>
       <c r="C234" s="17"/>
@@ -7565,8 +7803,9 @@
       <c r="Y234" s="18"/>
       <c r="Z234" s="18"/>
       <c r="AA234" s="18"/>
-    </row>
-    <row r="235" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB234" s="18"/>
+    </row>
+    <row r="235" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A235" s="17"/>
       <c r="B235" s="17"/>
       <c r="C235" s="17"/>
@@ -7594,8 +7833,9 @@
       <c r="Y235" s="18"/>
       <c r="Z235" s="18"/>
       <c r="AA235" s="18"/>
-    </row>
-    <row r="236" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB235" s="18"/>
+    </row>
+    <row r="236" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A236" s="17"/>
       <c r="B236" s="17"/>
       <c r="C236" s="17"/>
@@ -7623,8 +7863,9 @@
       <c r="Y236" s="18"/>
       <c r="Z236" s="18"/>
       <c r="AA236" s="18"/>
-    </row>
-    <row r="237" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB236" s="18"/>
+    </row>
+    <row r="237" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A237" s="17"/>
       <c r="B237" s="17"/>
       <c r="C237" s="17"/>
@@ -7652,8 +7893,9 @@
       <c r="Y237" s="18"/>
       <c r="Z237" s="18"/>
       <c r="AA237" s="18"/>
-    </row>
-    <row r="238" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB237" s="18"/>
+    </row>
+    <row r="238" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A238" s="17"/>
       <c r="B238" s="17"/>
       <c r="C238" s="17"/>
@@ -7681,8 +7923,9 @@
       <c r="Y238" s="18"/>
       <c r="Z238" s="18"/>
       <c r="AA238" s="18"/>
-    </row>
-    <row r="239" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB238" s="18"/>
+    </row>
+    <row r="239" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A239" s="17"/>
       <c r="B239" s="17"/>
       <c r="C239" s="17"/>
@@ -7710,8 +7953,9 @@
       <c r="Y239" s="18"/>
       <c r="Z239" s="18"/>
       <c r="AA239" s="18"/>
-    </row>
-    <row r="240" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB239" s="18"/>
+    </row>
+    <row r="240" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A240" s="17"/>
       <c r="B240" s="17"/>
       <c r="C240" s="17"/>
@@ -7739,8 +7983,9 @@
       <c r="Y240" s="18"/>
       <c r="Z240" s="18"/>
       <c r="AA240" s="18"/>
-    </row>
-    <row r="241" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB240" s="18"/>
+    </row>
+    <row r="241" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A241" s="17"/>
       <c r="B241" s="17"/>
       <c r="C241" s="17"/>
@@ -7768,8 +8013,9 @@
       <c r="Y241" s="18"/>
       <c r="Z241" s="18"/>
       <c r="AA241" s="18"/>
-    </row>
-    <row r="242" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB241" s="18"/>
+    </row>
+    <row r="242" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A242" s="17"/>
       <c r="B242" s="17"/>
       <c r="C242" s="17"/>
@@ -7797,8 +8043,9 @@
       <c r="Y242" s="18"/>
       <c r="Z242" s="18"/>
       <c r="AA242" s="18"/>
-    </row>
-    <row r="243" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB242" s="18"/>
+    </row>
+    <row r="243" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A243" s="17"/>
       <c r="B243" s="17"/>
       <c r="C243" s="17"/>
@@ -7826,8 +8073,9 @@
       <c r="Y243" s="18"/>
       <c r="Z243" s="18"/>
       <c r="AA243" s="18"/>
-    </row>
-    <row r="244" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB243" s="18"/>
+    </row>
+    <row r="244" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A244" s="17"/>
       <c r="B244" s="17"/>
       <c r="C244" s="17"/>
@@ -7855,8 +8103,9 @@
       <c r="Y244" s="18"/>
       <c r="Z244" s="18"/>
       <c r="AA244" s="18"/>
-    </row>
-    <row r="245" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB244" s="18"/>
+    </row>
+    <row r="245" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A245" s="17"/>
       <c r="B245" s="17"/>
       <c r="C245" s="17"/>
@@ -7884,8 +8133,9 @@
       <c r="Y245" s="18"/>
       <c r="Z245" s="18"/>
       <c r="AA245" s="18"/>
-    </row>
-    <row r="246" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB245" s="18"/>
+    </row>
+    <row r="246" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A246" s="17"/>
       <c r="B246" s="17"/>
       <c r="C246" s="17"/>
@@ -7913,8 +8163,9 @@
       <c r="Y246" s="18"/>
       <c r="Z246" s="18"/>
       <c r="AA246" s="18"/>
-    </row>
-    <row r="247" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB246" s="18"/>
+    </row>
+    <row r="247" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A247" s="17"/>
       <c r="B247" s="17"/>
       <c r="C247" s="17"/>
@@ -7942,8 +8193,9 @@
       <c r="Y247" s="18"/>
       <c r="Z247" s="18"/>
       <c r="AA247" s="18"/>
-    </row>
-    <row r="248" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB247" s="18"/>
+    </row>
+    <row r="248" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A248" s="17"/>
       <c r="B248" s="17"/>
       <c r="C248" s="17"/>
@@ -7971,8 +8223,9 @@
       <c r="Y248" s="18"/>
       <c r="Z248" s="18"/>
       <c r="AA248" s="18"/>
-    </row>
-    <row r="249" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB248" s="18"/>
+    </row>
+    <row r="249" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A249" s="17"/>
       <c r="B249" s="17"/>
       <c r="C249" s="17"/>
@@ -8000,8 +8253,9 @@
       <c r="Y249" s="18"/>
       <c r="Z249" s="18"/>
       <c r="AA249" s="18"/>
-    </row>
-    <row r="250" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB249" s="18"/>
+    </row>
+    <row r="250" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A250" s="17"/>
       <c r="B250" s="17"/>
       <c r="C250" s="17"/>
@@ -8029,8 +8283,9 @@
       <c r="Y250" s="18"/>
       <c r="Z250" s="18"/>
       <c r="AA250" s="18"/>
-    </row>
-    <row r="251" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB250" s="18"/>
+    </row>
+    <row r="251" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A251" s="17"/>
       <c r="B251" s="17"/>
       <c r="C251" s="17"/>
@@ -8058,8 +8313,9 @@
       <c r="Y251" s="18"/>
       <c r="Z251" s="18"/>
       <c r="AA251" s="18"/>
-    </row>
-    <row r="252" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB251" s="18"/>
+    </row>
+    <row r="252" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A252" s="17"/>
       <c r="B252" s="17"/>
       <c r="C252" s="17"/>
@@ -8087,8 +8343,9 @@
       <c r="Y252" s="18"/>
       <c r="Z252" s="18"/>
       <c r="AA252" s="18"/>
-    </row>
-    <row r="253" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB252" s="18"/>
+    </row>
+    <row r="253" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A253" s="17"/>
       <c r="B253" s="17"/>
       <c r="C253" s="17"/>
@@ -8116,8 +8373,9 @@
       <c r="Y253" s="18"/>
       <c r="Z253" s="18"/>
       <c r="AA253" s="18"/>
-    </row>
-    <row r="254" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB253" s="18"/>
+    </row>
+    <row r="254" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A254" s="17"/>
       <c r="B254" s="17"/>
       <c r="C254" s="17"/>
@@ -8145,8 +8403,9 @@
       <c r="Y254" s="18"/>
       <c r="Z254" s="18"/>
       <c r="AA254" s="18"/>
-    </row>
-    <row r="255" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB254" s="18"/>
+    </row>
+    <row r="255" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A255" s="17"/>
       <c r="B255" s="17"/>
       <c r="C255" s="17"/>
@@ -8174,8 +8433,9 @@
       <c r="Y255" s="18"/>
       <c r="Z255" s="18"/>
       <c r="AA255" s="18"/>
-    </row>
-    <row r="256" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB255" s="18"/>
+    </row>
+    <row r="256" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A256" s="17"/>
       <c r="B256" s="17"/>
       <c r="C256" s="17"/>
@@ -8203,8 +8463,9 @@
       <c r="Y256" s="18"/>
       <c r="Z256" s="18"/>
       <c r="AA256" s="18"/>
-    </row>
-    <row r="257" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB256" s="18"/>
+    </row>
+    <row r="257" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A257" s="17"/>
       <c r="B257" s="17"/>
       <c r="C257" s="17"/>
@@ -8232,8 +8493,9 @@
       <c r="Y257" s="18"/>
       <c r="Z257" s="18"/>
       <c r="AA257" s="18"/>
-    </row>
-    <row r="258" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB257" s="18"/>
+    </row>
+    <row r="258" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A258" s="17"/>
       <c r="B258" s="17"/>
       <c r="C258" s="17"/>
@@ -8261,8 +8523,9 @@
       <c r="Y258" s="18"/>
       <c r="Z258" s="18"/>
       <c r="AA258" s="18"/>
-    </row>
-    <row r="259" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB258" s="18"/>
+    </row>
+    <row r="259" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A259" s="17"/>
       <c r="B259" s="17"/>
       <c r="C259" s="17"/>
@@ -8290,8 +8553,9 @@
       <c r="Y259" s="18"/>
       <c r="Z259" s="18"/>
       <c r="AA259" s="18"/>
-    </row>
-    <row r="260" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB259" s="18"/>
+    </row>
+    <row r="260" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A260" s="17"/>
       <c r="B260" s="17"/>
       <c r="C260" s="17"/>
@@ -8319,8 +8583,9 @@
       <c r="Y260" s="18"/>
       <c r="Z260" s="18"/>
       <c r="AA260" s="18"/>
-    </row>
-    <row r="261" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB260" s="18"/>
+    </row>
+    <row r="261" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A261" s="17"/>
       <c r="B261" s="17"/>
       <c r="C261" s="17"/>
@@ -8348,8 +8613,9 @@
       <c r="Y261" s="18"/>
       <c r="Z261" s="18"/>
       <c r="AA261" s="18"/>
-    </row>
-    <row r="262" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB261" s="18"/>
+    </row>
+    <row r="262" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A262" s="17"/>
       <c r="B262" s="17"/>
       <c r="C262" s="17"/>
@@ -8377,8 +8643,9 @@
       <c r="Y262" s="18"/>
       <c r="Z262" s="18"/>
       <c r="AA262" s="18"/>
-    </row>
-    <row r="263" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB262" s="18"/>
+    </row>
+    <row r="263" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A263" s="17"/>
       <c r="B263" s="17"/>
       <c r="C263" s="17"/>
@@ -8406,8 +8673,9 @@
       <c r="Y263" s="18"/>
       <c r="Z263" s="18"/>
       <c r="AA263" s="18"/>
-    </row>
-    <row r="264" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB263" s="18"/>
+    </row>
+    <row r="264" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A264" s="17"/>
       <c r="B264" s="17"/>
       <c r="C264" s="17"/>
@@ -8435,8 +8703,9 @@
       <c r="Y264" s="18"/>
       <c r="Z264" s="18"/>
       <c r="AA264" s="18"/>
-    </row>
-    <row r="265" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB264" s="18"/>
+    </row>
+    <row r="265" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A265" s="17"/>
       <c r="B265" s="17"/>
       <c r="C265" s="17"/>
@@ -8464,8 +8733,9 @@
       <c r="Y265" s="18"/>
       <c r="Z265" s="18"/>
       <c r="AA265" s="18"/>
-    </row>
-    <row r="266" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB265" s="18"/>
+    </row>
+    <row r="266" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A266" s="17"/>
       <c r="B266" s="17"/>
       <c r="C266" s="17"/>
@@ -8493,8 +8763,9 @@
       <c r="Y266" s="18"/>
       <c r="Z266" s="18"/>
       <c r="AA266" s="18"/>
-    </row>
-    <row r="267" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB266" s="18"/>
+    </row>
+    <row r="267" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A267" s="17"/>
       <c r="B267" s="17"/>
       <c r="C267" s="17"/>
@@ -8522,8 +8793,9 @@
       <c r="Y267" s="18"/>
       <c r="Z267" s="18"/>
       <c r="AA267" s="18"/>
-    </row>
-    <row r="268" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB267" s="18"/>
+    </row>
+    <row r="268" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A268" s="17"/>
       <c r="B268" s="17"/>
       <c r="C268" s="17"/>
@@ -8551,8 +8823,9 @@
       <c r="Y268" s="18"/>
       <c r="Z268" s="18"/>
       <c r="AA268" s="18"/>
-    </row>
-    <row r="269" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB268" s="18"/>
+    </row>
+    <row r="269" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A269" s="17"/>
       <c r="B269" s="17"/>
       <c r="C269" s="17"/>
@@ -8580,8 +8853,9 @@
       <c r="Y269" s="18"/>
       <c r="Z269" s="18"/>
       <c r="AA269" s="18"/>
-    </row>
-    <row r="270" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB269" s="18"/>
+    </row>
+    <row r="270" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A270" s="17"/>
       <c r="B270" s="17"/>
       <c r="C270" s="17"/>
@@ -8609,8 +8883,9 @@
       <c r="Y270" s="18"/>
       <c r="Z270" s="18"/>
       <c r="AA270" s="18"/>
-    </row>
-    <row r="271" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB270" s="18"/>
+    </row>
+    <row r="271" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A271" s="17"/>
       <c r="B271" s="17"/>
       <c r="C271" s="17"/>
@@ -8638,8 +8913,9 @@
       <c r="Y271" s="18"/>
       <c r="Z271" s="18"/>
       <c r="AA271" s="18"/>
-    </row>
-    <row r="272" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB271" s="18"/>
+    </row>
+    <row r="272" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A272" s="17"/>
       <c r="B272" s="17"/>
       <c r="C272" s="17"/>
@@ -8667,8 +8943,9 @@
       <c r="Y272" s="18"/>
       <c r="Z272" s="18"/>
       <c r="AA272" s="18"/>
-    </row>
-    <row r="273" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB272" s="18"/>
+    </row>
+    <row r="273" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A273" s="17"/>
       <c r="B273" s="17"/>
       <c r="C273" s="17"/>
@@ -8696,8 +8973,9 @@
       <c r="Y273" s="18"/>
       <c r="Z273" s="18"/>
       <c r="AA273" s="18"/>
-    </row>
-    <row r="274" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB273" s="18"/>
+    </row>
+    <row r="274" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A274" s="17"/>
       <c r="B274" s="17"/>
       <c r="C274" s="17"/>
@@ -8725,8 +9003,9 @@
       <c r="Y274" s="18"/>
       <c r="Z274" s="18"/>
       <c r="AA274" s="18"/>
-    </row>
-    <row r="275" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB274" s="18"/>
+    </row>
+    <row r="275" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A275" s="17"/>
       <c r="B275" s="17"/>
       <c r="C275" s="17"/>
@@ -8754,8 +9033,9 @@
       <c r="Y275" s="18"/>
       <c r="Z275" s="18"/>
       <c r="AA275" s="18"/>
-    </row>
-    <row r="276" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB275" s="18"/>
+    </row>
+    <row r="276" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A276" s="17"/>
       <c r="B276" s="17"/>
       <c r="C276" s="17"/>
@@ -8783,8 +9063,9 @@
       <c r="Y276" s="18"/>
       <c r="Z276" s="18"/>
       <c r="AA276" s="18"/>
-    </row>
-    <row r="277" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB276" s="18"/>
+    </row>
+    <row r="277" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A277" s="17"/>
       <c r="B277" s="17"/>
       <c r="C277" s="17"/>
@@ -8812,8 +9093,9 @@
       <c r="Y277" s="18"/>
       <c r="Z277" s="18"/>
       <c r="AA277" s="18"/>
-    </row>
-    <row r="278" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB277" s="18"/>
+    </row>
+    <row r="278" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A278" s="17"/>
       <c r="B278" s="17"/>
       <c r="C278" s="17"/>
@@ -8841,8 +9123,9 @@
       <c r="Y278" s="18"/>
       <c r="Z278" s="18"/>
       <c r="AA278" s="18"/>
-    </row>
-    <row r="279" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB278" s="18"/>
+    </row>
+    <row r="279" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A279" s="17"/>
       <c r="B279" s="17"/>
       <c r="C279" s="17"/>
@@ -8870,8 +9153,9 @@
       <c r="Y279" s="18"/>
       <c r="Z279" s="18"/>
       <c r="AA279" s="18"/>
-    </row>
-    <row r="280" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB279" s="18"/>
+    </row>
+    <row r="280" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A280" s="17"/>
       <c r="B280" s="17"/>
       <c r="C280" s="17"/>
@@ -8899,8 +9183,9 @@
       <c r="Y280" s="18"/>
       <c r="Z280" s="18"/>
       <c r="AA280" s="18"/>
-    </row>
-    <row r="281" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB280" s="18"/>
+    </row>
+    <row r="281" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A281" s="17"/>
       <c r="B281" s="17"/>
       <c r="C281" s="17"/>
@@ -8928,8 +9213,9 @@
       <c r="Y281" s="18"/>
       <c r="Z281" s="18"/>
       <c r="AA281" s="18"/>
-    </row>
-    <row r="282" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB281" s="18"/>
+    </row>
+    <row r="282" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A282" s="17"/>
       <c r="B282" s="17"/>
       <c r="C282" s="17"/>
@@ -8957,8 +9243,9 @@
       <c r="Y282" s="18"/>
       <c r="Z282" s="18"/>
       <c r="AA282" s="18"/>
-    </row>
-    <row r="283" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB282" s="18"/>
+    </row>
+    <row r="283" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A283" s="17"/>
       <c r="B283" s="17"/>
       <c r="C283" s="17"/>
@@ -8986,8 +9273,9 @@
       <c r="Y283" s="18"/>
       <c r="Z283" s="18"/>
       <c r="AA283" s="18"/>
-    </row>
-    <row r="284" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB283" s="18"/>
+    </row>
+    <row r="284" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A284" s="17"/>
       <c r="B284" s="17"/>
       <c r="C284" s="17"/>
@@ -9015,8 +9303,9 @@
       <c r="Y284" s="18"/>
       <c r="Z284" s="18"/>
       <c r="AA284" s="18"/>
-    </row>
-    <row r="285" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB284" s="18"/>
+    </row>
+    <row r="285" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A285" s="17"/>
       <c r="B285" s="17"/>
       <c r="C285" s="17"/>
@@ -9044,8 +9333,9 @@
       <c r="Y285" s="18"/>
       <c r="Z285" s="18"/>
       <c r="AA285" s="18"/>
-    </row>
-    <row r="286" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB285" s="18"/>
+    </row>
+    <row r="286" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A286" s="17"/>
       <c r="B286" s="17"/>
       <c r="C286" s="17"/>
@@ -9073,8 +9363,9 @@
       <c r="Y286" s="18"/>
       <c r="Z286" s="18"/>
       <c r="AA286" s="18"/>
-    </row>
-    <row r="287" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB286" s="18"/>
+    </row>
+    <row r="287" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A287" s="17"/>
       <c r="B287" s="17"/>
       <c r="C287" s="17"/>
@@ -9102,8 +9393,9 @@
       <c r="Y287" s="18"/>
       <c r="Z287" s="18"/>
       <c r="AA287" s="18"/>
-    </row>
-    <row r="288" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB287" s="18"/>
+    </row>
+    <row r="288" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A288" s="17"/>
       <c r="B288" s="17"/>
       <c r="C288" s="17"/>
@@ -9131,8 +9423,9 @@
       <c r="Y288" s="18"/>
       <c r="Z288" s="18"/>
       <c r="AA288" s="18"/>
-    </row>
-    <row r="289" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB288" s="18"/>
+    </row>
+    <row r="289" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A289" s="17"/>
       <c r="B289" s="17"/>
       <c r="C289" s="17"/>
@@ -9160,8 +9453,9 @@
       <c r="Y289" s="18"/>
       <c r="Z289" s="18"/>
       <c r="AA289" s="18"/>
-    </row>
-    <row r="290" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB289" s="18"/>
+    </row>
+    <row r="290" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A290" s="17"/>
       <c r="B290" s="17"/>
       <c r="C290" s="17"/>
@@ -9189,8 +9483,9 @@
       <c r="Y290" s="18"/>
       <c r="Z290" s="18"/>
       <c r="AA290" s="18"/>
-    </row>
-    <row r="291" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB290" s="18"/>
+    </row>
+    <row r="291" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A291" s="17"/>
       <c r="B291" s="17"/>
       <c r="C291" s="17"/>
@@ -9218,8 +9513,9 @@
       <c r="Y291" s="18"/>
       <c r="Z291" s="18"/>
       <c r="AA291" s="18"/>
-    </row>
-    <row r="292" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB291" s="18"/>
+    </row>
+    <row r="292" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A292" s="17"/>
       <c r="B292" s="17"/>
       <c r="C292" s="17"/>
@@ -9247,8 +9543,9 @@
       <c r="Y292" s="18"/>
       <c r="Z292" s="18"/>
       <c r="AA292" s="18"/>
-    </row>
-    <row r="293" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB292" s="18"/>
+    </row>
+    <row r="293" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A293" s="17"/>
       <c r="B293" s="17"/>
       <c r="C293" s="17"/>
@@ -9276,8 +9573,9 @@
       <c r="Y293" s="18"/>
       <c r="Z293" s="18"/>
       <c r="AA293" s="18"/>
-    </row>
-    <row r="294" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB293" s="18"/>
+    </row>
+    <row r="294" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A294" s="17"/>
       <c r="B294" s="17"/>
       <c r="C294" s="17"/>
@@ -9305,8 +9603,9 @@
       <c r="Y294" s="18"/>
       <c r="Z294" s="18"/>
       <c r="AA294" s="18"/>
-    </row>
-    <row r="295" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB294" s="18"/>
+    </row>
+    <row r="295" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A295" s="17"/>
       <c r="B295" s="17"/>
       <c r="C295" s="17"/>
@@ -9334,8 +9633,9 @@
       <c r="Y295" s="18"/>
       <c r="Z295" s="18"/>
       <c r="AA295" s="18"/>
-    </row>
-    <row r="296" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB295" s="18"/>
+    </row>
+    <row r="296" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A296" s="17"/>
       <c r="B296" s="17"/>
       <c r="C296" s="17"/>
@@ -9363,8 +9663,9 @@
       <c r="Y296" s="18"/>
       <c r="Z296" s="18"/>
       <c r="AA296" s="18"/>
-    </row>
-    <row r="297" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB296" s="18"/>
+    </row>
+    <row r="297" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A297" s="17"/>
       <c r="B297" s="17"/>
       <c r="C297" s="17"/>
@@ -9392,8 +9693,9 @@
       <c r="Y297" s="18"/>
       <c r="Z297" s="18"/>
       <c r="AA297" s="18"/>
-    </row>
-    <row r="298" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB297" s="18"/>
+    </row>
+    <row r="298" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A298" s="17"/>
       <c r="B298" s="17"/>
       <c r="C298" s="17"/>
@@ -9421,8 +9723,9 @@
       <c r="Y298" s="18"/>
       <c r="Z298" s="18"/>
       <c r="AA298" s="18"/>
-    </row>
-    <row r="299" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB298" s="18"/>
+    </row>
+    <row r="299" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A299" s="17"/>
       <c r="B299" s="17"/>
       <c r="C299" s="17"/>
@@ -9450,8 +9753,9 @@
       <c r="Y299" s="18"/>
       <c r="Z299" s="18"/>
       <c r="AA299" s="18"/>
-    </row>
-    <row r="300" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB299" s="18"/>
+    </row>
+    <row r="300" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A300" s="17"/>
       <c r="B300" s="17"/>
       <c r="C300" s="17"/>
@@ -9479,8 +9783,9 @@
       <c r="Y300" s="18"/>
       <c r="Z300" s="18"/>
       <c r="AA300" s="18"/>
-    </row>
-    <row r="301" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB300" s="18"/>
+    </row>
+    <row r="301" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A301" s="17"/>
       <c r="B301" s="17"/>
       <c r="C301" s="17"/>
@@ -9508,8 +9813,9 @@
       <c r="Y301" s="18"/>
       <c r="Z301" s="18"/>
       <c r="AA301" s="18"/>
-    </row>
-    <row r="302" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB301" s="18"/>
+    </row>
+    <row r="302" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A302" s="17"/>
       <c r="B302" s="17"/>
       <c r="C302" s="17"/>
@@ -9537,8 +9843,9 @@
       <c r="Y302" s="18"/>
       <c r="Z302" s="18"/>
       <c r="AA302" s="18"/>
-    </row>
-    <row r="303" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB302" s="18"/>
+    </row>
+    <row r="303" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A303" s="17"/>
       <c r="B303" s="17"/>
       <c r="C303" s="17"/>
@@ -9566,8 +9873,9 @@
       <c r="Y303" s="18"/>
       <c r="Z303" s="18"/>
       <c r="AA303" s="18"/>
-    </row>
-    <row r="304" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB303" s="18"/>
+    </row>
+    <row r="304" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A304" s="17"/>
       <c r="B304" s="17"/>
       <c r="C304" s="17"/>
@@ -9595,8 +9903,9 @@
       <c r="Y304" s="18"/>
       <c r="Z304" s="18"/>
       <c r="AA304" s="18"/>
-    </row>
-    <row r="305" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB304" s="18"/>
+    </row>
+    <row r="305" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A305" s="17"/>
       <c r="B305" s="17"/>
       <c r="C305" s="17"/>
@@ -9624,8 +9933,9 @@
       <c r="Y305" s="18"/>
       <c r="Z305" s="18"/>
       <c r="AA305" s="18"/>
-    </row>
-    <row r="306" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB305" s="18"/>
+    </row>
+    <row r="306" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A306" s="17"/>
       <c r="B306" s="17"/>
       <c r="C306" s="17"/>
@@ -9653,8 +9963,9 @@
       <c r="Y306" s="18"/>
       <c r="Z306" s="18"/>
       <c r="AA306" s="18"/>
-    </row>
-    <row r="307" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB306" s="18"/>
+    </row>
+    <row r="307" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A307" s="17"/>
       <c r="B307" s="17"/>
       <c r="C307" s="17"/>
@@ -9682,8 +9993,9 @@
       <c r="Y307" s="18"/>
       <c r="Z307" s="18"/>
       <c r="AA307" s="18"/>
-    </row>
-    <row r="308" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB307" s="18"/>
+    </row>
+    <row r="308" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A308" s="17"/>
       <c r="B308" s="17"/>
       <c r="C308" s="17"/>
@@ -9711,8 +10023,9 @@
       <c r="Y308" s="18"/>
       <c r="Z308" s="18"/>
       <c r="AA308" s="18"/>
-    </row>
-    <row r="309" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB308" s="18"/>
+    </row>
+    <row r="309" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A309" s="17"/>
       <c r="B309" s="17"/>
       <c r="C309" s="17"/>
@@ -9740,8 +10053,9 @@
       <c r="Y309" s="18"/>
       <c r="Z309" s="18"/>
       <c r="AA309" s="18"/>
-    </row>
-    <row r="310" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB309" s="18"/>
+    </row>
+    <row r="310" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A310" s="17"/>
       <c r="B310" s="17"/>
       <c r="C310" s="17"/>
@@ -9769,8 +10083,9 @@
       <c r="Y310" s="18"/>
       <c r="Z310" s="18"/>
       <c r="AA310" s="18"/>
-    </row>
-    <row r="311" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB310" s="18"/>
+    </row>
+    <row r="311" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A311" s="17"/>
       <c r="B311" s="17"/>
       <c r="C311" s="17"/>
@@ -9798,8 +10113,9 @@
       <c r="Y311" s="18"/>
       <c r="Z311" s="18"/>
       <c r="AA311" s="18"/>
-    </row>
-    <row r="312" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB311" s="18"/>
+    </row>
+    <row r="312" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A312" s="17"/>
       <c r="B312" s="17"/>
       <c r="C312" s="17"/>
@@ -9827,8 +10143,9 @@
       <c r="Y312" s="18"/>
       <c r="Z312" s="18"/>
       <c r="AA312" s="18"/>
-    </row>
-    <row r="313" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB312" s="18"/>
+    </row>
+    <row r="313" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A313" s="17"/>
       <c r="B313" s="17"/>
       <c r="C313" s="17"/>
@@ -9856,8 +10173,9 @@
       <c r="Y313" s="18"/>
       <c r="Z313" s="18"/>
       <c r="AA313" s="18"/>
-    </row>
-    <row r="314" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB313" s="18"/>
+    </row>
+    <row r="314" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A314" s="17"/>
       <c r="B314" s="17"/>
       <c r="C314" s="17"/>
@@ -9885,8 +10203,9 @@
       <c r="Y314" s="18"/>
       <c r="Z314" s="18"/>
       <c r="AA314" s="18"/>
-    </row>
-    <row r="315" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB314" s="18"/>
+    </row>
+    <row r="315" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A315" s="17"/>
       <c r="B315" s="17"/>
       <c r="C315" s="17"/>
@@ -9914,8 +10233,9 @@
       <c r="Y315" s="18"/>
       <c r="Z315" s="18"/>
       <c r="AA315" s="18"/>
-    </row>
-    <row r="316" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB315" s="18"/>
+    </row>
+    <row r="316" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A316" s="17"/>
       <c r="B316" s="17"/>
       <c r="C316" s="17"/>
@@ -9943,8 +10263,9 @@
       <c r="Y316" s="18"/>
       <c r="Z316" s="18"/>
       <c r="AA316" s="18"/>
-    </row>
-    <row r="317" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB316" s="18"/>
+    </row>
+    <row r="317" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A317" s="17"/>
       <c r="B317" s="17"/>
       <c r="C317" s="17"/>
@@ -9972,8 +10293,9 @@
       <c r="Y317" s="18"/>
       <c r="Z317" s="18"/>
       <c r="AA317" s="18"/>
-    </row>
-    <row r="318" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB317" s="18"/>
+    </row>
+    <row r="318" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A318" s="17"/>
       <c r="B318" s="17"/>
       <c r="C318" s="17"/>
@@ -10001,8 +10323,9 @@
       <c r="Y318" s="18"/>
       <c r="Z318" s="18"/>
       <c r="AA318" s="18"/>
-    </row>
-    <row r="319" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB318" s="18"/>
+    </row>
+    <row r="319" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A319" s="17"/>
       <c r="B319" s="17"/>
       <c r="C319" s="17"/>
@@ -10030,8 +10353,9 @@
       <c r="Y319" s="18"/>
       <c r="Z319" s="18"/>
       <c r="AA319" s="18"/>
-    </row>
-    <row r="320" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB319" s="18"/>
+    </row>
+    <row r="320" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A320" s="17"/>
       <c r="B320" s="17"/>
       <c r="C320" s="17"/>
@@ -10059,8 +10383,9 @@
       <c r="Y320" s="18"/>
       <c r="Z320" s="18"/>
       <c r="AA320" s="18"/>
-    </row>
-    <row r="321" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB320" s="18"/>
+    </row>
+    <row r="321" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A321" s="17"/>
       <c r="B321" s="17"/>
       <c r="C321" s="17"/>
@@ -10088,8 +10413,9 @@
       <c r="Y321" s="18"/>
       <c r="Z321" s="18"/>
       <c r="AA321" s="18"/>
-    </row>
-    <row r="322" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB321" s="18"/>
+    </row>
+    <row r="322" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A322" s="17"/>
       <c r="B322" s="17"/>
       <c r="C322" s="17"/>
@@ -10117,8 +10443,9 @@
       <c r="Y322" s="18"/>
       <c r="Z322" s="18"/>
       <c r="AA322" s="18"/>
-    </row>
-    <row r="323" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB322" s="18"/>
+    </row>
+    <row r="323" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A323" s="17"/>
       <c r="B323" s="17"/>
       <c r="C323" s="17"/>
@@ -10146,8 +10473,9 @@
       <c r="Y323" s="18"/>
       <c r="Z323" s="18"/>
       <c r="AA323" s="18"/>
-    </row>
-    <row r="324" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB323" s="18"/>
+    </row>
+    <row r="324" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A324" s="17"/>
       <c r="B324" s="17"/>
       <c r="C324" s="17"/>
@@ -10175,8 +10503,9 @@
       <c r="Y324" s="18"/>
       <c r="Z324" s="18"/>
       <c r="AA324" s="18"/>
-    </row>
-    <row r="325" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB324" s="18"/>
+    </row>
+    <row r="325" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A325" s="17"/>
       <c r="B325" s="17"/>
       <c r="C325" s="17"/>
@@ -10204,8 +10533,9 @@
       <c r="Y325" s="18"/>
       <c r="Z325" s="18"/>
       <c r="AA325" s="18"/>
-    </row>
-    <row r="326" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB325" s="18"/>
+    </row>
+    <row r="326" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A326" s="17"/>
       <c r="B326" s="17"/>
       <c r="C326" s="17"/>
@@ -10233,8 +10563,9 @@
       <c r="Y326" s="18"/>
       <c r="Z326" s="18"/>
       <c r="AA326" s="18"/>
-    </row>
-    <row r="327" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB326" s="18"/>
+    </row>
+    <row r="327" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A327" s="17"/>
       <c r="B327" s="17"/>
       <c r="C327" s="17"/>
@@ -10262,8 +10593,9 @@
       <c r="Y327" s="18"/>
       <c r="Z327" s="18"/>
       <c r="AA327" s="18"/>
-    </row>
-    <row r="328" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB327" s="18"/>
+    </row>
+    <row r="328" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A328" s="17"/>
       <c r="B328" s="17"/>
       <c r="C328" s="17"/>
@@ -10291,8 +10623,9 @@
       <c r="Y328" s="18"/>
       <c r="Z328" s="18"/>
       <c r="AA328" s="18"/>
-    </row>
-    <row r="329" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB328" s="18"/>
+    </row>
+    <row r="329" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A329" s="17"/>
       <c r="B329" s="17"/>
       <c r="C329" s="17"/>
@@ -10320,8 +10653,9 @@
       <c r="Y329" s="18"/>
       <c r="Z329" s="18"/>
       <c r="AA329" s="18"/>
-    </row>
-    <row r="330" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB329" s="18"/>
+    </row>
+    <row r="330" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A330" s="17"/>
       <c r="B330" s="17"/>
       <c r="C330" s="17"/>
@@ -10349,8 +10683,9 @@
       <c r="Y330" s="18"/>
       <c r="Z330" s="18"/>
       <c r="AA330" s="18"/>
-    </row>
-    <row r="331" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB330" s="18"/>
+    </row>
+    <row r="331" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A331" s="17"/>
       <c r="B331" s="17"/>
       <c r="C331" s="17"/>
@@ -10378,8 +10713,9 @@
       <c r="Y331" s="18"/>
       <c r="Z331" s="18"/>
       <c r="AA331" s="18"/>
-    </row>
-    <row r="332" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB331" s="18"/>
+    </row>
+    <row r="332" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A332" s="17"/>
       <c r="B332" s="17"/>
       <c r="C332" s="17"/>
@@ -10407,8 +10743,9 @@
       <c r="Y332" s="18"/>
       <c r="Z332" s="18"/>
       <c r="AA332" s="18"/>
-    </row>
-    <row r="333" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB332" s="18"/>
+    </row>
+    <row r="333" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A333" s="17"/>
       <c r="B333" s="17"/>
       <c r="C333" s="17"/>
@@ -10436,8 +10773,9 @@
       <c r="Y333" s="18"/>
       <c r="Z333" s="18"/>
       <c r="AA333" s="18"/>
-    </row>
-    <row r="334" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB333" s="18"/>
+    </row>
+    <row r="334" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A334" s="17"/>
       <c r="B334" s="17"/>
       <c r="C334" s="17"/>
@@ -10465,13 +10803,14 @@
       <c r="Y334" s="18"/>
       <c r="Z334" s="18"/>
       <c r="AA334" s="18"/>
-    </row>
-    <row r="335" spans="1:27" ht="20.100000000000001" customHeight="1">
+      <c r="AB334" s="18"/>
+    </row>
+    <row r="335" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A335" s="5"/>
       <c r="B335" s="5"/>
       <c r="C335" s="5"/>
     </row>
-    <row r="336" spans="1:27" ht="20.100000000000001" customHeight="1">
+    <row r="336" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="A336" s="5"/>
       <c r="B336" s="5"/>
       <c r="C336" s="5"/>

--- a/core/utils/cadastrodeitens.xlsx
+++ b/core/utils/cadastrodeitens.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39706D06-F941-4787-9671-89544B9260B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97EB2C13-B040-4497-9F0D-E69C698CEA15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9029D061-8B28-4E8B-B87C-E01B1A6C0E7F}"/>
   </bookViews>
@@ -719,7 +719,7 @@
   <dimension ref="A1:AB784"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -800,16 +800,16 @@
         <v>12</v>
       </c>
       <c r="X1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="AB1" s="2" t="s">
         <v>20</v>
